--- a/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
+++ b/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2810699A-BA2B-4971-97BC-1649F2108970}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2861B28-7146-4179-866A-CD394B91C168}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="370">
   <si>
     <t>Id_Dep</t>
   </si>
@@ -158,6 +158,12 @@
     <t>San Agustín Acasaguastlán</t>
   </si>
   <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Se impedirá el tránsito de ingreso y egreso a la aldea para fortalecer la vigilancia, estas seran controladas por agentes de la Policia Nacional Civil</t>
+  </si>
+  <si>
     <t>San Cristóbal Acasaguastlán</t>
   </si>
   <si>
@@ -194,6 +200,9 @@
     <t>Santiago Sacatepéquez</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>San Bartolomé Milpas Altas</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>Patzún</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se pidio a las personas del municipio que tuvieran un confinamiento total, a los vendedores de mercados que pusieran sus ventas en las puertas de su casa para no salir, todos tenian que usar mascarillas y guantes al salir </t>
   </si>
   <si>
@@ -470,6 +476,12 @@
     <t>Olintepeque</t>
   </si>
   <si>
+    <t xml:space="preserve">No dejar salir de la casa a las personas que dieron positivo </t>
+  </si>
+  <si>
+    <t>Instalaron talanqueras e n las entradas y salidas del lugar, así como elementos de la Policia Nacional Civil para que no puedan entrar o salir del lugar</t>
+  </si>
+  <si>
     <t>San Carlos Sija</t>
   </si>
   <si>
@@ -521,6 +533,12 @@
     <t>Coatepeque</t>
   </si>
   <si>
+    <t>Quedaron en cuarentena por 14 días como medida para contener el contagio del virus.</t>
+  </si>
+  <si>
+    <t>No se permitio la salida y entrada de los pobladores a la ciudad, habian elementos de seguridad al resguardo de la medida</t>
+  </si>
+  <si>
     <t>Génova</t>
   </si>
   <si>
@@ -1017,6 +1035,9 @@
   </si>
   <si>
     <t>Gualán</t>
+  </si>
+  <si>
+    <t>Se implemento una cuarentena domiciliar</t>
   </si>
   <si>
     <t>Teculután</t>
@@ -1253,7 +1274,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -1402,26 +1423,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2142,8 +2143,8 @@
   <dimension ref="A10:K351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="E51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2330,9 +2331,13 @@
       <c r="G15" s="3">
         <v>14.6656095393</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="15.6">
@@ -2627,9 +2632,13 @@
       <c r="G26" s="3">
         <v>14.3443841705</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="15.6">
@@ -2713,7 +2722,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="15.6">
+    <row r="30" spans="1:11" ht="45">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2735,10 +2744,16 @@
       <c r="G30" s="3">
         <v>15.019334477899999</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
       <c r="A31" s="2">
@@ -2748,7 +2763,7 @@
         <v>204</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -2775,7 +2790,7 @@
         <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
@@ -2802,7 +2817,7 @@
         <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
@@ -2829,7 +2844,7 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>31</v>
@@ -2856,7 +2871,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>31</v>
@@ -2883,10 +2898,10 @@
         <v>301</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2910,10 +2925,10 @@
         <v>302</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2937,10 +2952,10 @@
         <v>303</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2964,10 +2979,10 @@
         <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -2991,10 +3006,10 @@
         <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -3018,10 +3033,10 @@
         <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -3032,9 +3047,13 @@
       <c r="G41" s="3">
         <v>14.6410741098</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="15.6">
@@ -3045,10 +3064,10 @@
         <v>307</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -3072,10 +3091,10 @@
         <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -3099,10 +3118,10 @@
         <v>309</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -3126,10 +3145,10 @@
         <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -3153,10 +3172,10 @@
         <v>311</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3180,10 +3199,10 @@
         <v>312</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -3207,10 +3226,10 @@
         <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -3234,10 +3253,10 @@
         <v>314</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -3261,10 +3280,10 @@
         <v>315</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -3288,10 +3307,10 @@
         <v>316</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3315,10 +3334,10 @@
         <v>401</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3329,9 +3348,13 @@
       <c r="G52" s="3">
         <v>14.677881150499999</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" ht="15.6">
@@ -3342,10 +3365,10 @@
         <v>402</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -3369,10 +3392,10 @@
         <v>403</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3396,10 +3419,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3423,10 +3446,10 @@
         <v>405</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3450,10 +3473,10 @@
         <v>406</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3477,10 +3500,10 @@
         <v>407</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3492,16 +3515,16 @@
         <v>14.6470588481</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.6">
@@ -3512,10 +3535,10 @@
         <v>408</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3539,10 +3562,10 @@
         <v>409</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3566,10 +3589,10 @@
         <v>410</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3593,10 +3616,10 @@
         <v>411</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3620,10 +3643,10 @@
         <v>412</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3647,10 +3670,10 @@
         <v>413</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3674,10 +3697,10 @@
         <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3701,10 +3724,10 @@
         <v>415</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3728,10 +3751,10 @@
         <v>416</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3755,13 +3778,13 @@
         <v>501</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F68" s="3">
         <v>-90.793194132599993</v>
@@ -3782,13 +3805,13 @@
         <v>502</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F69" s="3">
         <v>-91.070888395300003</v>
@@ -3809,13 +3832,13 @@
         <v>503</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" t="s">
         <v>79</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
-        <v>77</v>
       </c>
       <c r="F70" s="3">
         <v>-90.9497353151</v>
@@ -3836,13 +3859,13 @@
         <v>504</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F71" s="3">
         <v>-90.939937239299994</v>
@@ -3863,13 +3886,13 @@
         <v>505</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F72" s="3">
         <v>-90.809496745399997</v>
@@ -3890,13 +3913,13 @@
         <v>506</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" s="3">
         <v>-91.404186093000007</v>
@@ -3917,13 +3940,13 @@
         <v>507</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F74" s="3">
         <v>-91.112524042900006</v>
@@ -3944,13 +3967,13 @@
         <v>508</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F75" s="3">
         <v>-90.672749847000006</v>
@@ -3971,13 +3994,13 @@
         <v>509</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F76" s="3">
         <v>-90.882358325300004</v>
@@ -3998,13 +4021,13 @@
         <v>510</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F77" s="3">
         <v>-90.698964895299994</v>
@@ -4025,13 +4048,13 @@
         <v>511</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F78" s="3">
         <v>-90.703858967499997</v>
@@ -4052,13 +4075,13 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F79" s="3">
         <v>-90.645361257399998</v>
@@ -4079,13 +4102,13 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F80" s="3">
         <v>-91.300724404299999</v>
@@ -4106,13 +4129,13 @@
         <v>514</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F81" s="3">
         <v>-91.142949810600001</v>
@@ -4133,13 +4156,13 @@
         <v>601</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F82" s="3">
         <v>-90.298351965899997</v>
@@ -4160,13 +4183,13 @@
         <v>602</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F83" s="3">
         <v>-90.414661287399994</v>
@@ -4187,13 +4210,13 @@
         <v>603</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F84" s="3">
         <v>-90.337157146300001</v>
@@ -4214,13 +4237,13 @@
         <v>604</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E85" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F85" s="3">
         <v>-90.170807569499999</v>
@@ -4241,13 +4264,13 @@
         <v>605</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F86" s="3">
         <v>-90.162412274600001</v>
@@ -4268,13 +4291,13 @@
         <v>606</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E87" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F87" s="3">
         <v>-90.111470670399996</v>
@@ -4295,13 +4318,13 @@
         <v>607</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E88" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F88" s="3">
         <v>-90.268913849100002</v>
@@ -4322,13 +4345,13 @@
         <v>608</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F89" s="3">
         <v>-90.334838364099994</v>
@@ -4349,13 +4372,13 @@
         <v>609</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F90" s="3">
         <v>-90.547373052599994</v>
@@ -4376,13 +4399,13 @@
         <v>610</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F91" s="3">
         <v>-90.2579385218</v>
@@ -4403,13 +4426,13 @@
         <v>611</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E92" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F92" s="3">
         <v>-90.430057983400005</v>
@@ -4430,13 +4453,13 @@
         <v>612</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F93" s="3">
         <v>-90.357050106000003</v>
@@ -4457,13 +4480,13 @@
         <v>613</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E94" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F94" s="3">
         <v>-90.497657627799995</v>
@@ -4484,13 +4507,13 @@
         <v>614</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F95" s="3">
         <v>-90.272382264499996</v>
@@ -4511,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F96" s="3">
         <v>-91.201482768299996</v>
@@ -4538,13 +4561,13 @@
         <v>701</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F97" s="3">
         <v>-91.180970340800002</v>
@@ -4565,13 +4588,13 @@
         <v>702</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F98" s="3">
         <v>-91.2283944534</v>
@@ -4592,13 +4615,13 @@
         <v>703</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" t="s">
         <v>110</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" t="s">
-        <v>108</v>
       </c>
       <c r="F99" s="3">
         <v>-91.331590710499995</v>
@@ -4619,13 +4642,13 @@
         <v>704</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F100" s="3">
         <v>-91.274937982599994</v>
@@ -4646,13 +4669,13 @@
         <v>705</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F101" s="3">
         <v>-91.293438037399994</v>
@@ -4673,13 +4696,13 @@
         <v>706</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F102" s="3">
         <v>-91.381446518499999</v>
@@ -4700,13 +4723,13 @@
         <v>707</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F103" s="3">
         <v>-91.297038259000004</v>
@@ -4727,13 +4750,13 @@
         <v>708</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F104" s="3">
         <v>-91.135134551799993</v>
@@ -4754,13 +4777,13 @@
         <v>709</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F105" s="3">
         <v>-91.106535676899995</v>
@@ -4781,13 +4804,13 @@
         <v>710</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F106" s="3">
         <v>-91.1465318602</v>
@@ -4808,13 +4831,13 @@
         <v>711</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F107" s="3">
         <v>-91.124134816099996</v>
@@ -4835,13 +4858,13 @@
         <v>712</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F108" s="3">
         <v>-91.108250008699997</v>
@@ -4862,13 +4885,13 @@
         <v>713</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F109" s="3">
         <v>-91.146613548399998</v>
@@ -4889,13 +4912,13 @@
         <v>714</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F110" s="3">
         <v>-91.223820772600007</v>
@@ -4916,13 +4939,13 @@
         <v>715</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F111" s="3">
         <v>-91.280686838199998</v>
@@ -4943,13 +4966,13 @@
         <v>716</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F112" s="3">
         <v>-91.259860005600004</v>
@@ -4970,13 +4993,13 @@
         <v>717</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F113" s="3">
         <v>-91.314707668799997</v>
@@ -4997,13 +5020,13 @@
         <v>718</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F114" s="3">
         <v>-91.2777710238</v>
@@ -5024,13 +5047,13 @@
         <v>719</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F115" s="3">
         <v>-91.227705315099996</v>
@@ -5051,13 +5074,13 @@
         <v>801</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F116" s="3">
         <v>-91.311018133700003</v>
@@ -5078,13 +5101,13 @@
         <v>802</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F117" s="3">
         <v>-91.445673915499995</v>
@@ -5105,13 +5128,13 @@
         <v>803</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" t="s">
         <v>130</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" t="s">
-        <v>128</v>
       </c>
       <c r="F118" s="3">
         <v>-91.477389862999999</v>
@@ -5132,13 +5155,13 @@
         <v>804</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F119" s="3">
         <v>-91.497435010999993</v>
@@ -5159,13 +5182,13 @@
         <v>805</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F120" s="3">
         <v>-91.418615989200006</v>
@@ -5186,13 +5209,13 @@
         <v>806</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F121" s="3">
         <v>-91.317234746400004</v>
@@ -5213,13 +5236,13 @@
         <v>807</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F122" s="3">
         <v>-91.269115502399998</v>
@@ -5240,13 +5263,13 @@
         <v>808</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E123" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F123" s="3">
         <v>-91.460870437099999</v>
@@ -5267,13 +5290,13 @@
         <v>901</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F124" s="3">
         <v>-91.533361548800002</v>
@@ -5294,13 +5317,13 @@
         <v>902</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F125" s="3">
         <v>-91.462455116200005</v>
@@ -5313,7 +5336,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" ht="15.6">
+    <row r="126" spans="1:11" ht="45">
       <c r="A126" s="2">
         <v>9</v>
       </c>
@@ -5321,13 +5344,13 @@
         <v>903</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F126" s="3">
         <v>-91.535985539600006</v>
@@ -5335,10 +5358,18 @@
       <c r="G126" s="3">
         <v>14.8936445103</v>
       </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="9"/>
+      <c r="H126" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="15.6">
       <c r="A127" s="2">
@@ -5348,13 +5379,13 @@
         <v>904</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F127" s="3">
         <v>-91.565665269799993</v>
@@ -5375,13 +5406,13 @@
         <v>905</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F128" s="3">
         <v>-91.641292835300007</v>
@@ -5402,13 +5433,13 @@
         <v>906</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F129" s="3">
         <v>-91.649196423999996</v>
@@ -5429,13 +5460,13 @@
         <v>907</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F130" s="3">
         <v>-91.612970745499993</v>
@@ -5456,13 +5487,13 @@
         <v>908</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F131" s="3">
         <v>-91.602465271200003</v>
@@ -5483,13 +5514,13 @@
         <v>909</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E132" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F132" s="3">
         <v>-91.684464050900004</v>
@@ -5510,13 +5541,13 @@
         <v>910</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E133" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F133" s="3">
         <v>-91.585519843599997</v>
@@ -5537,13 +5568,13 @@
         <v>911</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F134" s="3">
         <v>-91.619669548999994</v>
@@ -5564,13 +5595,13 @@
         <v>912</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F135" s="3">
         <v>-91.6643951784</v>
@@ -5591,13 +5622,13 @@
         <v>913</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F136" s="3">
         <v>-91.484492037500004</v>
@@ -5618,13 +5649,13 @@
         <v>914</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F137" s="3">
         <v>-91.439688107199999</v>
@@ -5645,13 +5676,13 @@
         <v>915</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F138" s="3">
         <v>-91.627671380199999</v>
@@ -5672,13 +5703,13 @@
         <v>916</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F139" s="3">
         <v>-91.496128578099999</v>
@@ -5699,13 +5730,13 @@
         <v>917</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F140" s="3">
         <v>-91.754255842500001</v>
@@ -5726,13 +5757,13 @@
         <v>918</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F141" s="3">
         <v>-91.546363837800001</v>
@@ -5745,7 +5776,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" ht="15.6">
+    <row r="142" spans="1:11" ht="15.75">
       <c r="A142" s="2">
         <v>9</v>
       </c>
@@ -5753,13 +5784,13 @@
         <v>919</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F142" s="3">
         <v>-91.608168015999993</v>
@@ -5767,12 +5798,10 @@
       <c r="G142" s="3">
         <v>14.698678730399999</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="9"/>
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
     </row>
-    <row r="143" spans="1:11" ht="15.6">
+    <row r="143" spans="1:11" ht="45">
       <c r="A143" s="2">
         <v>9</v>
       </c>
@@ -5780,13 +5809,13 @@
         <v>920</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E143" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F143" s="3">
         <v>-91.979178706699997</v>
@@ -5794,10 +5823,18 @@
       <c r="G143" s="3">
         <v>14.6413693586</v>
       </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="9"/>
+      <c r="H143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="15.6">
       <c r="A144" s="2">
@@ -5807,13 +5844,13 @@
         <v>921</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F144" s="3">
         <v>-91.8452206993</v>
@@ -5834,13 +5871,13 @@
         <v>922</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E145" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F145" s="3">
         <v>-91.863431283300002</v>
@@ -5861,13 +5898,13 @@
         <v>923</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F146" s="3">
         <v>-91.577181064200005</v>
@@ -5888,13 +5925,13 @@
         <v>924</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E147" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F147" s="3">
         <v>-91.675931923500002</v>
@@ -5915,13 +5952,13 @@
         <v>1001</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E148" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F148" s="3">
         <v>-91.516460216699997</v>
@@ -5942,13 +5979,13 @@
         <v>1002</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E149" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F149" s="3">
         <v>-91.564109062399993</v>
@@ -5969,13 +6006,13 @@
         <v>1003</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E150" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F150" s="3">
         <v>-91.536780773299995</v>
@@ -5996,13 +6033,13 @@
         <v>1004</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E151" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F151" s="3">
         <v>-91.454232230399995</v>
@@ -6023,13 +6060,13 @@
         <v>1005</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E152" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F152" s="3">
         <v>-91.431567843099998</v>
@@ -6050,13 +6087,13 @@
         <v>1006</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E153" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F153" s="3">
         <v>-91.471241689300001</v>
@@ -6077,13 +6114,13 @@
         <v>1007</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E154" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F154" s="3">
         <v>-91.533912060000006</v>
@@ -6104,13 +6141,13 @@
         <v>1008</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E155" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F155" s="3">
         <v>-91.469847968699995</v>
@@ -6131,13 +6168,13 @@
         <v>1009</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F156" s="3">
         <v>-91.431253782799999</v>
@@ -6158,13 +6195,13 @@
         <v>1010</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E157" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F157" s="3">
         <v>-91.408992426500006</v>
@@ -6185,13 +6222,13 @@
         <v>1011</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F158" s="3">
         <v>-91.359583456099998</v>
@@ -6212,13 +6249,13 @@
         <v>1012</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E159" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F159" s="3">
         <v>-91.514408289200006</v>
@@ -6239,13 +6276,13 @@
         <v>1013</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E160" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F160" s="3">
         <v>-91.306372835399998</v>
@@ -6266,13 +6303,13 @@
         <v>1014</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F161" s="3">
         <v>-91.176385595200003</v>
@@ -6293,13 +6330,13 @@
         <v>1015</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E162" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F162" s="3">
         <v>-91.246736815700004</v>
@@ -6320,13 +6357,13 @@
         <v>1016</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F163" s="3">
         <v>-91.198917816000005</v>
@@ -6347,13 +6384,13 @@
         <v>1017</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F164" s="3">
         <v>-91.412106117199997</v>
@@ -6374,13 +6411,13 @@
         <v>1018</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E165" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F165" s="3">
         <v>-91.498651875799993</v>
@@ -6401,13 +6438,13 @@
         <v>1019</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F166" s="3">
         <v>-91.527893063299999</v>
@@ -6428,13 +6465,13 @@
         <v>1020</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E167" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F167" s="3">
         <v>-91.333139591999995</v>
@@ -6455,13 +6492,13 @@
         <v>1021</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F168" s="3">
         <v>-91.583035768599999</v>
@@ -6482,13 +6519,13 @@
         <v>1101</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E169" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F169" s="3">
         <v>-92.036111844999994</v>
@@ -6509,13 +6546,13 @@
         <v>1102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E170" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F170" s="3">
         <v>-91.649500741899999</v>
@@ -6536,13 +6573,13 @@
         <v>1103</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E171" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F171" s="3">
         <v>-91.654580786699995</v>
@@ -6563,13 +6600,13 @@
         <v>1104</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E172" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F172" s="3">
         <v>-91.593901664300006</v>
@@ -6590,13 +6627,13 @@
         <v>1105</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E173" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F173" s="3">
         <v>-91.630451305199998</v>
@@ -6617,13 +6654,13 @@
         <v>1106</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E174" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F174" s="3">
         <v>-91.656784916299998</v>
@@ -6644,13 +6681,13 @@
         <v>1107</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E175" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F175" s="3">
         <v>-91.884054630999998</v>
@@ -6671,13 +6708,13 @@
         <v>1108</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E176" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F176" s="3">
         <v>-91.691837371099993</v>
@@ -6698,13 +6735,13 @@
         <v>1109</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E177" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F177" s="3">
         <v>-91.756844133000001</v>
@@ -6725,13 +6762,13 @@
         <v>1201</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E178" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F178" s="3">
         <v>-91.835333572300001</v>
@@ -6755,10 +6792,10 @@
         <v>21</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E179" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F179" s="3">
         <v>-91.788980694599999</v>
@@ -6779,13 +6816,13 @@
         <v>1203</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E180" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F180" s="3">
         <v>-91.7124860152</v>
@@ -6806,13 +6843,13 @@
         <v>1204</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E181" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F181" s="3">
         <v>-91.746444667999995</v>
@@ -6833,13 +6870,13 @@
         <v>1205</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E182" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F182" s="3">
         <v>-91.734547638099997</v>
@@ -6860,13 +6897,13 @@
         <v>1206</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E183" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F183" s="3">
         <v>-91.869053288499998</v>
@@ -6887,13 +6924,13 @@
         <v>1207</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E184" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F184" s="3">
         <v>-92.077644301899994</v>
@@ -6914,13 +6951,13 @@
         <v>1208</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E185" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F185" s="3">
         <v>-92.056254065999994</v>
@@ -6941,13 +6978,13 @@
         <v>1209</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E186" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F186" s="3">
         <v>-91.970655864299999</v>
@@ -6968,13 +7005,13 @@
         <v>1210</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E187" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F187" s="3">
         <v>-91.830492042000003</v>
@@ -6995,13 +7032,13 @@
         <v>1211</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F188" s="3">
         <v>-91.911733720200004</v>
@@ -7022,13 +7059,13 @@
         <v>1212</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E189" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F189" s="3">
         <v>-91.907552369399994</v>
@@ -7049,13 +7086,13 @@
         <v>1213</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E190" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F190" s="3">
         <v>-91.947282393699993</v>
@@ -7076,13 +7113,13 @@
         <v>1214</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E191" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F191" s="3">
         <v>-91.998503091299995</v>
@@ -7103,13 +7140,13 @@
         <v>1215</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E192" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F192" s="3">
         <v>-92.098849476400005</v>
@@ -7130,13 +7167,13 @@
         <v>1216</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F193" s="3">
         <v>-92.070056033300006</v>
@@ -7157,13 +7194,13 @@
         <v>1217</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F194" s="3">
         <v>-92.097364857000002</v>
@@ -7184,13 +7221,13 @@
         <v>1218</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E195" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F195" s="3">
         <v>-92.189061840700006</v>
@@ -7211,13 +7248,13 @@
         <v>1219</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F196" s="3">
         <v>-91.946276386999997</v>
@@ -7238,13 +7275,13 @@
         <v>1220</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E197" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F197" s="3">
         <v>-91.8445561005</v>
@@ -7265,13 +7302,13 @@
         <v>1221</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F198" s="3">
         <v>-91.8494001583</v>
@@ -7292,13 +7329,13 @@
         <v>1222</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F199" s="3">
         <v>-92.0556200953</v>
@@ -7319,13 +7356,13 @@
         <v>1223</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E200" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F200" s="3">
         <v>-91.922279551599999</v>
@@ -7346,13 +7383,13 @@
         <v>1224</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E201" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F201" s="3">
         <v>-91.960274119399998</v>
@@ -7373,13 +7410,13 @@
         <v>1225</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E202" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F202" s="3">
         <v>-91.768885294</v>
@@ -7400,13 +7437,13 @@
         <v>1226</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E203" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F203" s="3">
         <v>-91.657590134499998</v>
@@ -7427,13 +7464,13 @@
         <v>1227</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E204" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F204" s="3">
         <v>-91.8458843704</v>
@@ -7454,13 +7491,13 @@
         <v>1228</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E205" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F205" s="3">
         <v>-91.683664771599993</v>
@@ -7481,13 +7518,13 @@
         <v>1229</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F206" s="3">
         <v>-91.744086060100003</v>
@@ -7508,13 +7545,13 @@
         <v>1230</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E207" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F207" s="3">
         <v>-92.1197955385</v>
@@ -7535,13 +7572,13 @@
         <v>1301</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E208" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F208" s="3">
         <v>-91.346777860299994</v>
@@ -7562,13 +7599,13 @@
         <v>1302</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E209" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F209" s="3">
         <v>-91.407949647899997</v>
@@ -7589,13 +7626,13 @@
         <v>1303</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E210" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F210" s="3">
         <v>-91.483525005499999</v>
@@ -7616,13 +7653,13 @@
         <v>1304</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E211" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F211" s="3">
         <v>-91.962375669699995</v>
@@ -7643,13 +7680,13 @@
         <v>1305</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E212" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F212" s="3">
         <v>-91.677795216299998</v>
@@ -7670,13 +7707,13 @@
         <v>1306</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E213" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F213" s="3">
         <v>-91.755591303499997</v>
@@ -7697,13 +7734,13 @@
         <v>1307</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E214" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F214" s="3">
         <v>-91.733228944000004</v>
@@ -7724,13 +7761,13 @@
         <v>1308</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E215" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F215" s="3">
         <v>-91.431724370300003</v>
@@ -7751,13 +7788,13 @@
         <v>1309</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E216" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F216" s="3">
         <v>-91.804919373399997</v>
@@ -7778,13 +7815,13 @@
         <v>1310</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E217" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F217" s="3">
         <v>-91.625425287400006</v>
@@ -7805,13 +7842,13 @@
         <v>1311</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E218" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F218" s="3">
         <v>-91.926830014999993</v>
@@ -7832,13 +7869,13 @@
         <v>1312</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E219" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F219" s="3">
         <v>-91.875802648399997</v>
@@ -7859,13 +7896,13 @@
         <v>1313</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E220" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F220" s="3">
         <v>-91.624189707799999</v>
@@ -7886,13 +7923,13 @@
         <v>1314</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F221" s="3">
         <v>-91.5222916158</v>
@@ -7913,13 +7950,13 @@
         <v>1315</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F222" s="3">
         <v>-91.585012451799997</v>
@@ -7940,13 +7977,13 @@
         <v>1316</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E223" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F223" s="3">
         <v>-91.626275948900002</v>
@@ -7967,13 +8004,13 @@
         <v>1317</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F224" s="3">
         <v>-91.325361323699994</v>
@@ -7994,13 +8031,13 @@
         <v>1318</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E225" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F225" s="3">
         <v>-91.439241841400005</v>
@@ -8021,13 +8058,13 @@
         <v>1319</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F226" s="3">
         <v>-91.711281784400001</v>
@@ -8048,13 +8085,13 @@
         <v>1320</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E227" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F227" s="3">
         <v>-91.558355959300002</v>
@@ -8075,13 +8112,13 @@
         <v>1321</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E228" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F228" s="3">
         <v>-92.039620911900002</v>
@@ -8102,13 +8139,13 @@
         <v>1322</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E229" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F229" s="3">
         <v>-91.640575189900005</v>
@@ -8129,13 +8166,13 @@
         <v>1323</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E230" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F230" s="3">
         <v>-91.386312936799996</v>
@@ -8156,13 +8193,13 @@
         <v>1324</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E231" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F231" s="3">
         <v>-91.773687202299996</v>
@@ -8183,13 +8220,13 @@
         <v>1325</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E232" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F232" s="3">
         <v>-91.584792198900004</v>
@@ -8210,13 +8247,13 @@
         <v>1326</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E233" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F233" s="3">
         <v>-91.221083449899993</v>
@@ -8237,13 +8274,13 @@
         <v>1327</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E234" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F234" s="3">
         <v>-91.214116577400006</v>
@@ -8264,13 +8301,13 @@
         <v>1328</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E235" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F235" s="3">
         <v>-91.672568670399997</v>
@@ -8291,13 +8328,13 @@
         <v>1329</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E236" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F236" s="3">
         <v>-91.706644718000007</v>
@@ -8318,13 +8355,13 @@
         <v>1330</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E237" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F237" s="3">
         <v>-91.685209619299997</v>
@@ -8345,13 +8382,13 @@
         <v>1331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E238" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F238" s="3">
         <v>-91.849017521099995</v>
@@ -8372,13 +8409,13 @@
         <v>1332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E239" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F239" s="3">
         <v>-91.738578721300001</v>
@@ -8399,13 +8436,13 @@
         <v>1333</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E240" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F240" s="3">
         <v>-91.733773505800002</v>
@@ -8426,13 +8463,13 @@
         <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E241" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F241" s="3">
         <v>-91.123625024899994</v>
@@ -8453,13 +8490,13 @@
         <v>1402</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E242" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F242" s="3">
         <v>-91.044895543099997</v>
@@ -8480,13 +8517,13 @@
         <v>1403</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E243" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F243" s="3">
         <v>-91.022075947999994</v>
@@ -8507,13 +8544,13 @@
         <v>1404</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E244" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F244" s="3">
         <v>-90.885168603500006</v>
@@ -8534,13 +8571,13 @@
         <v>1405</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E245" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F245" s="3">
         <v>-90.992745335199999</v>
@@ -8561,13 +8598,13 @@
         <v>1406</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E246" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F246" s="3">
         <v>-91.092099982400001</v>
@@ -8588,13 +8625,13 @@
         <v>1407</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E247" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F247" s="3">
         <v>-91.196799451900006</v>
@@ -8615,13 +8652,13 @@
         <v>1408</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E248" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F248" s="3">
         <v>-91.214462873399995</v>
@@ -8642,13 +8679,13 @@
         <v>1409</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E249" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F249" s="3">
         <v>-91.166098987699996</v>
@@ -8669,13 +8706,13 @@
         <v>1410</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E250" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F250" s="3">
         <v>-91.018204802599996</v>
@@ -8696,13 +8733,13 @@
         <v>1411</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E251" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F251" s="3">
         <v>-91.096245476199996</v>
@@ -8723,13 +8760,13 @@
         <v>1412</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E252" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F252" s="3">
         <v>-90.821091232200004</v>
@@ -8750,13 +8787,13 @@
         <v>1413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F253" s="3">
         <v>-91.173303515900002</v>
@@ -8777,13 +8814,13 @@
         <v>1414</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F254" s="3">
         <v>-90.918243148599998</v>
@@ -8804,13 +8841,13 @@
         <v>1415</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E255" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F255" s="3">
         <v>-90.810122511000003</v>
@@ -8831,13 +8868,13 @@
         <v>1416</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F256" s="3">
         <v>-91.112894047899999</v>
@@ -8858,13 +8895,13 @@
         <v>1417</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E257" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F257" s="3">
         <v>-91.033633249600001</v>
@@ -8885,13 +8922,13 @@
         <v>1418</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F258" s="3">
         <v>-90.864105525599996</v>
@@ -8912,13 +8949,13 @@
         <v>1419</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E259" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F259" s="3">
         <v>-90.576541581900003</v>
@@ -8939,13 +8976,13 @@
         <v>1420</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E260" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F260" s="3">
         <v>-90.867284844400004</v>
@@ -8966,13 +9003,13 @@
         <v>1421</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E261" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F261" s="3">
         <v>-90.654460549999996</v>
@@ -8993,13 +9030,13 @@
         <v>1501</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E262" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F262" s="3">
         <v>-90.225170355399996</v>
@@ -9020,13 +9057,13 @@
         <v>1502</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E263" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F263" s="3">
         <v>-90.413049724199993</v>
@@ -9047,13 +9084,13 @@
         <v>1503</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E264" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F264" s="3">
         <v>-90.507080995799996</v>
@@ -9074,13 +9111,13 @@
         <v>1504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E265" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F265" s="3">
         <v>-90.671275424200005</v>
@@ -9101,13 +9138,13 @@
         <v>1505</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E266" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F266" s="3">
         <v>-90.575432231199997</v>
@@ -9128,13 +9165,13 @@
         <v>1506</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E267" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F267" s="3">
         <v>-90.487303449300001</v>
@@ -9155,13 +9192,13 @@
         <v>1507</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E268" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F268" s="3">
         <v>-90.194256072800002</v>
@@ -9182,13 +9219,13 @@
         <v>1508</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E269" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F269" s="3">
         <v>-90.038437972300002</v>
@@ -9209,13 +9246,13 @@
         <v>1601</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E270" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F270" s="3">
         <v>-90.540163277000005</v>
@@ -9236,13 +9273,13 @@
         <v>1602</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E271" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F271" s="3">
         <v>-90.414022986999996</v>
@@ -9263,13 +9300,13 @@
         <v>1603</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E272" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F272" s="3">
         <v>-90.565138758000003</v>
@@ -9290,13 +9327,13 @@
         <v>1604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E273" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F273" s="3">
         <v>-90.337603636799997</v>
@@ -9317,13 +9354,13 @@
         <v>1605</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E274" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F274" s="3">
         <v>-90.241696780400005</v>
@@ -9344,13 +9381,13 @@
         <v>1606</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E275" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F275" s="3">
         <v>-90.0809888844</v>
@@ -9371,13 +9408,13 @@
         <v>1607</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E276" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F276" s="3">
         <v>-89.655695832099994</v>
@@ -9398,13 +9435,13 @@
         <v>1608</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E277" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F277" s="3">
         <v>-89.839368065200006</v>
@@ -9425,13 +9462,13 @@
         <v>1609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E278" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F278" s="3">
         <v>-90.152039575700002</v>
@@ -9452,13 +9489,13 @@
         <v>1610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E279" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F279" s="3">
         <v>-90.236552233200001</v>
@@ -9479,13 +9516,13 @@
         <v>1611</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E280" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F280" s="3">
         <v>-89.990137220999998</v>
@@ -9506,13 +9543,13 @@
         <v>1612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E281" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F281" s="3">
         <v>-89.846545381799999</v>
@@ -9533,13 +9570,13 @@
         <v>1613</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E282" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F282" s="3">
         <v>-90.367867791500004</v>
@@ -9560,13 +9597,13 @@
         <v>1614</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E283" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F283" s="3">
         <v>-89.5763077939</v>
@@ -9587,13 +9624,13 @@
         <v>1615</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F284" s="3">
         <v>-89.762156653399998</v>
@@ -9614,13 +9651,13 @@
         <v>1616</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F285" s="3">
         <v>-89.833982185899998</v>
@@ -9641,13 +9678,13 @@
         <v>1617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E286" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F286" s="3">
         <v>-90.080920376099996</v>
@@ -9668,13 +9705,13 @@
         <v>1701</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E287" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F287" s="3">
         <v>-89.534690827800006</v>
@@ -9695,13 +9732,13 @@
         <v>1702</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E288" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F288" s="3">
         <v>-89.809727266300001</v>
@@ -9722,13 +9759,13 @@
         <v>1703</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E289" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F289" s="3">
         <v>-90.071963769999996</v>
@@ -9749,13 +9786,13 @@
         <v>1704</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E290" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F290" s="3">
         <v>-90.404789543999996</v>
@@ -9776,13 +9813,13 @@
         <v>1705</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E291" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F291" s="3">
         <v>-90.642764341299994</v>
@@ -9803,13 +9840,13 @@
         <v>1706</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E292" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F292" s="3">
         <v>-89.978122806499996</v>
@@ -9830,13 +9867,13 @@
         <v>1707</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E293" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F293" s="3">
         <v>-89.576910178000006</v>
@@ -9857,13 +9894,13 @@
         <v>1708</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E294" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F294" s="3">
         <v>-89.359935833099996</v>
@@ -9884,13 +9921,13 @@
         <v>1709</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="E295" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F295" s="3">
         <v>-89.650778795500003</v>
@@ -9911,13 +9948,13 @@
         <v>1710</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E296" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F296" s="3">
         <v>-90.222067300700004</v>
@@ -9938,13 +9975,13 @@
         <v>1711</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E297" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F297" s="3">
         <v>-89.244976767599994</v>
@@ -9965,13 +10002,13 @@
         <v>1712</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E298" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F298" s="3">
         <v>-89.572871535100006</v>
@@ -9992,13 +10029,13 @@
         <v>1713</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E299" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F299" s="3">
         <v>-90.482542788499998</v>
@@ -10019,13 +10056,13 @@
         <v>1714</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E300" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F300" s="3">
         <v>-89.7338217665</v>
@@ -10046,10 +10083,10 @@
         <v>1801</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E301" t="s">
         <v>32</v>
@@ -10073,10 +10110,10 @@
         <v>1802</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E302" t="s">
         <v>32</v>
@@ -10100,10 +10137,10 @@
         <v>1803</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E303" t="s">
         <v>32</v>
@@ -10127,10 +10164,10 @@
         <v>1804</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E304" t="s">
         <v>32</v>
@@ -10154,10 +10191,10 @@
         <v>1805</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E305" t="s">
         <v>32</v>
@@ -10181,10 +10218,10 @@
         <v>1901</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E306" t="s">
         <v>32</v>
@@ -10208,10 +10245,10 @@
         <v>1902</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E307" t="s">
         <v>32</v>
@@ -10235,10 +10272,10 @@
         <v>1903</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E308" t="s">
         <v>32</v>
@@ -10254,7 +10291,7 @@
       <c r="J308" s="8"/>
       <c r="K308" s="9"/>
     </row>
-    <row r="309" spans="1:11" ht="15.6">
+    <row r="309" spans="1:11" ht="15.75">
       <c r="A309" s="2">
         <v>19</v>
       </c>
@@ -10262,10 +10299,10 @@
         <v>1904</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E309" t="s">
         <v>32</v>
@@ -10276,12 +10313,18 @@
       <c r="G309" s="3">
         <v>15.146810514</v>
       </c>
-      <c r="H309" s="8"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="8"/>
+      <c r="H309" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I309" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K309" s="9"/>
     </row>
-    <row r="310" spans="1:11" ht="15.6">
+    <row r="310" spans="1:11" ht="15.75">
       <c r="A310" s="2">
         <v>19</v>
       </c>
@@ -10289,10 +10332,10 @@
         <v>1905</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E310" t="s">
         <v>32</v>
@@ -10303,9 +10346,15 @@
       <c r="G310" s="3">
         <v>15.120072883200001</v>
       </c>
-      <c r="H310" s="8"/>
-      <c r="I310" s="9"/>
-      <c r="J310" s="8"/>
+      <c r="H310" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I310" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J310" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K310" s="9"/>
     </row>
     <row r="311" spans="1:11" ht="15.6">
@@ -10316,10 +10365,10 @@
         <v>1906</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E311" t="s">
         <v>32</v>
@@ -10343,10 +10392,10 @@
         <v>1907</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="E312" t="s">
         <v>32</v>
@@ -10370,10 +10419,10 @@
         <v>1908</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E313" t="s">
         <v>32</v>
@@ -10397,10 +10446,10 @@
         <v>1909</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E314" t="s">
         <v>32</v>
@@ -10424,10 +10473,10 @@
         <v>1910</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E315" t="s">
         <v>32</v>
@@ -10451,10 +10500,10 @@
         <v>1911</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E316" t="s">
         <v>32</v>
@@ -10478,10 +10527,10 @@
         <v>2001</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E317" t="s">
         <v>32</v>
@@ -10505,10 +10554,10 @@
         <v>2002</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E318" t="s">
         <v>32</v>
@@ -10532,10 +10581,10 @@
         <v>2003</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E319" t="s">
         <v>32</v>
@@ -10559,10 +10608,10 @@
         <v>2004</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E320" t="s">
         <v>32</v>
@@ -10586,10 +10635,10 @@
         <v>2005</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E321" t="s">
         <v>32</v>
@@ -10613,10 +10662,10 @@
         <v>2006</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E322" t="s">
         <v>32</v>
@@ -10640,10 +10689,10 @@
         <v>2007</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E323" t="s">
         <v>32</v>
@@ -10667,10 +10716,10 @@
         <v>2008</v>
       </c>
       <c r="C324" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E324" t="s">
         <v>32</v>
@@ -10694,10 +10743,10 @@
         <v>2009</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E325" t="s">
         <v>32</v>
@@ -10721,10 +10770,10 @@
         <v>2010</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E326" t="s">
         <v>32</v>
@@ -10748,10 +10797,10 @@
         <v>2011</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E327" t="s">
         <v>32</v>
@@ -10775,10 +10824,10 @@
         <v>2101</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E328" t="s">
         <v>32</v>
@@ -10802,10 +10851,10 @@
         <v>2102</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E329" t="s">
         <v>32</v>
@@ -10829,10 +10878,10 @@
         <v>2103</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E330" t="s">
         <v>32</v>
@@ -10856,10 +10905,10 @@
         <v>2104</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E331" t="s">
         <v>32</v>
@@ -10883,10 +10932,10 @@
         <v>2105</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E332" t="s">
         <v>32</v>
@@ -10910,10 +10959,10 @@
         <v>2106</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E333" t="s">
         <v>32</v>
@@ -10937,10 +10986,10 @@
         <v>2107</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E334" t="s">
         <v>32</v>
@@ -10964,13 +11013,13 @@
         <v>2201</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E335" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F335" s="3">
         <v>-89.931021080799994</v>
@@ -10994,10 +11043,10 @@
         <v>31</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E336" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F336" s="3">
         <v>-89.850195852599995</v>
@@ -11018,13 +11067,13 @@
         <v>2203</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E337" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F337" s="3">
         <v>-89.770635131099993</v>
@@ -11045,13 +11094,13 @@
         <v>2204</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E338" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F338" s="3">
         <v>-89.599944656900007</v>
@@ -11072,13 +11121,13 @@
         <v>2205</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E339" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F339" s="3">
         <v>-89.667373733199994</v>
@@ -11099,13 +11148,13 @@
         <v>2206</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E340" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F340" s="3">
         <v>-89.803534499799994</v>
@@ -11126,13 +11175,13 @@
         <v>2207</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E341" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F341" s="3">
         <v>-89.727179436300005</v>
@@ -11153,13 +11202,13 @@
         <v>2208</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E342" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F342" s="3">
         <v>-89.761909762599998</v>
@@ -11180,13 +11229,13 @@
         <v>2209</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E343" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F343" s="3">
         <v>-89.853072771900003</v>
@@ -11207,13 +11256,13 @@
         <v>2210</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E344" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F344" s="3">
         <v>-89.821319345700005</v>
@@ -11234,13 +11283,13 @@
         <v>2211</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E345" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F345" s="3">
         <v>-89.911517754100004</v>
@@ -11261,13 +11310,13 @@
         <v>2212</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E346" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F346" s="3">
         <v>-90.009778031500005</v>
@@ -11288,13 +11337,13 @@
         <v>2213</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E347" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F347" s="3">
         <v>-90.016293872099993</v>
@@ -11315,13 +11364,13 @@
         <v>2214</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E348" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F348" s="3">
         <v>-90.1256230149</v>
@@ -11342,13 +11391,13 @@
         <v>2215</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E349" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F349" s="3">
         <v>-90.263873802700004</v>
@@ -11369,13 +11418,13 @@
         <v>2216</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F350" s="3">
         <v>-90.145609953900006</v>
@@ -11396,13 +11445,13 @@
         <v>2217</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F351" s="3">
         <v>-90.059505582</v>
@@ -11417,23 +11466,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"SI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H351">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="H11:H141 H143:H351 J12:J141 J143:J351">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"SI"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J351">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"SI"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
+++ b/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B2861B28-7146-4179-866A-CD394B91C168}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E2D24B3-92AB-46BA-BB0E-0A81004B4557}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="374">
   <si>
     <t>Id_Dep</t>
   </si>
@@ -98,6 +98,12 @@
     <t>Santa Catarina Pinula</t>
   </si>
   <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>En la zona 1 y 2 se tiene un cordon sanitario para que no entren ni salgan personas que no residan en dichas zonas</t>
+  </si>
+  <si>
     <t>San José Pinula</t>
   </si>
   <si>
@@ -158,9 +164,6 @@
     <t>San Agustín Acasaguastlán</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>Se impedirá el tránsito de ingreso y egreso a la aldea para fortalecer la vigilancia, estas seran controladas por agentes de la Policia Nacional Civil</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>Sanarate</t>
   </si>
   <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
     <t>Sansare</t>
   </si>
   <si>
@@ -444,6 +450,12 @@
   </si>
   <si>
     <t>Región COVID 2</t>
+  </si>
+  <si>
+    <t>Cuarentena Domiciliar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se permite la entrada de personas que no son del lugar y resguardan los agentes Policiales que no salgan del lugar </t>
   </si>
   <si>
     <t>San Cristóbal Totonicapán</t>
@@ -2143,8 +2155,8 @@
   <dimension ref="A10:K351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="10" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="15.6">
+    <row r="12" spans="1:11" ht="33.75">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2250,10 +2262,16 @@
       <c r="G12" s="3">
         <v>14.564393684600001</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="2">
@@ -2263,7 +2281,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2290,7 +2308,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -2317,7 +2335,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -2348,7 +2366,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -2375,7 +2393,7 @@
         <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -2402,7 +2420,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -2429,7 +2447,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -2456,7 +2474,7 @@
         <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -2483,7 +2501,7 @@
         <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2510,7 +2528,7 @@
         <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2537,7 +2555,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -2564,7 +2582,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2591,7 +2609,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -2618,7 +2636,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2649,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -2676,13 +2694,13 @@
         <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3">
         <v>-90.063611696600006</v>
@@ -2703,13 +2721,13 @@
         <v>202</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F29" s="3">
         <v>-90.161870287200003</v>
@@ -2730,13 +2748,13 @@
         <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>32</v>
       </c>
       <c r="F30" s="3">
         <v>-89.9860980885</v>
@@ -2749,10 +2767,10 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
@@ -2763,13 +2781,13 @@
         <v>204</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="3">
         <v>-89.8931988187</v>
@@ -2790,13 +2808,13 @@
         <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F32" s="3">
         <v>-89.916014347499996</v>
@@ -2804,7 +2822,9 @@
       <c r="G32" s="3">
         <v>14.8884364004</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
@@ -2817,13 +2837,13 @@
         <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="3">
         <v>-90.257552023499997</v>
@@ -2833,7 +2853,9 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
+      <c r="J33" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="15.6">
@@ -2844,13 +2866,13 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="3">
         <v>-90.0990198983</v>
@@ -2871,13 +2893,13 @@
         <v>208</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" s="3">
         <v>-90.274894080099997</v>
@@ -2898,10 +2920,10 @@
         <v>301</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2925,10 +2947,10 @@
         <v>302</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2952,10 +2974,10 @@
         <v>303</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2979,10 +3001,10 @@
         <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -3006,10 +3028,10 @@
         <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -3033,10 +3055,10 @@
         <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -3052,7 +3074,7 @@
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41" s="9"/>
     </row>
@@ -3064,10 +3086,10 @@
         <v>307</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -3091,10 +3113,10 @@
         <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -3118,10 +3140,10 @@
         <v>309</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -3145,10 +3167,10 @@
         <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -3172,10 +3194,10 @@
         <v>311</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3199,10 +3221,10 @@
         <v>312</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -3226,10 +3248,10 @@
         <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -3253,10 +3275,10 @@
         <v>314</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -3280,10 +3302,10 @@
         <v>315</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -3307,10 +3329,10 @@
         <v>316</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3334,10 +3356,10 @@
         <v>401</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3365,10 +3387,10 @@
         <v>402</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -3392,10 +3414,10 @@
         <v>403</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3419,10 +3441,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3446,10 +3468,10 @@
         <v>405</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3473,10 +3495,10 @@
         <v>406</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3500,10 +3522,10 @@
         <v>407</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3515,16 +3537,16 @@
         <v>14.6470588481</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.6">
@@ -3535,10 +3557,10 @@
         <v>408</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3562,10 +3584,10 @@
         <v>409</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3589,10 +3611,10 @@
         <v>410</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3616,10 +3638,10 @@
         <v>411</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3643,10 +3665,10 @@
         <v>412</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3670,10 +3692,10 @@
         <v>413</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3697,10 +3719,10 @@
         <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3724,10 +3746,10 @@
         <v>415</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3751,10 +3773,10 @@
         <v>416</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3778,13 +3800,13 @@
         <v>501</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F68" s="3">
         <v>-90.793194132599993</v>
@@ -3805,13 +3827,13 @@
         <v>502</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F69" s="3">
         <v>-91.070888395300003</v>
@@ -3832,13 +3854,13 @@
         <v>503</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" t="s">
         <v>81</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" t="s">
-        <v>79</v>
       </c>
       <c r="F70" s="3">
         <v>-90.9497353151</v>
@@ -3859,13 +3881,13 @@
         <v>504</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F71" s="3">
         <v>-90.939937239299994</v>
@@ -3886,13 +3908,13 @@
         <v>505</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F72" s="3">
         <v>-90.809496745399997</v>
@@ -3913,13 +3935,13 @@
         <v>506</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F73" s="3">
         <v>-91.404186093000007</v>
@@ -3940,13 +3962,13 @@
         <v>507</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F74" s="3">
         <v>-91.112524042900006</v>
@@ -3967,13 +3989,13 @@
         <v>508</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F75" s="3">
         <v>-90.672749847000006</v>
@@ -3994,13 +4016,13 @@
         <v>509</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F76" s="3">
         <v>-90.882358325300004</v>
@@ -4021,13 +4043,13 @@
         <v>510</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F77" s="3">
         <v>-90.698964895299994</v>
@@ -4048,13 +4070,13 @@
         <v>511</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F78" s="3">
         <v>-90.703858967499997</v>
@@ -4075,13 +4097,13 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="3">
         <v>-90.645361257399998</v>
@@ -4102,13 +4124,13 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F80" s="3">
         <v>-91.300724404299999</v>
@@ -4129,13 +4151,13 @@
         <v>514</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F81" s="3">
         <v>-91.142949810600001</v>
@@ -4156,13 +4178,13 @@
         <v>601</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F82" s="3">
         <v>-90.298351965899997</v>
@@ -4183,13 +4205,13 @@
         <v>602</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F83" s="3">
         <v>-90.414661287399994</v>
@@ -4210,13 +4232,13 @@
         <v>603</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F84" s="3">
         <v>-90.337157146300001</v>
@@ -4237,13 +4259,13 @@
         <v>604</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F85" s="3">
         <v>-90.170807569499999</v>
@@ -4264,13 +4286,13 @@
         <v>605</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F86" s="3">
         <v>-90.162412274600001</v>
@@ -4291,13 +4313,13 @@
         <v>606</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F87" s="3">
         <v>-90.111470670399996</v>
@@ -4318,13 +4340,13 @@
         <v>607</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F88" s="3">
         <v>-90.268913849100002</v>
@@ -4345,13 +4367,13 @@
         <v>608</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F89" s="3">
         <v>-90.334838364099994</v>
@@ -4372,13 +4394,13 @@
         <v>609</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F90" s="3">
         <v>-90.547373052599994</v>
@@ -4399,13 +4421,13 @@
         <v>610</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F91" s="3">
         <v>-90.2579385218</v>
@@ -4426,13 +4448,13 @@
         <v>611</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F92" s="3">
         <v>-90.430057983400005</v>
@@ -4453,13 +4475,13 @@
         <v>612</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F93" s="3">
         <v>-90.357050106000003</v>
@@ -4480,13 +4502,13 @@
         <v>613</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F94" s="3">
         <v>-90.497657627799995</v>
@@ -4507,13 +4529,13 @@
         <v>614</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F95" s="3">
         <v>-90.272382264499996</v>
@@ -4534,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F96" s="3">
         <v>-91.201482768299996</v>
@@ -4561,13 +4583,13 @@
         <v>701</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F97" s="3">
         <v>-91.180970340800002</v>
@@ -4588,13 +4610,13 @@
         <v>702</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F98" s="3">
         <v>-91.2283944534</v>
@@ -4615,13 +4637,13 @@
         <v>703</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" t="s">
         <v>112</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" t="s">
-        <v>110</v>
       </c>
       <c r="F99" s="3">
         <v>-91.331590710499995</v>
@@ -4642,13 +4664,13 @@
         <v>704</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F100" s="3">
         <v>-91.274937982599994</v>
@@ -4669,13 +4691,13 @@
         <v>705</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F101" s="3">
         <v>-91.293438037399994</v>
@@ -4696,13 +4718,13 @@
         <v>706</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F102" s="3">
         <v>-91.381446518499999</v>
@@ -4723,13 +4745,13 @@
         <v>707</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F103" s="3">
         <v>-91.297038259000004</v>
@@ -4750,13 +4772,13 @@
         <v>708</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F104" s="3">
         <v>-91.135134551799993</v>
@@ -4777,13 +4799,13 @@
         <v>709</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" s="3">
         <v>-91.106535676899995</v>
@@ -4804,13 +4826,13 @@
         <v>710</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F106" s="3">
         <v>-91.1465318602</v>
@@ -4831,13 +4853,13 @@
         <v>711</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F107" s="3">
         <v>-91.124134816099996</v>
@@ -4858,13 +4880,13 @@
         <v>712</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F108" s="3">
         <v>-91.108250008699997</v>
@@ -4885,13 +4907,13 @@
         <v>713</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F109" s="3">
         <v>-91.146613548399998</v>
@@ -4912,13 +4934,13 @@
         <v>714</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F110" s="3">
         <v>-91.223820772600007</v>
@@ -4939,13 +4961,13 @@
         <v>715</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F111" s="3">
         <v>-91.280686838199998</v>
@@ -4966,13 +4988,13 @@
         <v>716</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F112" s="3">
         <v>-91.259860005600004</v>
@@ -4993,13 +5015,13 @@
         <v>717</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F113" s="3">
         <v>-91.314707668799997</v>
@@ -5020,13 +5042,13 @@
         <v>718</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F114" s="3">
         <v>-91.2777710238</v>
@@ -5047,13 +5069,13 @@
         <v>719</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E115" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F115" s="3">
         <v>-91.227705315099996</v>
@@ -5066,7 +5088,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="15.6">
+    <row r="116" spans="1:11" ht="45">
       <c r="A116" s="2">
         <v>8</v>
       </c>
@@ -5074,13 +5096,13 @@
         <v>801</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F116" s="3">
         <v>-91.311018133700003</v>
@@ -5088,10 +5110,18 @@
       <c r="G116" s="3">
         <v>14.9081236299</v>
       </c>
-      <c r="H116" s="8"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="9"/>
+      <c r="H116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="15.6">
       <c r="A117" s="2">
@@ -5101,13 +5131,13 @@
         <v>802</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E117" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F117" s="3">
         <v>-91.445673915499995</v>
@@ -5128,13 +5158,13 @@
         <v>803</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E118" t="s">
         <v>132</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E118" t="s">
-        <v>130</v>
       </c>
       <c r="F118" s="3">
         <v>-91.477389862999999</v>
@@ -5155,13 +5185,13 @@
         <v>804</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E119" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F119" s="3">
         <v>-91.497435010999993</v>
@@ -5182,13 +5212,13 @@
         <v>805</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F120" s="3">
         <v>-91.418615989200006</v>
@@ -5209,13 +5239,13 @@
         <v>806</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F121" s="3">
         <v>-91.317234746400004</v>
@@ -5236,13 +5266,13 @@
         <v>807</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" s="3">
         <v>-91.269115502399998</v>
@@ -5263,13 +5293,13 @@
         <v>808</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E123" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F123" s="3">
         <v>-91.460870437099999</v>
@@ -5290,13 +5320,13 @@
         <v>901</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E124" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F124" s="3">
         <v>-91.533361548800002</v>
@@ -5317,13 +5347,13 @@
         <v>902</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F125" s="3">
         <v>-91.462455116200005</v>
@@ -5344,13 +5374,13 @@
         <v>903</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F126" s="3">
         <v>-91.535985539600006</v>
@@ -5359,16 +5389,16 @@
         <v>14.8936445103</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.6">
@@ -5379,13 +5409,13 @@
         <v>904</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E127" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F127" s="3">
         <v>-91.565665269799993</v>
@@ -5406,13 +5436,13 @@
         <v>905</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F128" s="3">
         <v>-91.641292835300007</v>
@@ -5433,13 +5463,13 @@
         <v>906</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E129" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F129" s="3">
         <v>-91.649196423999996</v>
@@ -5460,13 +5490,13 @@
         <v>907</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E130" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F130" s="3">
         <v>-91.612970745499993</v>
@@ -5487,13 +5517,13 @@
         <v>908</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F131" s="3">
         <v>-91.602465271200003</v>
@@ -5514,13 +5544,13 @@
         <v>909</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E132" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F132" s="3">
         <v>-91.684464050900004</v>
@@ -5541,13 +5571,13 @@
         <v>910</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F133" s="3">
         <v>-91.585519843599997</v>
@@ -5568,13 +5598,13 @@
         <v>911</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F134" s="3">
         <v>-91.619669548999994</v>
@@ -5595,13 +5625,13 @@
         <v>912</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E135" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F135" s="3">
         <v>-91.6643951784</v>
@@ -5622,13 +5652,13 @@
         <v>913</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F136" s="3">
         <v>-91.484492037500004</v>
@@ -5649,13 +5679,13 @@
         <v>914</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E137" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F137" s="3">
         <v>-91.439688107199999</v>
@@ -5676,13 +5706,13 @@
         <v>915</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F138" s="3">
         <v>-91.627671380199999</v>
@@ -5703,13 +5733,13 @@
         <v>916</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F139" s="3">
         <v>-91.496128578099999</v>
@@ -5730,13 +5760,13 @@
         <v>917</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F140" s="3">
         <v>-91.754255842500001</v>
@@ -5757,13 +5787,13 @@
         <v>918</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F141" s="3">
         <v>-91.546363837800001</v>
@@ -5784,13 +5814,13 @@
         <v>919</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F142" s="3">
         <v>-91.608168015999993</v>
@@ -5809,13 +5839,13 @@
         <v>920</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F143" s="3">
         <v>-91.979178706699997</v>
@@ -5824,16 +5854,16 @@
         <v>14.6413693586</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15.6">
@@ -5844,13 +5874,13 @@
         <v>921</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F144" s="3">
         <v>-91.8452206993</v>
@@ -5871,13 +5901,13 @@
         <v>922</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F145" s="3">
         <v>-91.863431283300002</v>
@@ -5898,13 +5928,13 @@
         <v>923</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E146" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F146" s="3">
         <v>-91.577181064200005</v>
@@ -5925,13 +5955,13 @@
         <v>924</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F147" s="3">
         <v>-91.675931923500002</v>
@@ -5952,13 +5982,13 @@
         <v>1001</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E148" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F148" s="3">
         <v>-91.516460216699997</v>
@@ -5979,13 +6009,13 @@
         <v>1002</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E149" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F149" s="3">
         <v>-91.564109062399993</v>
@@ -6006,13 +6036,13 @@
         <v>1003</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E150" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F150" s="3">
         <v>-91.536780773299995</v>
@@ -6033,13 +6063,13 @@
         <v>1004</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E151" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F151" s="3">
         <v>-91.454232230399995</v>
@@ -6060,13 +6090,13 @@
         <v>1005</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E152" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F152" s="3">
         <v>-91.431567843099998</v>
@@ -6087,13 +6117,13 @@
         <v>1006</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F153" s="3">
         <v>-91.471241689300001</v>
@@ -6114,13 +6144,13 @@
         <v>1007</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E154" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F154" s="3">
         <v>-91.533912060000006</v>
@@ -6141,13 +6171,13 @@
         <v>1008</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E155" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F155" s="3">
         <v>-91.469847968699995</v>
@@ -6168,13 +6198,13 @@
         <v>1009</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F156" s="3">
         <v>-91.431253782799999</v>
@@ -6195,13 +6225,13 @@
         <v>1010</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E157" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F157" s="3">
         <v>-91.408992426500006</v>
@@ -6222,13 +6252,13 @@
         <v>1011</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E158" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F158" s="3">
         <v>-91.359583456099998</v>
@@ -6249,13 +6279,13 @@
         <v>1012</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E159" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F159" s="3">
         <v>-91.514408289200006</v>
@@ -6276,13 +6306,13 @@
         <v>1013</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E160" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F160" s="3">
         <v>-91.306372835399998</v>
@@ -6303,13 +6333,13 @@
         <v>1014</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E161" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F161" s="3">
         <v>-91.176385595200003</v>
@@ -6330,13 +6360,13 @@
         <v>1015</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E162" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F162" s="3">
         <v>-91.246736815700004</v>
@@ -6357,13 +6387,13 @@
         <v>1016</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E163" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F163" s="3">
         <v>-91.198917816000005</v>
@@ -6384,13 +6414,13 @@
         <v>1017</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E164" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F164" s="3">
         <v>-91.412106117199997</v>
@@ -6411,13 +6441,13 @@
         <v>1018</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E165" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F165" s="3">
         <v>-91.498651875799993</v>
@@ -6438,13 +6468,13 @@
         <v>1019</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E166" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F166" s="3">
         <v>-91.527893063299999</v>
@@ -6465,13 +6495,13 @@
         <v>1020</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F167" s="3">
         <v>-91.333139591999995</v>
@@ -6492,13 +6522,13 @@
         <v>1021</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F168" s="3">
         <v>-91.583035768599999</v>
@@ -6519,13 +6549,13 @@
         <v>1101</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F169" s="3">
         <v>-92.036111844999994</v>
@@ -6546,13 +6576,13 @@
         <v>1102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E170" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F170" s="3">
         <v>-91.649500741899999</v>
@@ -6573,13 +6603,13 @@
         <v>1103</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E171" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F171" s="3">
         <v>-91.654580786699995</v>
@@ -6600,13 +6630,13 @@
         <v>1104</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E172" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F172" s="3">
         <v>-91.593901664300006</v>
@@ -6627,13 +6657,13 @@
         <v>1105</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E173" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F173" s="3">
         <v>-91.630451305199998</v>
@@ -6654,13 +6684,13 @@
         <v>1106</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E174" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F174" s="3">
         <v>-91.656784916299998</v>
@@ -6681,13 +6711,13 @@
         <v>1107</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E175" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F175" s="3">
         <v>-91.884054630999998</v>
@@ -6708,13 +6738,13 @@
         <v>1108</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E176" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F176" s="3">
         <v>-91.691837371099993</v>
@@ -6735,13 +6765,13 @@
         <v>1109</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E177" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F177" s="3">
         <v>-91.756844133000001</v>
@@ -6762,13 +6792,13 @@
         <v>1201</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E178" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F178" s="3">
         <v>-91.835333572300001</v>
@@ -6789,13 +6819,13 @@
         <v>1202</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E179" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F179" s="3">
         <v>-91.788980694599999</v>
@@ -6816,13 +6846,13 @@
         <v>1203</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E180" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F180" s="3">
         <v>-91.7124860152</v>
@@ -6843,13 +6873,13 @@
         <v>1204</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E181" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F181" s="3">
         <v>-91.746444667999995</v>
@@ -6870,13 +6900,13 @@
         <v>1205</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E182" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F182" s="3">
         <v>-91.734547638099997</v>
@@ -6897,13 +6927,13 @@
         <v>1206</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E183" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F183" s="3">
         <v>-91.869053288499998</v>
@@ -6924,13 +6954,13 @@
         <v>1207</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E184" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F184" s="3">
         <v>-92.077644301899994</v>
@@ -6951,13 +6981,13 @@
         <v>1208</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E185" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F185" s="3">
         <v>-92.056254065999994</v>
@@ -6978,13 +7008,13 @@
         <v>1209</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E186" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F186" s="3">
         <v>-91.970655864299999</v>
@@ -7005,13 +7035,13 @@
         <v>1210</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E187" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F187" s="3">
         <v>-91.830492042000003</v>
@@ -7032,13 +7062,13 @@
         <v>1211</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E188" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F188" s="3">
         <v>-91.911733720200004</v>
@@ -7059,13 +7089,13 @@
         <v>1212</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E189" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F189" s="3">
         <v>-91.907552369399994</v>
@@ -7086,13 +7116,13 @@
         <v>1213</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E190" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F190" s="3">
         <v>-91.947282393699993</v>
@@ -7113,13 +7143,13 @@
         <v>1214</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E191" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F191" s="3">
         <v>-91.998503091299995</v>
@@ -7140,13 +7170,13 @@
         <v>1215</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E192" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F192" s="3">
         <v>-92.098849476400005</v>
@@ -7167,13 +7197,13 @@
         <v>1216</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E193" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F193" s="3">
         <v>-92.070056033300006</v>
@@ -7194,13 +7224,13 @@
         <v>1217</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E194" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F194" s="3">
         <v>-92.097364857000002</v>
@@ -7221,13 +7251,13 @@
         <v>1218</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E195" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F195" s="3">
         <v>-92.189061840700006</v>
@@ -7248,13 +7278,13 @@
         <v>1219</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E196" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F196" s="3">
         <v>-91.946276386999997</v>
@@ -7275,13 +7305,13 @@
         <v>1220</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F197" s="3">
         <v>-91.8445561005</v>
@@ -7302,13 +7332,13 @@
         <v>1221</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F198" s="3">
         <v>-91.8494001583</v>
@@ -7329,13 +7359,13 @@
         <v>1222</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E199" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F199" s="3">
         <v>-92.0556200953</v>
@@ -7356,13 +7386,13 @@
         <v>1223</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F200" s="3">
         <v>-91.922279551599999</v>
@@ -7383,13 +7413,13 @@
         <v>1224</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E201" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F201" s="3">
         <v>-91.960274119399998</v>
@@ -7410,13 +7440,13 @@
         <v>1225</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F202" s="3">
         <v>-91.768885294</v>
@@ -7437,13 +7467,13 @@
         <v>1226</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E203" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F203" s="3">
         <v>-91.657590134499998</v>
@@ -7464,13 +7494,13 @@
         <v>1227</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E204" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F204" s="3">
         <v>-91.8458843704</v>
@@ -7491,13 +7521,13 @@
         <v>1228</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E205" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F205" s="3">
         <v>-91.683664771599993</v>
@@ -7518,13 +7548,13 @@
         <v>1229</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E206" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F206" s="3">
         <v>-91.744086060100003</v>
@@ -7545,13 +7575,13 @@
         <v>1230</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E207" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F207" s="3">
         <v>-92.1197955385</v>
@@ -7572,13 +7602,13 @@
         <v>1301</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E208" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F208" s="3">
         <v>-91.346777860299994</v>
@@ -7599,13 +7629,13 @@
         <v>1302</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E209" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F209" s="3">
         <v>-91.407949647899997</v>
@@ -7626,13 +7656,13 @@
         <v>1303</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E210" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F210" s="3">
         <v>-91.483525005499999</v>
@@ -7653,13 +7683,13 @@
         <v>1304</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E211" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F211" s="3">
         <v>-91.962375669699995</v>
@@ -7680,13 +7710,13 @@
         <v>1305</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E212" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F212" s="3">
         <v>-91.677795216299998</v>
@@ -7707,13 +7737,13 @@
         <v>1306</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E213" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F213" s="3">
         <v>-91.755591303499997</v>
@@ -7734,13 +7764,13 @@
         <v>1307</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E214" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F214" s="3">
         <v>-91.733228944000004</v>
@@ -7753,7 +7783,7 @@
       <c r="J214" s="8"/>
       <c r="K214" s="9"/>
     </row>
-    <row r="215" spans="1:11" ht="15.6">
+    <row r="215" spans="1:11" ht="15.75">
       <c r="A215" s="2">
         <v>13</v>
       </c>
@@ -7761,13 +7791,13 @@
         <v>1308</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E215" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F215" s="3">
         <v>-91.431724370300003</v>
@@ -7775,9 +7805,15 @@
       <c r="G215" s="3">
         <v>15.7007403952</v>
       </c>
-      <c r="H215" s="8"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="8"/>
+      <c r="H215" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="K215" s="9"/>
     </row>
     <row r="216" spans="1:11" ht="15.6">
@@ -7788,13 +7824,13 @@
         <v>1309</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E216" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F216" s="3">
         <v>-91.804919373399997</v>
@@ -7815,13 +7851,13 @@
         <v>1310</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E217" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F217" s="3">
         <v>-91.625425287400006</v>
@@ -7842,13 +7878,13 @@
         <v>1311</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E218" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F218" s="3">
         <v>-91.926830014999993</v>
@@ -7869,13 +7905,13 @@
         <v>1312</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E219" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F219" s="3">
         <v>-91.875802648399997</v>
@@ -7896,13 +7932,13 @@
         <v>1313</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E220" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F220" s="3">
         <v>-91.624189707799999</v>
@@ -7923,13 +7959,13 @@
         <v>1314</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E221" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F221" s="3">
         <v>-91.5222916158</v>
@@ -7950,13 +7986,13 @@
         <v>1315</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E222" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F222" s="3">
         <v>-91.585012451799997</v>
@@ -7977,13 +8013,13 @@
         <v>1316</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E223" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F223" s="3">
         <v>-91.626275948900002</v>
@@ -8004,13 +8040,13 @@
         <v>1317</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E224" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F224" s="3">
         <v>-91.325361323699994</v>
@@ -8031,13 +8067,13 @@
         <v>1318</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F225" s="3">
         <v>-91.439241841400005</v>
@@ -8058,13 +8094,13 @@
         <v>1319</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F226" s="3">
         <v>-91.711281784400001</v>
@@ -8085,13 +8121,13 @@
         <v>1320</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E227" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F227" s="3">
         <v>-91.558355959300002</v>
@@ -8112,13 +8148,13 @@
         <v>1321</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F228" s="3">
         <v>-92.039620911900002</v>
@@ -8139,13 +8175,13 @@
         <v>1322</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E229" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F229" s="3">
         <v>-91.640575189900005</v>
@@ -8166,13 +8202,13 @@
         <v>1323</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F230" s="3">
         <v>-91.386312936799996</v>
@@ -8193,13 +8229,13 @@
         <v>1324</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E231" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F231" s="3">
         <v>-91.773687202299996</v>
@@ -8220,13 +8256,13 @@
         <v>1325</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E232" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F232" s="3">
         <v>-91.584792198900004</v>
@@ -8247,13 +8283,13 @@
         <v>1326</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E233" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F233" s="3">
         <v>-91.221083449899993</v>
@@ -8274,13 +8310,13 @@
         <v>1327</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E234" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F234" s="3">
         <v>-91.214116577400006</v>
@@ -8301,13 +8337,13 @@
         <v>1328</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E235" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F235" s="3">
         <v>-91.672568670399997</v>
@@ -8328,13 +8364,13 @@
         <v>1329</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E236" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F236" s="3">
         <v>-91.706644718000007</v>
@@ -8355,13 +8391,13 @@
         <v>1330</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E237" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F237" s="3">
         <v>-91.685209619299997</v>
@@ -8382,13 +8418,13 @@
         <v>1331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E238" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F238" s="3">
         <v>-91.849017521099995</v>
@@ -8409,13 +8445,13 @@
         <v>1332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E239" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F239" s="3">
         <v>-91.738578721300001</v>
@@ -8436,13 +8472,13 @@
         <v>1333</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E240" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F240" s="3">
         <v>-91.733773505800002</v>
@@ -8463,13 +8499,13 @@
         <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E241" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F241" s="3">
         <v>-91.123625024899994</v>
@@ -8490,13 +8526,13 @@
         <v>1402</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E242" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F242" s="3">
         <v>-91.044895543099997</v>
@@ -8517,13 +8553,13 @@
         <v>1403</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E243" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F243" s="3">
         <v>-91.022075947999994</v>
@@ -8544,13 +8580,13 @@
         <v>1404</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E244" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F244" s="3">
         <v>-90.885168603500006</v>
@@ -8571,13 +8607,13 @@
         <v>1405</v>
       </c>
       <c r="C245" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E245" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F245" s="3">
         <v>-90.992745335199999</v>
@@ -8598,13 +8634,13 @@
         <v>1406</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E246" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F246" s="3">
         <v>-91.092099982400001</v>
@@ -8625,13 +8661,13 @@
         <v>1407</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E247" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F247" s="3">
         <v>-91.196799451900006</v>
@@ -8652,13 +8688,13 @@
         <v>1408</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E248" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F248" s="3">
         <v>-91.214462873399995</v>
@@ -8679,13 +8715,13 @@
         <v>1409</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E249" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F249" s="3">
         <v>-91.166098987699996</v>
@@ -8706,13 +8742,13 @@
         <v>1410</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E250" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F250" s="3">
         <v>-91.018204802599996</v>
@@ -8733,13 +8769,13 @@
         <v>1411</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E251" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F251" s="3">
         <v>-91.096245476199996</v>
@@ -8760,13 +8796,13 @@
         <v>1412</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E252" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F252" s="3">
         <v>-90.821091232200004</v>
@@ -8787,13 +8823,13 @@
         <v>1413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E253" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F253" s="3">
         <v>-91.173303515900002</v>
@@ -8814,13 +8850,13 @@
         <v>1414</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E254" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F254" s="3">
         <v>-90.918243148599998</v>
@@ -8841,13 +8877,13 @@
         <v>1415</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E255" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F255" s="3">
         <v>-90.810122511000003</v>
@@ -8868,13 +8904,13 @@
         <v>1416</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E256" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F256" s="3">
         <v>-91.112894047899999</v>
@@ -8895,13 +8931,13 @@
         <v>1417</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F257" s="3">
         <v>-91.033633249600001</v>
@@ -8922,13 +8958,13 @@
         <v>1418</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F258" s="3">
         <v>-90.864105525599996</v>
@@ -8949,13 +8985,13 @@
         <v>1419</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E259" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F259" s="3">
         <v>-90.576541581900003</v>
@@ -8976,13 +9012,13 @@
         <v>1420</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F260" s="3">
         <v>-90.867284844400004</v>
@@ -9003,13 +9039,13 @@
         <v>1421</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E261" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F261" s="3">
         <v>-90.654460549999996</v>
@@ -9030,13 +9066,13 @@
         <v>1501</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E262" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F262" s="3">
         <v>-90.225170355399996</v>
@@ -9057,13 +9093,13 @@
         <v>1502</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E263" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F263" s="3">
         <v>-90.413049724199993</v>
@@ -9084,13 +9120,13 @@
         <v>1503</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E264" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F264" s="3">
         <v>-90.507080995799996</v>
@@ -9111,13 +9147,13 @@
         <v>1504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E265" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F265" s="3">
         <v>-90.671275424200005</v>
@@ -9138,13 +9174,13 @@
         <v>1505</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E266" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F266" s="3">
         <v>-90.575432231199997</v>
@@ -9165,13 +9201,13 @@
         <v>1506</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E267" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F267" s="3">
         <v>-90.487303449300001</v>
@@ -9192,13 +9228,13 @@
         <v>1507</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E268" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F268" s="3">
         <v>-90.194256072800002</v>
@@ -9219,13 +9255,13 @@
         <v>1508</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E269" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F269" s="3">
         <v>-90.038437972300002</v>
@@ -9246,13 +9282,13 @@
         <v>1601</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E270" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F270" s="3">
         <v>-90.540163277000005</v>
@@ -9273,13 +9309,13 @@
         <v>1602</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E271" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F271" s="3">
         <v>-90.414022986999996</v>
@@ -9300,13 +9336,13 @@
         <v>1603</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E272" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F272" s="3">
         <v>-90.565138758000003</v>
@@ -9327,13 +9363,13 @@
         <v>1604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E273" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F273" s="3">
         <v>-90.337603636799997</v>
@@ -9354,13 +9390,13 @@
         <v>1605</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E274" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F274" s="3">
         <v>-90.241696780400005</v>
@@ -9381,13 +9417,13 @@
         <v>1606</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E275" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F275" s="3">
         <v>-90.0809888844</v>
@@ -9408,13 +9444,13 @@
         <v>1607</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E276" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F276" s="3">
         <v>-89.655695832099994</v>
@@ -9435,13 +9471,13 @@
         <v>1608</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E277" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F277" s="3">
         <v>-89.839368065200006</v>
@@ -9462,13 +9498,13 @@
         <v>1609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E278" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F278" s="3">
         <v>-90.152039575700002</v>
@@ -9489,13 +9525,13 @@
         <v>1610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E279" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F279" s="3">
         <v>-90.236552233200001</v>
@@ -9516,13 +9552,13 @@
         <v>1611</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E280" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F280" s="3">
         <v>-89.990137220999998</v>
@@ -9543,13 +9579,13 @@
         <v>1612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E281" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F281" s="3">
         <v>-89.846545381799999</v>
@@ -9570,13 +9606,13 @@
         <v>1613</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E282" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F282" s="3">
         <v>-90.367867791500004</v>
@@ -9597,13 +9633,13 @@
         <v>1614</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E283" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F283" s="3">
         <v>-89.5763077939</v>
@@ -9624,13 +9660,13 @@
         <v>1615</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E284" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F284" s="3">
         <v>-89.762156653399998</v>
@@ -9651,13 +9687,13 @@
         <v>1616</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E285" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F285" s="3">
         <v>-89.833982185899998</v>
@@ -9678,13 +9714,13 @@
         <v>1617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E286" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F286" s="3">
         <v>-90.080920376099996</v>
@@ -9705,13 +9741,13 @@
         <v>1701</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E287" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F287" s="3">
         <v>-89.534690827800006</v>
@@ -9732,13 +9768,13 @@
         <v>1702</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E288" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F288" s="3">
         <v>-89.809727266300001</v>
@@ -9759,13 +9795,13 @@
         <v>1703</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E289" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F289" s="3">
         <v>-90.071963769999996</v>
@@ -9786,13 +9822,13 @@
         <v>1704</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E290" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F290" s="3">
         <v>-90.404789543999996</v>
@@ -9813,13 +9849,13 @@
         <v>1705</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E291" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F291" s="3">
         <v>-90.642764341299994</v>
@@ -9840,13 +9876,13 @@
         <v>1706</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E292" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F292" s="3">
         <v>-89.978122806499996</v>
@@ -9867,13 +9903,13 @@
         <v>1707</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E293" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F293" s="3">
         <v>-89.576910178000006</v>
@@ -9894,13 +9930,13 @@
         <v>1708</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E294" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F294" s="3">
         <v>-89.359935833099996</v>
@@ -9921,13 +9957,13 @@
         <v>1709</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E295" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F295" s="3">
         <v>-89.650778795500003</v>
@@ -9948,13 +9984,13 @@
         <v>1710</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E296" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F296" s="3">
         <v>-90.222067300700004</v>
@@ -9975,13 +10011,13 @@
         <v>1711</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E297" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F297" s="3">
         <v>-89.244976767599994</v>
@@ -10002,13 +10038,13 @@
         <v>1712</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E298" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F298" s="3">
         <v>-89.572871535100006</v>
@@ -10029,13 +10065,13 @@
         <v>1713</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E299" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F299" s="3">
         <v>-90.482542788499998</v>
@@ -10056,13 +10092,13 @@
         <v>1714</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E300" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F300" s="3">
         <v>-89.7338217665</v>
@@ -10083,13 +10119,13 @@
         <v>1801</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E301" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F301" s="3">
         <v>-88.490589347099998</v>
@@ -10110,13 +10146,13 @@
         <v>1802</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E302" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F302" s="3">
         <v>-89.063881881300006</v>
@@ -10137,13 +10173,13 @@
         <v>1803</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E303" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F303" s="3">
         <v>-89.375629489800005</v>
@@ -10164,13 +10200,13 @@
         <v>1804</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E304" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F304" s="3">
         <v>-88.772517151800002</v>
@@ -10191,13 +10227,13 @@
         <v>1805</v>
       </c>
       <c r="C305" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D305" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E305" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F305" s="3">
         <v>-89.080823783699998</v>
@@ -10218,13 +10254,13 @@
         <v>1901</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E306" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F306" s="3">
         <v>-89.461172833800006</v>
@@ -10245,13 +10281,13 @@
         <v>1902</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E307" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F307" s="3">
         <v>-89.6127720458</v>
@@ -10272,13 +10308,13 @@
         <v>1903</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E308" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F308" s="3">
         <v>-89.600276401599999</v>
@@ -10299,13 +10335,13 @@
         <v>1904</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E309" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F309" s="3">
         <v>-89.302420952700004</v>
@@ -10314,10 +10350,10 @@
         <v>15.146810514</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J309" s="8" t="s">
         <v>13</v>
@@ -10332,13 +10368,13 @@
         <v>1905</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E310" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F310" s="3">
         <v>-89.840188376900002</v>
@@ -10347,10 +10383,10 @@
         <v>15.120072883200001</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J310" s="8" t="s">
         <v>13</v>
@@ -10365,13 +10401,13 @@
         <v>1906</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E311" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F311" s="3">
         <v>-89.808019574499994</v>
@@ -10392,13 +10428,13 @@
         <v>1907</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E312" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F312" s="3">
         <v>-89.776648353300004</v>
@@ -10419,13 +10455,13 @@
         <v>1908</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E313" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F313" s="3">
         <v>-89.760073101900005</v>
@@ -10446,13 +10482,13 @@
         <v>1909</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E314" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F314" s="3">
         <v>-89.278115855699994</v>
@@ -10473,13 +10509,13 @@
         <v>1910</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E315" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F315" s="3">
         <v>-89.697666162100006</v>
@@ -10500,13 +10536,13 @@
         <v>1911</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E316" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F316" s="3">
         <v>-89.603656109400006</v>
@@ -10527,13 +10563,13 @@
         <v>2001</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E317" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F317" s="3">
         <v>-89.579062339999993</v>
@@ -10554,13 +10590,13 @@
         <v>2002</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E318" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F318" s="3">
         <v>-89.608390396900006</v>
@@ -10581,13 +10617,13 @@
         <v>2003</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E319" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F319" s="3">
         <v>-89.426864671199993</v>
@@ -10608,13 +10644,13 @@
         <v>2004</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E320" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F320" s="3">
         <v>-89.358570153599999</v>
@@ -10635,13 +10671,13 @@
         <v>2005</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E321" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F321" s="3">
         <v>-89.2793323585</v>
@@ -10662,13 +10698,13 @@
         <v>2006</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E322" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F322" s="3">
         <v>-89.316418132099997</v>
@@ -10689,13 +10725,13 @@
         <v>2007</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E323" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F323" s="3">
         <v>-89.267106080900007</v>
@@ -10716,13 +10752,13 @@
         <v>2008</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E324" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F324" s="3">
         <v>-89.449259596000005</v>
@@ -10743,13 +10779,13 @@
         <v>2009</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E325" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F325" s="3">
         <v>-89.458740632100003</v>
@@ -10770,13 +10806,13 @@
         <v>2010</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F326" s="3">
         <v>-89.513011996200007</v>
@@ -10797,13 +10833,13 @@
         <v>2011</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E327" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F327" s="3">
         <v>-89.608276851599996</v>
@@ -10824,13 +10860,13 @@
         <v>2101</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E328" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F328" s="3">
         <v>-90.031236814799996</v>
@@ -10851,13 +10887,13 @@
         <v>2102</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E329" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F329" s="3">
         <v>-89.854372746199999</v>
@@ -10878,13 +10914,13 @@
         <v>2103</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E330" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F330" s="3">
         <v>-89.715105513200001</v>
@@ -10905,13 +10941,13 @@
         <v>2104</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E331" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F331" s="3">
         <v>-89.761175214999994</v>
@@ -10932,13 +10968,13 @@
         <v>2105</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E332" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F332" s="3">
         <v>-90.076592566000002</v>
@@ -10959,13 +10995,13 @@
         <v>2106</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E333" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F333" s="3">
         <v>-89.898418915199997</v>
@@ -10986,13 +11022,13 @@
         <v>2107</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E334" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F334" s="3">
         <v>-90.203819796800005</v>
@@ -11013,13 +11049,13 @@
         <v>2201</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E335" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F335" s="3">
         <v>-89.931021080799994</v>
@@ -11040,13 +11076,13 @@
         <v>2202</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E336" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F336" s="3">
         <v>-89.850195852599995</v>
@@ -11067,13 +11103,13 @@
         <v>2203</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E337" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F337" s="3">
         <v>-89.770635131099993</v>
@@ -11094,13 +11130,13 @@
         <v>2204</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E338" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F338" s="3">
         <v>-89.599944656900007</v>
@@ -11121,13 +11157,13 @@
         <v>2205</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E339" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F339" s="3">
         <v>-89.667373733199994</v>
@@ -11148,13 +11184,13 @@
         <v>2206</v>
       </c>
       <c r="C340" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E340" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F340" s="3">
         <v>-89.803534499799994</v>
@@ -11175,13 +11211,13 @@
         <v>2207</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E341" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F341" s="3">
         <v>-89.727179436300005</v>
@@ -11202,13 +11238,13 @@
         <v>2208</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E342" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F342" s="3">
         <v>-89.761909762599998</v>
@@ -11229,13 +11265,13 @@
         <v>2209</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E343" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F343" s="3">
         <v>-89.853072771900003</v>
@@ -11256,13 +11292,13 @@
         <v>2210</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E344" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F344" s="3">
         <v>-89.821319345700005</v>
@@ -11283,13 +11319,13 @@
         <v>2211</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E345" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F345" s="3">
         <v>-89.911517754100004</v>
@@ -11310,13 +11346,13 @@
         <v>2212</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E346" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F346" s="3">
         <v>-90.009778031500005</v>
@@ -11337,13 +11373,13 @@
         <v>2213</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E347" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F347" s="3">
         <v>-90.016293872099993</v>
@@ -11364,13 +11400,13 @@
         <v>2214</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E348" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F348" s="3">
         <v>-90.1256230149</v>
@@ -11391,13 +11427,13 @@
         <v>2215</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E349" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F349" s="3">
         <v>-90.263873802700004</v>
@@ -11418,13 +11454,13 @@
         <v>2216</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E350" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F350" s="3">
         <v>-90.145609953900006</v>
@@ -11445,13 +11481,13 @@
         <v>2217</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E351" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F351" s="3">
         <v>-90.059505582</v>

--- a/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
+++ b/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E2D24B3-92AB-46BA-BB0E-0A81004B4557}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49CD5E4E-AB5B-4924-B15E-83E72BFE2928}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="371">
   <si>
     <t>Id_Dep</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Región COVID 1</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Santa Catarina Pinula</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Sanarate</t>
   </si>
   <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
     <t>Sansare</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
   </si>
   <si>
     <t>Santiago Sacatepéquez</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>San Bartolomé Milpas Altas</t>
@@ -1182,7 +1173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1856,7 +1847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2155,26 +2146,26 @@
   <dimension ref="A10:K351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I310" sqref="I310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:11" s="6" customFormat="1">
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2231,16 +2222,12 @@
       <c r="G11" s="3">
         <v>14.6354348587</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="33.75">
+    <row r="12" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2248,7 +2235,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -2262,18 +2249,16 @@
       <c r="G12" s="3">
         <v>14.564393684600001</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6">
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2281,7 +2266,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2300,7 +2285,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2308,7 +2293,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -2327,7 +2312,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -2335,7 +2320,7 @@
         <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -2349,16 +2334,12 @@
       <c r="G15" s="3">
         <v>14.6656095393</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -2366,7 +2347,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -2385,7 +2366,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2393,7 +2374,7 @@
         <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -2412,7 +2393,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2420,7 +2401,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -2439,7 +2420,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2447,7 +2428,7 @@
         <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -2466,7 +2447,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2474,7 +2455,7 @@
         <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -2493,7 +2474,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2501,7 +2482,7 @@
         <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -2520,7 +2501,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2528,7 +2509,7 @@
         <v>112</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -2547,7 +2528,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2555,7 +2536,7 @@
         <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -2574,7 +2555,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2582,7 +2563,7 @@
         <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -2601,7 +2582,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2609,7 +2590,7 @@
         <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -2628,7 +2609,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2636,7 +2617,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -2650,16 +2631,12 @@
       <c r="G26" s="3">
         <v>14.3443841705</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2667,7 +2644,7 @@
         <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -2686,7 +2663,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2694,13 +2671,13 @@
         <v>201</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
       </c>
       <c r="F28" s="3">
         <v>-90.063611696600006</v>
@@ -2713,7 +2690,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2721,13 +2698,13 @@
         <v>202</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
         <v>33</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
       </c>
       <c r="F29" s="3">
         <v>-90.161870287200003</v>
@@ -2740,7 +2717,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="45">
+    <row r="30" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2748,13 +2725,13 @@
         <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
         <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
       </c>
       <c r="F30" s="3">
         <v>-89.9860980885</v>
@@ -2762,18 +2739,16 @@
       <c r="G30" s="3">
         <v>15.019334477899999</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="9"/>
       <c r="J30" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -2781,13 +2756,13 @@
         <v>204</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
         <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
       </c>
       <c r="F31" s="3">
         <v>-89.8931988187</v>
@@ -2800,7 +2775,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -2808,13 +2783,13 @@
         <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
         <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
       </c>
       <c r="F32" s="3">
         <v>-89.916014347499996</v>
@@ -2822,14 +2797,12 @@
       <c r="G32" s="3">
         <v>14.8884364004</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -2837,13 +2810,13 @@
         <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
         <v>33</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
       </c>
       <c r="F33" s="3">
         <v>-90.257552023499997</v>
@@ -2853,12 +2826,10 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="J33" s="8"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2866,13 +2837,13 @@
         <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
         <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
       </c>
       <c r="F34" s="3">
         <v>-90.0990198983</v>
@@ -2885,7 +2856,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -2893,13 +2864,13 @@
         <v>208</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
         <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
       </c>
       <c r="F35" s="3">
         <v>-90.274894080099997</v>
@@ -2912,7 +2883,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -2920,10 +2891,10 @@
         <v>301</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2939,7 +2910,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -2947,10 +2918,10 @@
         <v>302</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2966,7 +2937,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -2974,10 +2945,10 @@
         <v>303</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2993,7 +2964,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6">
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -3001,10 +2972,10 @@
         <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -3020,7 +2991,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -3028,10 +2999,10 @@
         <v>305</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -3047,7 +3018,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3055,10 +3026,10 @@
         <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -3069,16 +3040,12 @@
       <c r="G41" s="3">
         <v>14.6410741098</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H41" s="8"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -3086,10 +3053,10 @@
         <v>307</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -3105,7 +3072,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -3113,10 +3080,10 @@
         <v>308</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -3132,7 +3099,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6">
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -3140,10 +3107,10 @@
         <v>309</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -3159,7 +3126,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6">
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -3167,10 +3134,10 @@
         <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -3186,7 +3153,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6">
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3194,10 +3161,10 @@
         <v>311</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -3213,7 +3180,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6">
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -3221,10 +3188,10 @@
         <v>312</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -3240,7 +3207,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6">
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -3248,10 +3215,10 @@
         <v>313</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -3267,7 +3234,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6">
+    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>3</v>
       </c>
@@ -3275,10 +3242,10 @@
         <v>314</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -3294,7 +3261,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6">
+    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3302,10 +3269,10 @@
         <v>315</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -3321,7 +3288,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6">
+    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3329,10 +3296,10 @@
         <v>316</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -3348,7 +3315,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6">
+    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3356,10 +3323,10 @@
         <v>401</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -3370,16 +3337,12 @@
       <c r="G52" s="3">
         <v>14.677881150499999</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="J52" s="8"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6">
+    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -3387,10 +3350,10 @@
         <v>402</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -3406,7 +3369,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6">
+    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -3414,10 +3377,10 @@
         <v>403</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -3433,7 +3396,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6">
+    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3441,10 +3404,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -3460,7 +3423,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6">
+    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3468,10 +3431,10 @@
         <v>405</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -3487,7 +3450,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6">
+    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -3495,10 +3458,10 @@
         <v>406</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -3514,7 +3477,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" ht="56.25">
+    <row r="58" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -3522,10 +3485,10 @@
         <v>407</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -3537,19 +3500,19 @@
         <v>14.6470588481</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -3557,10 +3520,10 @@
         <v>408</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -3576,7 +3539,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6">
+    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -3584,10 +3547,10 @@
         <v>409</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -3603,7 +3566,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6">
+    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -3611,10 +3574,10 @@
         <v>410</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -3630,7 +3593,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6">
+    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -3638,10 +3601,10 @@
         <v>411</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -3657,7 +3620,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6">
+    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -3665,10 +3628,10 @@
         <v>412</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -3684,7 +3647,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6">
+    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -3692,10 +3655,10 @@
         <v>413</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -3711,7 +3674,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6">
+    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -3719,10 +3682,10 @@
         <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -3738,7 +3701,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6">
+    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -3746,10 +3709,10 @@
         <v>415</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -3765,7 +3728,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6">
+    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -3773,10 +3736,10 @@
         <v>416</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -3792,7 +3755,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6">
+    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -3800,13 +3763,13 @@
         <v>501</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F68" s="3">
         <v>-90.793194132599993</v>
@@ -3819,7 +3782,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6">
+    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>5</v>
       </c>
@@ -3827,13 +3790,13 @@
         <v>502</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F69" s="3">
         <v>-91.070888395300003</v>
@@ -3846,7 +3809,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6">
+    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>5</v>
       </c>
@@ -3854,13 +3817,13 @@
         <v>503</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F70" s="3">
         <v>-90.9497353151</v>
@@ -3873,7 +3836,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6">
+    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>5</v>
       </c>
@@ -3881,13 +3844,13 @@
         <v>504</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F71" s="3">
         <v>-90.939937239299994</v>
@@ -3900,7 +3863,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6">
+    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>5</v>
       </c>
@@ -3908,13 +3871,13 @@
         <v>505</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F72" s="3">
         <v>-90.809496745399997</v>
@@ -3927,7 +3890,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6">
+    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>5</v>
       </c>
@@ -3935,13 +3898,13 @@
         <v>506</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F73" s="3">
         <v>-91.404186093000007</v>
@@ -3954,7 +3917,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6">
+    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>5</v>
       </c>
@@ -3962,13 +3925,13 @@
         <v>507</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F74" s="3">
         <v>-91.112524042900006</v>
@@ -3981,7 +3944,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6">
+    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -3989,13 +3952,13 @@
         <v>508</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F75" s="3">
         <v>-90.672749847000006</v>
@@ -4008,7 +3971,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6">
+    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -4016,13 +3979,13 @@
         <v>509</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F76" s="3">
         <v>-90.882358325300004</v>
@@ -4035,7 +3998,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6">
+    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -4043,13 +4006,13 @@
         <v>510</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F77" s="3">
         <v>-90.698964895299994</v>
@@ -4062,7 +4025,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6">
+    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>5</v>
       </c>
@@ -4070,13 +4033,13 @@
         <v>511</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F78" s="3">
         <v>-90.703858967499997</v>
@@ -4089,7 +4052,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6">
+    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>5</v>
       </c>
@@ -4097,13 +4060,13 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F79" s="3">
         <v>-90.645361257399998</v>
@@ -4116,7 +4079,7 @@
       <c r="J79" s="8"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6">
+    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>5</v>
       </c>
@@ -4124,13 +4087,13 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F80" s="3">
         <v>-91.300724404299999</v>
@@ -4143,7 +4106,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6">
+    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>5</v>
       </c>
@@ -4151,13 +4114,13 @@
         <v>514</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F81" s="3">
         <v>-91.142949810600001</v>
@@ -4170,7 +4133,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6">
+    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>6</v>
       </c>
@@ -4178,13 +4141,13 @@
         <v>601</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F82" s="3">
         <v>-90.298351965899997</v>
@@ -4197,7 +4160,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6">
+    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>6</v>
       </c>
@@ -4205,13 +4168,13 @@
         <v>602</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F83" s="3">
         <v>-90.414661287399994</v>
@@ -4224,7 +4187,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6">
+    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>6</v>
       </c>
@@ -4232,13 +4195,13 @@
         <v>603</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F84" s="3">
         <v>-90.337157146300001</v>
@@ -4251,7 +4214,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6">
+    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>6</v>
       </c>
@@ -4259,13 +4222,13 @@
         <v>604</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F85" s="3">
         <v>-90.170807569499999</v>
@@ -4278,7 +4241,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6">
+    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>6</v>
       </c>
@@ -4286,13 +4249,13 @@
         <v>605</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F86" s="3">
         <v>-90.162412274600001</v>
@@ -4305,7 +4268,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6">
+    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -4313,13 +4276,13 @@
         <v>606</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F87" s="3">
         <v>-90.111470670399996</v>
@@ -4332,7 +4295,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6">
+    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>6</v>
       </c>
@@ -4340,13 +4303,13 @@
         <v>607</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F88" s="3">
         <v>-90.268913849100002</v>
@@ -4359,7 +4322,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6">
+    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>6</v>
       </c>
@@ -4367,13 +4330,13 @@
         <v>608</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F89" s="3">
         <v>-90.334838364099994</v>
@@ -4386,7 +4349,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6">
+    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>6</v>
       </c>
@@ -4394,13 +4357,13 @@
         <v>609</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F90" s="3">
         <v>-90.547373052599994</v>
@@ -4413,7 +4376,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" ht="15.6">
+    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>6</v>
       </c>
@@ -4421,13 +4384,13 @@
         <v>610</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F91" s="3">
         <v>-90.2579385218</v>
@@ -4440,7 +4403,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6">
+    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>6</v>
       </c>
@@ -4448,13 +4411,13 @@
         <v>611</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F92" s="3">
         <v>-90.430057983400005</v>
@@ -4467,7 +4430,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" ht="15.6">
+    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>6</v>
       </c>
@@ -4475,13 +4438,13 @@
         <v>612</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F93" s="3">
         <v>-90.357050106000003</v>
@@ -4494,7 +4457,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" ht="15.6">
+    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>6</v>
       </c>
@@ -4502,13 +4465,13 @@
         <v>613</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F94" s="3">
         <v>-90.497657627799995</v>
@@ -4521,7 +4484,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" ht="15.6">
+    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>6</v>
       </c>
@@ -4529,13 +4492,13 @@
         <v>614</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F95" s="3">
         <v>-90.272382264499996</v>
@@ -4548,7 +4511,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" ht="15.6">
+    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>7</v>
       </c>
@@ -4556,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E96" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F96" s="3">
         <v>-91.201482768299996</v>
@@ -4575,7 +4538,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="1:11" ht="15.6">
+    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>7</v>
       </c>
@@ -4583,13 +4546,13 @@
         <v>701</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F97" s="3">
         <v>-91.180970340800002</v>
@@ -4602,7 +4565,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="1:11" ht="15.6">
+    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>7</v>
       </c>
@@ -4610,13 +4573,13 @@
         <v>702</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F98" s="3">
         <v>-91.2283944534</v>
@@ -4629,7 +4592,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="1:11" ht="15.6">
+    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>7</v>
       </c>
@@ -4637,13 +4600,13 @@
         <v>703</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F99" s="3">
         <v>-91.331590710499995</v>
@@ -4656,7 +4619,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="1:11" ht="15.6">
+    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>7</v>
       </c>
@@ -4664,13 +4627,13 @@
         <v>704</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F100" s="3">
         <v>-91.274937982599994</v>
@@ -4683,7 +4646,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="1:11" ht="15.6">
+    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>7</v>
       </c>
@@ -4691,13 +4654,13 @@
         <v>705</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E101" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F101" s="3">
         <v>-91.293438037399994</v>
@@ -4710,7 +4673,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="1:11" ht="15.6">
+    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>7</v>
       </c>
@@ -4718,13 +4681,13 @@
         <v>706</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F102" s="3">
         <v>-91.381446518499999</v>
@@ -4737,7 +4700,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="1:11" ht="15.6">
+    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>7</v>
       </c>
@@ -4745,13 +4708,13 @@
         <v>707</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F103" s="3">
         <v>-91.297038259000004</v>
@@ -4764,7 +4727,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" ht="15.6">
+    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>7</v>
       </c>
@@ -4772,13 +4735,13 @@
         <v>708</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F104" s="3">
         <v>-91.135134551799993</v>
@@ -4791,7 +4754,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="1:11" ht="15.6">
+    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>7</v>
       </c>
@@ -4799,13 +4762,13 @@
         <v>709</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F105" s="3">
         <v>-91.106535676899995</v>
@@ -4818,7 +4781,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="15.6">
+    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>7</v>
       </c>
@@ -4826,13 +4789,13 @@
         <v>710</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E106" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F106" s="3">
         <v>-91.1465318602</v>
@@ -4845,7 +4808,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" ht="15.6">
+    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>7</v>
       </c>
@@ -4853,13 +4816,13 @@
         <v>711</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F107" s="3">
         <v>-91.124134816099996</v>
@@ -4872,7 +4835,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" ht="15.6">
+    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>7</v>
       </c>
@@ -4880,13 +4843,13 @@
         <v>712</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F108" s="3">
         <v>-91.108250008699997</v>
@@ -4899,7 +4862,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6">
+    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>7</v>
       </c>
@@ -4907,13 +4870,13 @@
         <v>713</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F109" s="3">
         <v>-91.146613548399998</v>
@@ -4926,7 +4889,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" ht="15.6">
+    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>7</v>
       </c>
@@ -4934,13 +4897,13 @@
         <v>714</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F110" s="3">
         <v>-91.223820772600007</v>
@@ -4953,7 +4916,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" ht="15.6">
+    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>7</v>
       </c>
@@ -4961,13 +4924,13 @@
         <v>715</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F111" s="3">
         <v>-91.280686838199998</v>
@@ -4980,7 +4943,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="15.6">
+    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>7</v>
       </c>
@@ -4988,13 +4951,13 @@
         <v>716</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F112" s="3">
         <v>-91.259860005600004</v>
@@ -5007,7 +4970,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="15.6">
+    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>7</v>
       </c>
@@ -5015,13 +4978,13 @@
         <v>717</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F113" s="3">
         <v>-91.314707668799997</v>
@@ -5034,7 +4997,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="15.6">
+    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>7</v>
       </c>
@@ -5042,13 +5005,13 @@
         <v>718</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E114" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F114" s="3">
         <v>-91.2777710238</v>
@@ -5061,7 +5024,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="15.6">
+    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>7</v>
       </c>
@@ -5069,13 +5032,13 @@
         <v>719</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E115" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F115" s="3">
         <v>-91.227705315099996</v>
@@ -5088,7 +5051,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="45">
+    <row r="116" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>8</v>
       </c>
@@ -5096,13 +5059,13 @@
         <v>801</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F116" s="3">
         <v>-91.311018133700003</v>
@@ -5111,19 +5074,19 @@
         <v>14.9081236299</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="15.6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>8</v>
       </c>
@@ -5131,13 +5094,13 @@
         <v>802</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F117" s="3">
         <v>-91.445673915499995</v>
@@ -5150,7 +5113,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="15.6">
+    <row r="118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>8</v>
       </c>
@@ -5158,13 +5121,13 @@
         <v>803</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F118" s="3">
         <v>-91.477389862999999</v>
@@ -5177,7 +5140,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" ht="15.6">
+    <row r="119" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>8</v>
       </c>
@@ -5185,13 +5148,13 @@
         <v>804</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F119" s="3">
         <v>-91.497435010999993</v>
@@ -5204,7 +5167,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" ht="15.6">
+    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>8</v>
       </c>
@@ -5212,13 +5175,13 @@
         <v>805</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F120" s="3">
         <v>-91.418615989200006</v>
@@ -5231,7 +5194,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" ht="15.6">
+    <row r="121" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>8</v>
       </c>
@@ -5239,13 +5202,13 @@
         <v>806</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F121" s="3">
         <v>-91.317234746400004</v>
@@ -5258,7 +5221,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" ht="15.6">
+    <row r="122" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>8</v>
       </c>
@@ -5266,13 +5229,13 @@
         <v>807</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F122" s="3">
         <v>-91.269115502399998</v>
@@ -5285,7 +5248,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" ht="15.6">
+    <row r="123" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>8</v>
       </c>
@@ -5293,13 +5256,13 @@
         <v>808</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F123" s="3">
         <v>-91.460870437099999</v>
@@ -5312,7 +5275,7 @@
       <c r="J123" s="8"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" ht="15.6">
+    <row r="124" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>9</v>
       </c>
@@ -5320,13 +5283,13 @@
         <v>901</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F124" s="3">
         <v>-91.533361548800002</v>
@@ -5339,7 +5302,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:11" ht="15.6">
+    <row r="125" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>9</v>
       </c>
@@ -5347,13 +5310,13 @@
         <v>902</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E125" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F125" s="3">
         <v>-91.462455116200005</v>
@@ -5366,7 +5329,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" ht="45">
+    <row r="126" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>9</v>
       </c>
@@ -5374,13 +5337,13 @@
         <v>903</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F126" s="3">
         <v>-91.535985539600006</v>
@@ -5389,19 +5352,19 @@
         <v>14.8936445103</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>9</v>
       </c>
@@ -5409,13 +5372,13 @@
         <v>904</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F127" s="3">
         <v>-91.565665269799993</v>
@@ -5428,7 +5391,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="1:11" ht="15.6">
+    <row r="128" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>9</v>
       </c>
@@ -5436,13 +5399,13 @@
         <v>905</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F128" s="3">
         <v>-91.641292835300007</v>
@@ -5455,7 +5418,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="1:11" ht="15.6">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>9</v>
       </c>
@@ -5463,13 +5426,13 @@
         <v>906</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F129" s="3">
         <v>-91.649196423999996</v>
@@ -5482,7 +5445,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="9"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>9</v>
       </c>
@@ -5490,13 +5453,13 @@
         <v>907</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F130" s="3">
         <v>-91.612970745499993</v>
@@ -5509,7 +5472,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" spans="1:11" ht="15.6">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>9</v>
       </c>
@@ -5517,13 +5480,13 @@
         <v>908</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F131" s="3">
         <v>-91.602465271200003</v>
@@ -5536,7 +5499,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="1:11" ht="15.6">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>9</v>
       </c>
@@ -5544,13 +5507,13 @@
         <v>909</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F132" s="3">
         <v>-91.684464050900004</v>
@@ -5563,7 +5526,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="9"/>
     </row>
-    <row r="133" spans="1:11" ht="15.6">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>9</v>
       </c>
@@ -5571,13 +5534,13 @@
         <v>910</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F133" s="3">
         <v>-91.585519843599997</v>
@@ -5590,7 +5553,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="1:11" ht="15.6">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>9</v>
       </c>
@@ -5598,13 +5561,13 @@
         <v>911</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F134" s="3">
         <v>-91.619669548999994</v>
@@ -5617,7 +5580,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="9"/>
     </row>
-    <row r="135" spans="1:11" ht="15.6">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>9</v>
       </c>
@@ -5625,13 +5588,13 @@
         <v>912</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F135" s="3">
         <v>-91.6643951784</v>
@@ -5644,7 +5607,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="9"/>
     </row>
-    <row r="136" spans="1:11" ht="15.6">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>9</v>
       </c>
@@ -5652,13 +5615,13 @@
         <v>913</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F136" s="3">
         <v>-91.484492037500004</v>
@@ -5671,7 +5634,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="9"/>
     </row>
-    <row r="137" spans="1:11" ht="15.6">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>9</v>
       </c>
@@ -5679,13 +5642,13 @@
         <v>914</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F137" s="3">
         <v>-91.439688107199999</v>
@@ -5698,7 +5661,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" spans="1:11" ht="15.6">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>9</v>
       </c>
@@ -5706,13 +5669,13 @@
         <v>915</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F138" s="3">
         <v>-91.627671380199999</v>
@@ -5725,7 +5688,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="9"/>
     </row>
-    <row r="139" spans="1:11" ht="15.6">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>9</v>
       </c>
@@ -5733,13 +5696,13 @@
         <v>916</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F139" s="3">
         <v>-91.496128578099999</v>
@@ -5752,7 +5715,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="9"/>
     </row>
-    <row r="140" spans="1:11" ht="15.6">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>9</v>
       </c>
@@ -5760,13 +5723,13 @@
         <v>917</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F140" s="3">
         <v>-91.754255842500001</v>
@@ -5779,7 +5742,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="9"/>
     </row>
-    <row r="141" spans="1:11" ht="15.6">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>9</v>
       </c>
@@ -5787,13 +5750,13 @@
         <v>918</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F141" s="3">
         <v>-91.546363837800001</v>
@@ -5806,7 +5769,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>9</v>
       </c>
@@ -5814,13 +5777,13 @@
         <v>919</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E142" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F142" s="3">
         <v>-91.608168015999993</v>
@@ -5831,7 +5794,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
     </row>
-    <row r="143" spans="1:11" ht="45">
+    <row r="143" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>9</v>
       </c>
@@ -5839,13 +5802,13 @@
         <v>920</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E143" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F143" s="3">
         <v>-91.979178706699997</v>
@@ -5854,19 +5817,19 @@
         <v>14.6413693586</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="15.6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>9</v>
       </c>
@@ -5874,13 +5837,13 @@
         <v>921</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E144" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F144" s="3">
         <v>-91.8452206993</v>
@@ -5893,7 +5856,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="9"/>
     </row>
-    <row r="145" spans="1:11" ht="15.6">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>9</v>
       </c>
@@ -5901,13 +5864,13 @@
         <v>922</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F145" s="3">
         <v>-91.863431283300002</v>
@@ -5920,7 +5883,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="9"/>
     </row>
-    <row r="146" spans="1:11" ht="15.6">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>9</v>
       </c>
@@ -5928,13 +5891,13 @@
         <v>923</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E146" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F146" s="3">
         <v>-91.577181064200005</v>
@@ -5947,7 +5910,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" spans="1:11" ht="15.6">
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>9</v>
       </c>
@@ -5955,13 +5918,13 @@
         <v>924</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F147" s="3">
         <v>-91.675931923500002</v>
@@ -5974,7 +5937,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="1:11" ht="15.6">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>10</v>
       </c>
@@ -5982,13 +5945,13 @@
         <v>1001</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E148" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F148" s="3">
         <v>-91.516460216699997</v>
@@ -6001,7 +5964,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" spans="1:11" ht="15.6">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>10</v>
       </c>
@@ -6009,13 +5972,13 @@
         <v>1002</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E149" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F149" s="3">
         <v>-91.564109062399993</v>
@@ -6028,7 +5991,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="9"/>
     </row>
-    <row r="150" spans="1:11" ht="15.6">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>10</v>
       </c>
@@ -6036,13 +5999,13 @@
         <v>1003</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E150" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F150" s="3">
         <v>-91.536780773299995</v>
@@ -6055,7 +6018,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="9"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>10</v>
       </c>
@@ -6063,13 +6026,13 @@
         <v>1004</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E151" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F151" s="3">
         <v>-91.454232230399995</v>
@@ -6082,7 +6045,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="1:11" ht="15.6">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>10</v>
       </c>
@@ -6090,13 +6053,13 @@
         <v>1005</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E152" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F152" s="3">
         <v>-91.431567843099998</v>
@@ -6109,7 +6072,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" spans="1:11" ht="15.6">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>10</v>
       </c>
@@ -6117,13 +6080,13 @@
         <v>1006</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E153" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F153" s="3">
         <v>-91.471241689300001</v>
@@ -6136,7 +6099,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="1:11" ht="15.6">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>10</v>
       </c>
@@ -6144,13 +6107,13 @@
         <v>1007</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E154" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F154" s="3">
         <v>-91.533912060000006</v>
@@ -6163,7 +6126,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="9"/>
     </row>
-    <row r="155" spans="1:11" ht="15.6">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>10</v>
       </c>
@@ -6171,13 +6134,13 @@
         <v>1008</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E155" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F155" s="3">
         <v>-91.469847968699995</v>
@@ -6190,7 +6153,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="9"/>
     </row>
-    <row r="156" spans="1:11" ht="15.6">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>10</v>
       </c>
@@ -6198,13 +6161,13 @@
         <v>1009</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E156" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F156" s="3">
         <v>-91.431253782799999</v>
@@ -6217,7 +6180,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" spans="1:11" ht="15.6">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>10</v>
       </c>
@@ -6225,13 +6188,13 @@
         <v>1010</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E157" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F157" s="3">
         <v>-91.408992426500006</v>
@@ -6244,7 +6207,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="9"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>10</v>
       </c>
@@ -6252,13 +6215,13 @@
         <v>1011</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E158" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F158" s="3">
         <v>-91.359583456099998</v>
@@ -6271,7 +6234,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="9"/>
     </row>
-    <row r="159" spans="1:11" ht="15.6">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>10</v>
       </c>
@@ -6279,13 +6242,13 @@
         <v>1012</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E159" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F159" s="3">
         <v>-91.514408289200006</v>
@@ -6298,7 +6261,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" spans="1:11" ht="15.6">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>10</v>
       </c>
@@ -6306,13 +6269,13 @@
         <v>1013</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E160" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F160" s="3">
         <v>-91.306372835399998</v>
@@ -6325,7 +6288,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" spans="1:11" ht="15.6">
+    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>10</v>
       </c>
@@ -6333,13 +6296,13 @@
         <v>1014</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E161" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F161" s="3">
         <v>-91.176385595200003</v>
@@ -6352,7 +6315,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="9"/>
     </row>
-    <row r="162" spans="1:11" ht="15.6">
+    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>10</v>
       </c>
@@ -6360,13 +6323,13 @@
         <v>1015</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E162" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F162" s="3">
         <v>-91.246736815700004</v>
@@ -6379,7 +6342,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="9"/>
     </row>
-    <row r="163" spans="1:11" ht="15.6">
+    <row r="163" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>10</v>
       </c>
@@ -6387,13 +6350,13 @@
         <v>1016</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E163" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F163" s="3">
         <v>-91.198917816000005</v>
@@ -6406,7 +6369,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="9"/>
     </row>
-    <row r="164" spans="1:11" ht="15.6">
+    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>10</v>
       </c>
@@ -6414,13 +6377,13 @@
         <v>1017</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F164" s="3">
         <v>-91.412106117199997</v>
@@ -6433,7 +6396,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="9"/>
     </row>
-    <row r="165" spans="1:11" ht="15.6">
+    <row r="165" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>10</v>
       </c>
@@ -6441,13 +6404,13 @@
         <v>1018</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F165" s="3">
         <v>-91.498651875799993</v>
@@ -6460,7 +6423,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="9"/>
     </row>
-    <row r="166" spans="1:11" ht="15.6">
+    <row r="166" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>10</v>
       </c>
@@ -6468,13 +6431,13 @@
         <v>1019</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E166" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F166" s="3">
         <v>-91.527893063299999</v>
@@ -6487,7 +6450,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="1:11" ht="15.6">
+    <row r="167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>10</v>
       </c>
@@ -6495,13 +6458,13 @@
         <v>1020</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F167" s="3">
         <v>-91.333139591999995</v>
@@ -6514,7 +6477,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
     </row>
-    <row r="168" spans="1:11" ht="15.6">
+    <row r="168" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>10</v>
       </c>
@@ -6522,13 +6485,13 @@
         <v>1021</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E168" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F168" s="3">
         <v>-91.583035768599999</v>
@@ -6541,7 +6504,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="9"/>
     </row>
-    <row r="169" spans="1:11" ht="15.6">
+    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>11</v>
       </c>
@@ -6549,13 +6512,13 @@
         <v>1101</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E169" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F169" s="3">
         <v>-92.036111844999994</v>
@@ -6568,7 +6531,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="9"/>
     </row>
-    <row r="170" spans="1:11" ht="15.6">
+    <row r="170" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>11</v>
       </c>
@@ -6576,13 +6539,13 @@
         <v>1102</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E170" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F170" s="3">
         <v>-91.649500741899999</v>
@@ -6595,7 +6558,7 @@
       <c r="J170" s="8"/>
       <c r="K170" s="9"/>
     </row>
-    <row r="171" spans="1:11" ht="15.6">
+    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>11</v>
       </c>
@@ -6603,13 +6566,13 @@
         <v>1103</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E171" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F171" s="3">
         <v>-91.654580786699995</v>
@@ -6622,7 +6585,7 @@
       <c r="J171" s="8"/>
       <c r="K171" s="9"/>
     </row>
-    <row r="172" spans="1:11" ht="15.6">
+    <row r="172" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>11</v>
       </c>
@@ -6630,13 +6593,13 @@
         <v>1104</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E172" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F172" s="3">
         <v>-91.593901664300006</v>
@@ -6649,7 +6612,7 @@
       <c r="J172" s="8"/>
       <c r="K172" s="9"/>
     </row>
-    <row r="173" spans="1:11" ht="15.6">
+    <row r="173" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>11</v>
       </c>
@@ -6657,13 +6620,13 @@
         <v>1105</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E173" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F173" s="3">
         <v>-91.630451305199998</v>
@@ -6676,7 +6639,7 @@
       <c r="J173" s="8"/>
       <c r="K173" s="9"/>
     </row>
-    <row r="174" spans="1:11" ht="15.6">
+    <row r="174" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>11</v>
       </c>
@@ -6684,13 +6647,13 @@
         <v>1106</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E174" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F174" s="3">
         <v>-91.656784916299998</v>
@@ -6703,7 +6666,7 @@
       <c r="J174" s="8"/>
       <c r="K174" s="9"/>
     </row>
-    <row r="175" spans="1:11" ht="15.6">
+    <row r="175" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>11</v>
       </c>
@@ -6711,13 +6674,13 @@
         <v>1107</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E175" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F175" s="3">
         <v>-91.884054630999998</v>
@@ -6730,7 +6693,7 @@
       <c r="J175" s="8"/>
       <c r="K175" s="9"/>
     </row>
-    <row r="176" spans="1:11" ht="15.6">
+    <row r="176" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>11</v>
       </c>
@@ -6738,13 +6701,13 @@
         <v>1108</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E176" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F176" s="3">
         <v>-91.691837371099993</v>
@@ -6757,7 +6720,7 @@
       <c r="J176" s="8"/>
       <c r="K176" s="9"/>
     </row>
-    <row r="177" spans="1:11" ht="15.6">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>11</v>
       </c>
@@ -6765,13 +6728,13 @@
         <v>1109</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E177" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F177" s="3">
         <v>-91.756844133000001</v>
@@ -6784,7 +6747,7 @@
       <c r="J177" s="8"/>
       <c r="K177" s="9"/>
     </row>
-    <row r="178" spans="1:11" ht="15.6">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>12</v>
       </c>
@@ -6792,13 +6755,13 @@
         <v>1201</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E178" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F178" s="3">
         <v>-91.835333572300001</v>
@@ -6811,7 +6774,7 @@
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
     </row>
-    <row r="179" spans="1:11" ht="15.6">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>12</v>
       </c>
@@ -6819,13 +6782,13 @@
         <v>1202</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E179" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F179" s="3">
         <v>-91.788980694599999</v>
@@ -6838,7 +6801,7 @@
       <c r="J179" s="8"/>
       <c r="K179" s="9"/>
     </row>
-    <row r="180" spans="1:11" ht="15.6">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>12</v>
       </c>
@@ -6846,13 +6809,13 @@
         <v>1203</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E180" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F180" s="3">
         <v>-91.7124860152</v>
@@ -6865,7 +6828,7 @@
       <c r="J180" s="8"/>
       <c r="K180" s="9"/>
     </row>
-    <row r="181" spans="1:11" ht="15.6">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>12</v>
       </c>
@@ -6873,13 +6836,13 @@
         <v>1204</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E181" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F181" s="3">
         <v>-91.746444667999995</v>
@@ -6892,7 +6855,7 @@
       <c r="J181" s="8"/>
       <c r="K181" s="9"/>
     </row>
-    <row r="182" spans="1:11" ht="15.6">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>12</v>
       </c>
@@ -6900,13 +6863,13 @@
         <v>1205</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E182" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F182" s="3">
         <v>-91.734547638099997</v>
@@ -6919,7 +6882,7 @@
       <c r="J182" s="8"/>
       <c r="K182" s="9"/>
     </row>
-    <row r="183" spans="1:11" ht="15.6">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>12</v>
       </c>
@@ -6927,13 +6890,13 @@
         <v>1206</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E183" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F183" s="3">
         <v>-91.869053288499998</v>
@@ -6946,7 +6909,7 @@
       <c r="J183" s="8"/>
       <c r="K183" s="9"/>
     </row>
-    <row r="184" spans="1:11" ht="15.6">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>12</v>
       </c>
@@ -6954,13 +6917,13 @@
         <v>1207</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E184" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F184" s="3">
         <v>-92.077644301899994</v>
@@ -6973,7 +6936,7 @@
       <c r="J184" s="8"/>
       <c r="K184" s="9"/>
     </row>
-    <row r="185" spans="1:11" ht="15.6">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>12</v>
       </c>
@@ -6981,13 +6944,13 @@
         <v>1208</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E185" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F185" s="3">
         <v>-92.056254065999994</v>
@@ -7000,7 +6963,7 @@
       <c r="J185" s="8"/>
       <c r="K185" s="9"/>
     </row>
-    <row r="186" spans="1:11" ht="15.6">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>12</v>
       </c>
@@ -7008,13 +6971,13 @@
         <v>1209</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E186" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F186" s="3">
         <v>-91.970655864299999</v>
@@ -7027,7 +6990,7 @@
       <c r="J186" s="8"/>
       <c r="K186" s="9"/>
     </row>
-    <row r="187" spans="1:11" ht="15.6">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>12</v>
       </c>
@@ -7035,13 +6998,13 @@
         <v>1210</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E187" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F187" s="3">
         <v>-91.830492042000003</v>
@@ -7054,7 +7017,7 @@
       <c r="J187" s="8"/>
       <c r="K187" s="9"/>
     </row>
-    <row r="188" spans="1:11" ht="15.6">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>12</v>
       </c>
@@ -7062,13 +7025,13 @@
         <v>1211</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E188" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F188" s="3">
         <v>-91.911733720200004</v>
@@ -7081,7 +7044,7 @@
       <c r="J188" s="8"/>
       <c r="K188" s="9"/>
     </row>
-    <row r="189" spans="1:11" ht="15.6">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>12</v>
       </c>
@@ -7089,13 +7052,13 @@
         <v>1212</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E189" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F189" s="3">
         <v>-91.907552369399994</v>
@@ -7108,7 +7071,7 @@
       <c r="J189" s="8"/>
       <c r="K189" s="9"/>
     </row>
-    <row r="190" spans="1:11" ht="15.6">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>12</v>
       </c>
@@ -7116,13 +7079,13 @@
         <v>1213</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E190" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F190" s="3">
         <v>-91.947282393699993</v>
@@ -7135,7 +7098,7 @@
       <c r="J190" s="8"/>
       <c r="K190" s="9"/>
     </row>
-    <row r="191" spans="1:11" ht="15.6">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>12</v>
       </c>
@@ -7143,13 +7106,13 @@
         <v>1214</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E191" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F191" s="3">
         <v>-91.998503091299995</v>
@@ -7162,7 +7125,7 @@
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
     </row>
-    <row r="192" spans="1:11" ht="15.6">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>12</v>
       </c>
@@ -7170,13 +7133,13 @@
         <v>1215</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E192" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F192" s="3">
         <v>-92.098849476400005</v>
@@ -7189,7 +7152,7 @@
       <c r="J192" s="8"/>
       <c r="K192" s="9"/>
     </row>
-    <row r="193" spans="1:11" ht="15.6">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>12</v>
       </c>
@@ -7197,13 +7160,13 @@
         <v>1216</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E193" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F193" s="3">
         <v>-92.070056033300006</v>
@@ -7216,7 +7179,7 @@
       <c r="J193" s="8"/>
       <c r="K193" s="9"/>
     </row>
-    <row r="194" spans="1:11" ht="15.6">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>12</v>
       </c>
@@ -7224,13 +7187,13 @@
         <v>1217</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F194" s="3">
         <v>-92.097364857000002</v>
@@ -7243,7 +7206,7 @@
       <c r="J194" s="8"/>
       <c r="K194" s="9"/>
     </row>
-    <row r="195" spans="1:11" ht="15.6">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>12</v>
       </c>
@@ -7251,13 +7214,13 @@
         <v>1218</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F195" s="3">
         <v>-92.189061840700006</v>
@@ -7270,7 +7233,7 @@
       <c r="J195" s="8"/>
       <c r="K195" s="9"/>
     </row>
-    <row r="196" spans="1:11" ht="15.6">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>12</v>
       </c>
@@ -7278,13 +7241,13 @@
         <v>1219</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E196" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F196" s="3">
         <v>-91.946276386999997</v>
@@ -7297,7 +7260,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="9"/>
     </row>
-    <row r="197" spans="1:11" ht="15.6">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7305,13 +7268,13 @@
         <v>1220</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F197" s="3">
         <v>-91.8445561005</v>
@@ -7324,7 +7287,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
     </row>
-    <row r="198" spans="1:11" ht="15.6">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>12</v>
       </c>
@@ -7332,13 +7295,13 @@
         <v>1221</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E198" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F198" s="3">
         <v>-91.8494001583</v>
@@ -7351,7 +7314,7 @@
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
     </row>
-    <row r="199" spans="1:11" ht="15.6">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>12</v>
       </c>
@@ -7359,13 +7322,13 @@
         <v>1222</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F199" s="3">
         <v>-92.0556200953</v>
@@ -7378,7 +7341,7 @@
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
     </row>
-    <row r="200" spans="1:11" ht="15.6">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>12</v>
       </c>
@@ -7386,13 +7349,13 @@
         <v>1223</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E200" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F200" s="3">
         <v>-91.922279551599999</v>
@@ -7405,7 +7368,7 @@
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
     </row>
-    <row r="201" spans="1:11" ht="15.6">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>12</v>
       </c>
@@ -7413,13 +7376,13 @@
         <v>1224</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E201" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F201" s="3">
         <v>-91.960274119399998</v>
@@ -7432,7 +7395,7 @@
       <c r="J201" s="8"/>
       <c r="K201" s="9"/>
     </row>
-    <row r="202" spans="1:11" ht="15.6">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>12</v>
       </c>
@@ -7440,13 +7403,13 @@
         <v>1225</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E202" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F202" s="3">
         <v>-91.768885294</v>
@@ -7459,7 +7422,7 @@
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
     </row>
-    <row r="203" spans="1:11" ht="15.6">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>12</v>
       </c>
@@ -7467,13 +7430,13 @@
         <v>1226</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E203" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F203" s="3">
         <v>-91.657590134499998</v>
@@ -7486,7 +7449,7 @@
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
     </row>
-    <row r="204" spans="1:11" ht="15.6">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>12</v>
       </c>
@@ -7494,13 +7457,13 @@
         <v>1227</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E204" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F204" s="3">
         <v>-91.8458843704</v>
@@ -7513,7 +7476,7 @@
       <c r="J204" s="8"/>
       <c r="K204" s="9"/>
     </row>
-    <row r="205" spans="1:11" ht="15.6">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>12</v>
       </c>
@@ -7521,13 +7484,13 @@
         <v>1228</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E205" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F205" s="3">
         <v>-91.683664771599993</v>
@@ -7540,7 +7503,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="9"/>
     </row>
-    <row r="206" spans="1:11" ht="15.6">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>12</v>
       </c>
@@ -7548,13 +7511,13 @@
         <v>1229</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E206" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F206" s="3">
         <v>-91.744086060100003</v>
@@ -7567,7 +7530,7 @@
       <c r="J206" s="8"/>
       <c r="K206" s="9"/>
     </row>
-    <row r="207" spans="1:11" ht="15.6">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>12</v>
       </c>
@@ -7575,13 +7538,13 @@
         <v>1230</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E207" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F207" s="3">
         <v>-92.1197955385</v>
@@ -7594,7 +7557,7 @@
       <c r="J207" s="8"/>
       <c r="K207" s="9"/>
     </row>
-    <row r="208" spans="1:11" ht="15.6">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>13</v>
       </c>
@@ -7602,13 +7565,13 @@
         <v>1301</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E208" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F208" s="3">
         <v>-91.346777860299994</v>
@@ -7621,7 +7584,7 @@
       <c r="J208" s="8"/>
       <c r="K208" s="9"/>
     </row>
-    <row r="209" spans="1:11" ht="15.6">
+    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>13</v>
       </c>
@@ -7629,13 +7592,13 @@
         <v>1302</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E209" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F209" s="3">
         <v>-91.407949647899997</v>
@@ -7648,7 +7611,7 @@
       <c r="J209" s="8"/>
       <c r="K209" s="9"/>
     </row>
-    <row r="210" spans="1:11" ht="15.6">
+    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>13</v>
       </c>
@@ -7656,13 +7619,13 @@
         <v>1303</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E210" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F210" s="3">
         <v>-91.483525005499999</v>
@@ -7675,7 +7638,7 @@
       <c r="J210" s="8"/>
       <c r="K210" s="9"/>
     </row>
-    <row r="211" spans="1:11" ht="15.6">
+    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>13</v>
       </c>
@@ -7683,13 +7646,13 @@
         <v>1304</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E211" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F211" s="3">
         <v>-91.962375669699995</v>
@@ -7702,7 +7665,7 @@
       <c r="J211" s="8"/>
       <c r="K211" s="9"/>
     </row>
-    <row r="212" spans="1:11" ht="15.6">
+    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>13</v>
       </c>
@@ -7710,13 +7673,13 @@
         <v>1305</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E212" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F212" s="3">
         <v>-91.677795216299998</v>
@@ -7729,7 +7692,7 @@
       <c r="J212" s="8"/>
       <c r="K212" s="9"/>
     </row>
-    <row r="213" spans="1:11" ht="15.6">
+    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>13</v>
       </c>
@@ -7737,13 +7700,13 @@
         <v>1306</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E213" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F213" s="3">
         <v>-91.755591303499997</v>
@@ -7756,7 +7719,7 @@
       <c r="J213" s="8"/>
       <c r="K213" s="9"/>
     </row>
-    <row r="214" spans="1:11" ht="15.6">
+    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>13</v>
       </c>
@@ -7764,13 +7727,13 @@
         <v>1307</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E214" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F214" s="3">
         <v>-91.733228944000004</v>
@@ -7783,7 +7746,7 @@
       <c r="J214" s="8"/>
       <c r="K214" s="9"/>
     </row>
-    <row r="215" spans="1:11" ht="15.75">
+    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>13</v>
       </c>
@@ -7791,13 +7754,13 @@
         <v>1308</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E215" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F215" s="3">
         <v>-91.431724370300003</v>
@@ -7806,17 +7769,15 @@
         <v>15.7007403952</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I215" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="J215" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J215" s="8"/>
       <c r="K215" s="9"/>
     </row>
-    <row r="216" spans="1:11" ht="15.6">
+    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>13</v>
       </c>
@@ -7824,13 +7785,13 @@
         <v>1309</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E216" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F216" s="3">
         <v>-91.804919373399997</v>
@@ -7843,7 +7804,7 @@
       <c r="J216" s="8"/>
       <c r="K216" s="9"/>
     </row>
-    <row r="217" spans="1:11" ht="15.6">
+    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>13</v>
       </c>
@@ -7851,13 +7812,13 @@
         <v>1310</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E217" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F217" s="3">
         <v>-91.625425287400006</v>
@@ -7870,7 +7831,7 @@
       <c r="J217" s="8"/>
       <c r="K217" s="9"/>
     </row>
-    <row r="218" spans="1:11" ht="15.6">
+    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>13</v>
       </c>
@@ -7878,13 +7839,13 @@
         <v>1311</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E218" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F218" s="3">
         <v>-91.926830014999993</v>
@@ -7897,7 +7858,7 @@
       <c r="J218" s="8"/>
       <c r="K218" s="9"/>
     </row>
-    <row r="219" spans="1:11" ht="15.6">
+    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>13</v>
       </c>
@@ -7905,13 +7866,13 @@
         <v>1312</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E219" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F219" s="3">
         <v>-91.875802648399997</v>
@@ -7924,7 +7885,7 @@
       <c r="J219" s="8"/>
       <c r="K219" s="9"/>
     </row>
-    <row r="220" spans="1:11" ht="15.6">
+    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>13</v>
       </c>
@@ -7932,13 +7893,13 @@
         <v>1313</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E220" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F220" s="3">
         <v>-91.624189707799999</v>
@@ -7951,7 +7912,7 @@
       <c r="J220" s="8"/>
       <c r="K220" s="9"/>
     </row>
-    <row r="221" spans="1:11" ht="15.6">
+    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>13</v>
       </c>
@@ -7959,13 +7920,13 @@
         <v>1314</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E221" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F221" s="3">
         <v>-91.5222916158</v>
@@ -7978,7 +7939,7 @@
       <c r="J221" s="8"/>
       <c r="K221" s="9"/>
     </row>
-    <row r="222" spans="1:11" ht="15.6">
+    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>13</v>
       </c>
@@ -7986,13 +7947,13 @@
         <v>1315</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F222" s="3">
         <v>-91.585012451799997</v>
@@ -8005,7 +7966,7 @@
       <c r="J222" s="8"/>
       <c r="K222" s="9"/>
     </row>
-    <row r="223" spans="1:11" ht="15.6">
+    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>13</v>
       </c>
@@ -8013,13 +7974,13 @@
         <v>1316</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F223" s="3">
         <v>-91.626275948900002</v>
@@ -8032,7 +7993,7 @@
       <c r="J223" s="8"/>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:11" ht="15.6">
+    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>13</v>
       </c>
@@ -8040,13 +8001,13 @@
         <v>1317</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F224" s="3">
         <v>-91.325361323699994</v>
@@ -8059,7 +8020,7 @@
       <c r="J224" s="8"/>
       <c r="K224" s="9"/>
     </row>
-    <row r="225" spans="1:11" ht="15.6">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>13</v>
       </c>
@@ -8067,13 +8028,13 @@
         <v>1318</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F225" s="3">
         <v>-91.439241841400005</v>
@@ -8086,7 +8047,7 @@
       <c r="J225" s="8"/>
       <c r="K225" s="9"/>
     </row>
-    <row r="226" spans="1:11" ht="15.6">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>13</v>
       </c>
@@ -8094,13 +8055,13 @@
         <v>1319</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E226" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F226" s="3">
         <v>-91.711281784400001</v>
@@ -8113,7 +8074,7 @@
       <c r="J226" s="8"/>
       <c r="K226" s="9"/>
     </row>
-    <row r="227" spans="1:11" ht="15.6">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>13</v>
       </c>
@@ -8121,13 +8082,13 @@
         <v>1320</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F227" s="3">
         <v>-91.558355959300002</v>
@@ -8140,7 +8101,7 @@
       <c r="J227" s="8"/>
       <c r="K227" s="9"/>
     </row>
-    <row r="228" spans="1:11" ht="15.6">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>13</v>
       </c>
@@ -8148,13 +8109,13 @@
         <v>1321</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E228" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F228" s="3">
         <v>-92.039620911900002</v>
@@ -8167,7 +8128,7 @@
       <c r="J228" s="8"/>
       <c r="K228" s="9"/>
     </row>
-    <row r="229" spans="1:11" ht="15.6">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>13</v>
       </c>
@@ -8175,13 +8136,13 @@
         <v>1322</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E229" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F229" s="3">
         <v>-91.640575189900005</v>
@@ -8194,7 +8155,7 @@
       <c r="J229" s="8"/>
       <c r="K229" s="9"/>
     </row>
-    <row r="230" spans="1:11" ht="15.6">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>13</v>
       </c>
@@ -8202,13 +8163,13 @@
         <v>1323</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E230" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F230" s="3">
         <v>-91.386312936799996</v>
@@ -8221,7 +8182,7 @@
       <c r="J230" s="8"/>
       <c r="K230" s="9"/>
     </row>
-    <row r="231" spans="1:11" ht="15.6">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>13</v>
       </c>
@@ -8229,13 +8190,13 @@
         <v>1324</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E231" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F231" s="3">
         <v>-91.773687202299996</v>
@@ -8248,7 +8209,7 @@
       <c r="J231" s="8"/>
       <c r="K231" s="9"/>
     </row>
-    <row r="232" spans="1:11" ht="15.6">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>13</v>
       </c>
@@ -8256,13 +8217,13 @@
         <v>1325</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E232" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F232" s="3">
         <v>-91.584792198900004</v>
@@ -8275,7 +8236,7 @@
       <c r="J232" s="8"/>
       <c r="K232" s="9"/>
     </row>
-    <row r="233" spans="1:11" ht="15.6">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>13</v>
       </c>
@@ -8283,13 +8244,13 @@
         <v>1326</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E233" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F233" s="3">
         <v>-91.221083449899993</v>
@@ -8302,7 +8263,7 @@
       <c r="J233" s="8"/>
       <c r="K233" s="9"/>
     </row>
-    <row r="234" spans="1:11" ht="15.6">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>13</v>
       </c>
@@ -8310,13 +8271,13 @@
         <v>1327</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E234" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F234" s="3">
         <v>-91.214116577400006</v>
@@ -8329,7 +8290,7 @@
       <c r="J234" s="8"/>
       <c r="K234" s="9"/>
     </row>
-    <row r="235" spans="1:11" ht="15.6">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>13</v>
       </c>
@@ -8337,13 +8298,13 @@
         <v>1328</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E235" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F235" s="3">
         <v>-91.672568670399997</v>
@@ -8356,7 +8317,7 @@
       <c r="J235" s="8"/>
       <c r="K235" s="9"/>
     </row>
-    <row r="236" spans="1:11" ht="15.6">
+    <row r="236" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>13</v>
       </c>
@@ -8364,13 +8325,13 @@
         <v>1329</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E236" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F236" s="3">
         <v>-91.706644718000007</v>
@@ -8383,7 +8344,7 @@
       <c r="J236" s="8"/>
       <c r="K236" s="9"/>
     </row>
-    <row r="237" spans="1:11" ht="15.6">
+    <row r="237" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>13</v>
       </c>
@@ -8391,13 +8352,13 @@
         <v>1330</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E237" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F237" s="3">
         <v>-91.685209619299997</v>
@@ -8410,7 +8371,7 @@
       <c r="J237" s="8"/>
       <c r="K237" s="9"/>
     </row>
-    <row r="238" spans="1:11" ht="15.6">
+    <row r="238" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>13</v>
       </c>
@@ -8418,13 +8379,13 @@
         <v>1331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E238" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F238" s="3">
         <v>-91.849017521099995</v>
@@ -8437,7 +8398,7 @@
       <c r="J238" s="8"/>
       <c r="K238" s="9"/>
     </row>
-    <row r="239" spans="1:11" ht="15.6">
+    <row r="239" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>13</v>
       </c>
@@ -8445,13 +8406,13 @@
         <v>1332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E239" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F239" s="3">
         <v>-91.738578721300001</v>
@@ -8464,7 +8425,7 @@
       <c r="J239" s="8"/>
       <c r="K239" s="9"/>
     </row>
-    <row r="240" spans="1:11" ht="15.6">
+    <row r="240" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>13</v>
       </c>
@@ -8472,13 +8433,13 @@
         <v>1333</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E240" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F240" s="3">
         <v>-91.733773505800002</v>
@@ -8491,7 +8452,7 @@
       <c r="J240" s="8"/>
       <c r="K240" s="9"/>
     </row>
-    <row r="241" spans="1:11" ht="15.6">
+    <row r="241" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>14</v>
       </c>
@@ -8499,13 +8460,13 @@
         <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E241" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F241" s="3">
         <v>-91.123625024899994</v>
@@ -8518,7 +8479,7 @@
       <c r="J241" s="8"/>
       <c r="K241" s="9"/>
     </row>
-    <row r="242" spans="1:11" ht="15.6">
+    <row r="242" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>14</v>
       </c>
@@ -8526,13 +8487,13 @@
         <v>1402</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E242" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F242" s="3">
         <v>-91.044895543099997</v>
@@ -8545,7 +8506,7 @@
       <c r="J242" s="8"/>
       <c r="K242" s="9"/>
     </row>
-    <row r="243" spans="1:11" ht="15.6">
+    <row r="243" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>14</v>
       </c>
@@ -8553,13 +8514,13 @@
         <v>1403</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E243" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F243" s="3">
         <v>-91.022075947999994</v>
@@ -8572,7 +8533,7 @@
       <c r="J243" s="8"/>
       <c r="K243" s="9"/>
     </row>
-    <row r="244" spans="1:11" ht="15.6">
+    <row r="244" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>14</v>
       </c>
@@ -8580,13 +8541,13 @@
         <v>1404</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E244" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F244" s="3">
         <v>-90.885168603500006</v>
@@ -8599,7 +8560,7 @@
       <c r="J244" s="8"/>
       <c r="K244" s="9"/>
     </row>
-    <row r="245" spans="1:11" ht="15.6">
+    <row r="245" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>14</v>
       </c>
@@ -8607,13 +8568,13 @@
         <v>1405</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E245" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F245" s="3">
         <v>-90.992745335199999</v>
@@ -8626,7 +8587,7 @@
       <c r="J245" s="8"/>
       <c r="K245" s="9"/>
     </row>
-    <row r="246" spans="1:11" ht="15.6">
+    <row r="246" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>14</v>
       </c>
@@ -8634,13 +8595,13 @@
         <v>1406</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E246" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F246" s="3">
         <v>-91.092099982400001</v>
@@ -8653,7 +8614,7 @@
       <c r="J246" s="8"/>
       <c r="K246" s="9"/>
     </row>
-    <row r="247" spans="1:11" ht="15.6">
+    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>14</v>
       </c>
@@ -8661,13 +8622,13 @@
         <v>1407</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E247" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F247" s="3">
         <v>-91.196799451900006</v>
@@ -8680,7 +8641,7 @@
       <c r="J247" s="8"/>
       <c r="K247" s="9"/>
     </row>
-    <row r="248" spans="1:11" ht="15.6">
+    <row r="248" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>14</v>
       </c>
@@ -8688,13 +8649,13 @@
         <v>1408</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E248" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F248" s="3">
         <v>-91.214462873399995</v>
@@ -8707,7 +8668,7 @@
       <c r="J248" s="8"/>
       <c r="K248" s="9"/>
     </row>
-    <row r="249" spans="1:11" ht="15.6">
+    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>14</v>
       </c>
@@ -8715,13 +8676,13 @@
         <v>1409</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E249" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F249" s="3">
         <v>-91.166098987699996</v>
@@ -8734,7 +8695,7 @@
       <c r="J249" s="8"/>
       <c r="K249" s="9"/>
     </row>
-    <row r="250" spans="1:11" ht="15.6">
+    <row r="250" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>14</v>
       </c>
@@ -8742,13 +8703,13 @@
         <v>1410</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E250" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F250" s="3">
         <v>-91.018204802599996</v>
@@ -8761,7 +8722,7 @@
       <c r="J250" s="8"/>
       <c r="K250" s="9"/>
     </row>
-    <row r="251" spans="1:11" ht="15.6">
+    <row r="251" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>14</v>
       </c>
@@ -8769,13 +8730,13 @@
         <v>1411</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E251" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F251" s="3">
         <v>-91.096245476199996</v>
@@ -8788,7 +8749,7 @@
       <c r="J251" s="8"/>
       <c r="K251" s="9"/>
     </row>
-    <row r="252" spans="1:11" ht="15.6">
+    <row r="252" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>14</v>
       </c>
@@ -8796,13 +8757,13 @@
         <v>1412</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E252" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F252" s="3">
         <v>-90.821091232200004</v>
@@ -8815,7 +8776,7 @@
       <c r="J252" s="8"/>
       <c r="K252" s="9"/>
     </row>
-    <row r="253" spans="1:11" ht="15.6">
+    <row r="253" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>14</v>
       </c>
@@ -8823,13 +8784,13 @@
         <v>1413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E253" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F253" s="3">
         <v>-91.173303515900002</v>
@@ -8842,7 +8803,7 @@
       <c r="J253" s="8"/>
       <c r="K253" s="9"/>
     </row>
-    <row r="254" spans="1:11" ht="15.6">
+    <row r="254" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>14</v>
       </c>
@@ -8850,13 +8811,13 @@
         <v>1414</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F254" s="3">
         <v>-90.918243148599998</v>
@@ -8869,7 +8830,7 @@
       <c r="J254" s="8"/>
       <c r="K254" s="9"/>
     </row>
-    <row r="255" spans="1:11" ht="15.6">
+    <row r="255" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>14</v>
       </c>
@@ -8877,13 +8838,13 @@
         <v>1415</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F255" s="3">
         <v>-90.810122511000003</v>
@@ -8896,7 +8857,7 @@
       <c r="J255" s="8"/>
       <c r="K255" s="9"/>
     </row>
-    <row r="256" spans="1:11" ht="15.6">
+    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>14</v>
       </c>
@@ -8904,13 +8865,13 @@
         <v>1416</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E256" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F256" s="3">
         <v>-91.112894047899999</v>
@@ -8923,7 +8884,7 @@
       <c r="J256" s="8"/>
       <c r="K256" s="9"/>
     </row>
-    <row r="257" spans="1:11" ht="15.6">
+    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>14</v>
       </c>
@@ -8931,13 +8892,13 @@
         <v>1417</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F257" s="3">
         <v>-91.033633249600001</v>
@@ -8950,7 +8911,7 @@
       <c r="J257" s="8"/>
       <c r="K257" s="9"/>
     </row>
-    <row r="258" spans="1:11" ht="15.6">
+    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>14</v>
       </c>
@@ -8958,13 +8919,13 @@
         <v>1418</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E258" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F258" s="3">
         <v>-90.864105525599996</v>
@@ -8977,7 +8938,7 @@
       <c r="J258" s="8"/>
       <c r="K258" s="9"/>
     </row>
-    <row r="259" spans="1:11" ht="15.6">
+    <row r="259" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>14</v>
       </c>
@@ -8985,13 +8946,13 @@
         <v>1419</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F259" s="3">
         <v>-90.576541581900003</v>
@@ -9004,7 +8965,7 @@
       <c r="J259" s="8"/>
       <c r="K259" s="9"/>
     </row>
-    <row r="260" spans="1:11" ht="15.6">
+    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>14</v>
       </c>
@@ -9012,13 +8973,13 @@
         <v>1420</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E260" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F260" s="3">
         <v>-90.867284844400004</v>
@@ -9031,7 +8992,7 @@
       <c r="J260" s="8"/>
       <c r="K260" s="9"/>
     </row>
-    <row r="261" spans="1:11" ht="15.6">
+    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>14</v>
       </c>
@@ -9039,13 +9000,13 @@
         <v>1421</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E261" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F261" s="3">
         <v>-90.654460549999996</v>
@@ -9058,7 +9019,7 @@
       <c r="J261" s="8"/>
       <c r="K261" s="9"/>
     </row>
-    <row r="262" spans="1:11" ht="15.6">
+    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>15</v>
       </c>
@@ -9066,13 +9027,13 @@
         <v>1501</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E262" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F262" s="3">
         <v>-90.225170355399996</v>
@@ -9085,7 +9046,7 @@
       <c r="J262" s="8"/>
       <c r="K262" s="9"/>
     </row>
-    <row r="263" spans="1:11" ht="15.6">
+    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>15</v>
       </c>
@@ -9093,13 +9054,13 @@
         <v>1502</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E263" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F263" s="3">
         <v>-90.413049724199993</v>
@@ -9112,7 +9073,7 @@
       <c r="J263" s="8"/>
       <c r="K263" s="9"/>
     </row>
-    <row r="264" spans="1:11" ht="15.6">
+    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>15</v>
       </c>
@@ -9120,13 +9081,13 @@
         <v>1503</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E264" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F264" s="3">
         <v>-90.507080995799996</v>
@@ -9139,7 +9100,7 @@
       <c r="J264" s="8"/>
       <c r="K264" s="9"/>
     </row>
-    <row r="265" spans="1:11" ht="15.6">
+    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>15</v>
       </c>
@@ -9147,13 +9108,13 @@
         <v>1504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E265" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F265" s="3">
         <v>-90.671275424200005</v>
@@ -9166,7 +9127,7 @@
       <c r="J265" s="8"/>
       <c r="K265" s="9"/>
     </row>
-    <row r="266" spans="1:11" ht="15.6">
+    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>15</v>
       </c>
@@ -9174,13 +9135,13 @@
         <v>1505</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E266" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F266" s="3">
         <v>-90.575432231199997</v>
@@ -9193,7 +9154,7 @@
       <c r="J266" s="8"/>
       <c r="K266" s="9"/>
     </row>
-    <row r="267" spans="1:11" ht="15.6">
+    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>15</v>
       </c>
@@ -9201,13 +9162,13 @@
         <v>1506</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E267" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F267" s="3">
         <v>-90.487303449300001</v>
@@ -9220,7 +9181,7 @@
       <c r="J267" s="8"/>
       <c r="K267" s="9"/>
     </row>
-    <row r="268" spans="1:11" ht="15.6">
+    <row r="268" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>15</v>
       </c>
@@ -9228,13 +9189,13 @@
         <v>1507</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E268" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F268" s="3">
         <v>-90.194256072800002</v>
@@ -9247,7 +9208,7 @@
       <c r="J268" s="8"/>
       <c r="K268" s="9"/>
     </row>
-    <row r="269" spans="1:11" ht="15.6">
+    <row r="269" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>15</v>
       </c>
@@ -9255,13 +9216,13 @@
         <v>1508</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E269" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F269" s="3">
         <v>-90.038437972300002</v>
@@ -9274,7 +9235,7 @@
       <c r="J269" s="8"/>
       <c r="K269" s="9"/>
     </row>
-    <row r="270" spans="1:11" ht="15.6">
+    <row r="270" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>16</v>
       </c>
@@ -9282,13 +9243,13 @@
         <v>1601</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E270" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F270" s="3">
         <v>-90.540163277000005</v>
@@ -9301,7 +9262,7 @@
       <c r="J270" s="8"/>
       <c r="K270" s="9"/>
     </row>
-    <row r="271" spans="1:11" ht="15.6">
+    <row r="271" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>16</v>
       </c>
@@ -9309,13 +9270,13 @@
         <v>1602</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E271" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F271" s="3">
         <v>-90.414022986999996</v>
@@ -9328,7 +9289,7 @@
       <c r="J271" s="8"/>
       <c r="K271" s="9"/>
     </row>
-    <row r="272" spans="1:11" ht="15.6">
+    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>16</v>
       </c>
@@ -9336,13 +9297,13 @@
         <v>1603</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E272" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F272" s="3">
         <v>-90.565138758000003</v>
@@ -9355,7 +9316,7 @@
       <c r="J272" s="8"/>
       <c r="K272" s="9"/>
     </row>
-    <row r="273" spans="1:11" ht="15.6">
+    <row r="273" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>16</v>
       </c>
@@ -9363,13 +9324,13 @@
         <v>1604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E273" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F273" s="3">
         <v>-90.337603636799997</v>
@@ -9382,7 +9343,7 @@
       <c r="J273" s="8"/>
       <c r="K273" s="9"/>
     </row>
-    <row r="274" spans="1:11" ht="15.6">
+    <row r="274" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>16</v>
       </c>
@@ -9390,13 +9351,13 @@
         <v>1605</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E274" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F274" s="3">
         <v>-90.241696780400005</v>
@@ -9409,7 +9370,7 @@
       <c r="J274" s="8"/>
       <c r="K274" s="9"/>
     </row>
-    <row r="275" spans="1:11" ht="15.6">
+    <row r="275" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>16</v>
       </c>
@@ -9417,13 +9378,13 @@
         <v>1606</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E275" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F275" s="3">
         <v>-90.0809888844</v>
@@ -9436,7 +9397,7 @@
       <c r="J275" s="8"/>
       <c r="K275" s="9"/>
     </row>
-    <row r="276" spans="1:11" ht="15.6">
+    <row r="276" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>16</v>
       </c>
@@ -9444,13 +9405,13 @@
         <v>1607</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E276" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F276" s="3">
         <v>-89.655695832099994</v>
@@ -9463,7 +9424,7 @@
       <c r="J276" s="8"/>
       <c r="K276" s="9"/>
     </row>
-    <row r="277" spans="1:11" ht="15.6">
+    <row r="277" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>16</v>
       </c>
@@ -9471,13 +9432,13 @@
         <v>1608</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E277" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F277" s="3">
         <v>-89.839368065200006</v>
@@ -9490,7 +9451,7 @@
       <c r="J277" s="8"/>
       <c r="K277" s="9"/>
     </row>
-    <row r="278" spans="1:11" ht="15.6">
+    <row r="278" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>16</v>
       </c>
@@ -9498,13 +9459,13 @@
         <v>1609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E278" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F278" s="3">
         <v>-90.152039575700002</v>
@@ -9517,7 +9478,7 @@
       <c r="J278" s="8"/>
       <c r="K278" s="9"/>
     </row>
-    <row r="279" spans="1:11" ht="15.6">
+    <row r="279" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>16</v>
       </c>
@@ -9525,13 +9486,13 @@
         <v>1610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E279" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F279" s="3">
         <v>-90.236552233200001</v>
@@ -9544,7 +9505,7 @@
       <c r="J279" s="8"/>
       <c r="K279" s="9"/>
     </row>
-    <row r="280" spans="1:11" ht="15.6">
+    <row r="280" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>16</v>
       </c>
@@ -9552,13 +9513,13 @@
         <v>1611</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E280" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F280" s="3">
         <v>-89.990137220999998</v>
@@ -9571,7 +9532,7 @@
       <c r="J280" s="8"/>
       <c r="K280" s="9"/>
     </row>
-    <row r="281" spans="1:11" ht="15.6">
+    <row r="281" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>16</v>
       </c>
@@ -9579,13 +9540,13 @@
         <v>1612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E281" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F281" s="3">
         <v>-89.846545381799999</v>
@@ -9598,7 +9559,7 @@
       <c r="J281" s="8"/>
       <c r="K281" s="9"/>
     </row>
-    <row r="282" spans="1:11" ht="15.6">
+    <row r="282" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>16</v>
       </c>
@@ -9606,13 +9567,13 @@
         <v>1613</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E282" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F282" s="3">
         <v>-90.367867791500004</v>
@@ -9625,7 +9586,7 @@
       <c r="J282" s="8"/>
       <c r="K282" s="9"/>
     </row>
-    <row r="283" spans="1:11" ht="15.6">
+    <row r="283" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>16</v>
       </c>
@@ -9633,13 +9594,13 @@
         <v>1614</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E283" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F283" s="3">
         <v>-89.5763077939</v>
@@ -9652,7 +9613,7 @@
       <c r="J283" s="8"/>
       <c r="K283" s="9"/>
     </row>
-    <row r="284" spans="1:11" ht="15.6">
+    <row r="284" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>16</v>
       </c>
@@ -9660,13 +9621,13 @@
         <v>1615</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E284" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F284" s="3">
         <v>-89.762156653399998</v>
@@ -9679,7 +9640,7 @@
       <c r="J284" s="8"/>
       <c r="K284" s="9"/>
     </row>
-    <row r="285" spans="1:11" ht="15.6">
+    <row r="285" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>16</v>
       </c>
@@ -9687,13 +9648,13 @@
         <v>1616</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F285" s="3">
         <v>-89.833982185899998</v>
@@ -9706,7 +9667,7 @@
       <c r="J285" s="8"/>
       <c r="K285" s="9"/>
     </row>
-    <row r="286" spans="1:11" ht="15.6">
+    <row r="286" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>16</v>
       </c>
@@ -9714,13 +9675,13 @@
         <v>1617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F286" s="3">
         <v>-90.080920376099996</v>
@@ -9733,7 +9694,7 @@
       <c r="J286" s="8"/>
       <c r="K286" s="9"/>
     </row>
-    <row r="287" spans="1:11" ht="15.6">
+    <row r="287" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>17</v>
       </c>
@@ -9741,13 +9702,13 @@
         <v>1701</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E287" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F287" s="3">
         <v>-89.534690827800006</v>
@@ -9760,7 +9721,7 @@
       <c r="J287" s="8"/>
       <c r="K287" s="9"/>
     </row>
-    <row r="288" spans="1:11" ht="15.6">
+    <row r="288" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>17</v>
       </c>
@@ -9768,13 +9729,13 @@
         <v>1702</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E288" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F288" s="3">
         <v>-89.809727266300001</v>
@@ -9787,7 +9748,7 @@
       <c r="J288" s="8"/>
       <c r="K288" s="9"/>
     </row>
-    <row r="289" spans="1:11" ht="15.6">
+    <row r="289" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>17</v>
       </c>
@@ -9795,13 +9756,13 @@
         <v>1703</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E289" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F289" s="3">
         <v>-90.071963769999996</v>
@@ -9814,7 +9775,7 @@
       <c r="J289" s="8"/>
       <c r="K289" s="9"/>
     </row>
-    <row r="290" spans="1:11" ht="15.6">
+    <row r="290" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>17</v>
       </c>
@@ -9822,13 +9783,13 @@
         <v>1704</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E290" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F290" s="3">
         <v>-90.404789543999996</v>
@@ -9841,7 +9802,7 @@
       <c r="J290" s="8"/>
       <c r="K290" s="9"/>
     </row>
-    <row r="291" spans="1:11" ht="15.6">
+    <row r="291" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>17</v>
       </c>
@@ -9849,13 +9810,13 @@
         <v>1705</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E291" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F291" s="3">
         <v>-90.642764341299994</v>
@@ -9868,7 +9829,7 @@
       <c r="J291" s="8"/>
       <c r="K291" s="9"/>
     </row>
-    <row r="292" spans="1:11" ht="15.6">
+    <row r="292" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>17</v>
       </c>
@@ -9876,13 +9837,13 @@
         <v>1706</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E292" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F292" s="3">
         <v>-89.978122806499996</v>
@@ -9895,7 +9856,7 @@
       <c r="J292" s="8"/>
       <c r="K292" s="9"/>
     </row>
-    <row r="293" spans="1:11" ht="15.6">
+    <row r="293" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>17</v>
       </c>
@@ -9903,13 +9864,13 @@
         <v>1707</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E293" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F293" s="3">
         <v>-89.576910178000006</v>
@@ -9922,7 +9883,7 @@
       <c r="J293" s="8"/>
       <c r="K293" s="9"/>
     </row>
-    <row r="294" spans="1:11" ht="15.6">
+    <row r="294" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>17</v>
       </c>
@@ -9930,13 +9891,13 @@
         <v>1708</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E294" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F294" s="3">
         <v>-89.359935833099996</v>
@@ -9949,7 +9910,7 @@
       <c r="J294" s="8"/>
       <c r="K294" s="9"/>
     </row>
-    <row r="295" spans="1:11" ht="15.6">
+    <row r="295" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>17</v>
       </c>
@@ -9957,13 +9918,13 @@
         <v>1709</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E295" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F295" s="3">
         <v>-89.650778795500003</v>
@@ -9976,7 +9937,7 @@
       <c r="J295" s="8"/>
       <c r="K295" s="9"/>
     </row>
-    <row r="296" spans="1:11" ht="15.6">
+    <row r="296" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>17</v>
       </c>
@@ -9984,13 +9945,13 @@
         <v>1710</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E296" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F296" s="3">
         <v>-90.222067300700004</v>
@@ -10003,7 +9964,7 @@
       <c r="J296" s="8"/>
       <c r="K296" s="9"/>
     </row>
-    <row r="297" spans="1:11" ht="15.6">
+    <row r="297" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>17</v>
       </c>
@@ -10011,13 +9972,13 @@
         <v>1711</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E297" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F297" s="3">
         <v>-89.244976767599994</v>
@@ -10030,7 +9991,7 @@
       <c r="J297" s="8"/>
       <c r="K297" s="9"/>
     </row>
-    <row r="298" spans="1:11" ht="15.6">
+    <row r="298" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>17</v>
       </c>
@@ -10038,13 +9999,13 @@
         <v>1712</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E298" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F298" s="3">
         <v>-89.572871535100006</v>
@@ -10057,7 +10018,7 @@
       <c r="J298" s="8"/>
       <c r="K298" s="9"/>
     </row>
-    <row r="299" spans="1:11" ht="15.6">
+    <row r="299" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>17</v>
       </c>
@@ -10065,13 +10026,13 @@
         <v>1713</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E299" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F299" s="3">
         <v>-90.482542788499998</v>
@@ -10084,7 +10045,7 @@
       <c r="J299" s="8"/>
       <c r="K299" s="9"/>
     </row>
-    <row r="300" spans="1:11" ht="15.6">
+    <row r="300" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>17</v>
       </c>
@@ -10092,13 +10053,13 @@
         <v>1714</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E300" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F300" s="3">
         <v>-89.7338217665</v>
@@ -10111,7 +10072,7 @@
       <c r="J300" s="8"/>
       <c r="K300" s="9"/>
     </row>
-    <row r="301" spans="1:11" ht="15.6">
+    <row r="301" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>18</v>
       </c>
@@ -10119,13 +10080,13 @@
         <v>1801</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E301" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F301" s="3">
         <v>-88.490589347099998</v>
@@ -10138,7 +10099,7 @@
       <c r="J301" s="8"/>
       <c r="K301" s="9"/>
     </row>
-    <row r="302" spans="1:11" ht="15.6">
+    <row r="302" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>18</v>
       </c>
@@ -10146,13 +10107,13 @@
         <v>1802</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F302" s="3">
         <v>-89.063881881300006</v>
@@ -10165,7 +10126,7 @@
       <c r="J302" s="8"/>
       <c r="K302" s="9"/>
     </row>
-    <row r="303" spans="1:11" ht="15.6">
+    <row r="303" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>18</v>
       </c>
@@ -10173,13 +10134,13 @@
         <v>1803</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E303" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F303" s="3">
         <v>-89.375629489800005</v>
@@ -10192,7 +10153,7 @@
       <c r="J303" s="8"/>
       <c r="K303" s="9"/>
     </row>
-    <row r="304" spans="1:11" ht="15.6">
+    <row r="304" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>18</v>
       </c>
@@ -10200,13 +10161,13 @@
         <v>1804</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F304" s="3">
         <v>-88.772517151800002</v>
@@ -10219,7 +10180,7 @@
       <c r="J304" s="8"/>
       <c r="K304" s="9"/>
     </row>
-    <row r="305" spans="1:11" ht="15.6">
+    <row r="305" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>18</v>
       </c>
@@ -10227,13 +10188,13 @@
         <v>1805</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F305" s="3">
         <v>-89.080823783699998</v>
@@ -10246,7 +10207,7 @@
       <c r="J305" s="8"/>
       <c r="K305" s="9"/>
     </row>
-    <row r="306" spans="1:11" ht="15.6">
+    <row r="306" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>19</v>
       </c>
@@ -10254,13 +10215,13 @@
         <v>1901</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E306" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F306" s="3">
         <v>-89.461172833800006</v>
@@ -10273,7 +10234,7 @@
       <c r="J306" s="8"/>
       <c r="K306" s="9"/>
     </row>
-    <row r="307" spans="1:11" ht="15.6">
+    <row r="307" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>19</v>
       </c>
@@ -10281,13 +10242,13 @@
         <v>1902</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E307" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F307" s="3">
         <v>-89.6127720458</v>
@@ -10300,7 +10261,7 @@
       <c r="J307" s="8"/>
       <c r="K307" s="9"/>
     </row>
-    <row r="308" spans="1:11" ht="15.6">
+    <row r="308" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>19</v>
       </c>
@@ -10308,13 +10269,13 @@
         <v>1903</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E308" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F308" s="3">
         <v>-89.600276401599999</v>
@@ -10327,7 +10288,7 @@
       <c r="J308" s="8"/>
       <c r="K308" s="9"/>
     </row>
-    <row r="309" spans="1:11" ht="15.75">
+    <row r="309" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>19</v>
       </c>
@@ -10335,13 +10296,13 @@
         <v>1904</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F309" s="3">
         <v>-89.302420952700004</v>
@@ -10350,17 +10311,15 @@
         <v>15.146810514</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J309" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J309" s="8"/>
       <c r="K309" s="9"/>
     </row>
-    <row r="310" spans="1:11" ht="15.75">
+    <row r="310" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>19</v>
       </c>
@@ -10368,13 +10327,13 @@
         <v>1905</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E310" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F310" s="3">
         <v>-89.840188376900002</v>
@@ -10383,17 +10342,15 @@
         <v>15.120072883200001</v>
       </c>
       <c r="H310" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="J310" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="J310" s="8"/>
       <c r="K310" s="9"/>
     </row>
-    <row r="311" spans="1:11" ht="15.6">
+    <row r="311" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>19</v>
       </c>
@@ -10401,13 +10358,13 @@
         <v>1906</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E311" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F311" s="3">
         <v>-89.808019574499994</v>
@@ -10420,7 +10377,7 @@
       <c r="J311" s="8"/>
       <c r="K311" s="9"/>
     </row>
-    <row r="312" spans="1:11" ht="15.6">
+    <row r="312" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>19</v>
       </c>
@@ -10428,13 +10385,13 @@
         <v>1907</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E312" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F312" s="3">
         <v>-89.776648353300004</v>
@@ -10447,7 +10404,7 @@
       <c r="J312" s="8"/>
       <c r="K312" s="9"/>
     </row>
-    <row r="313" spans="1:11" ht="15.6">
+    <row r="313" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>19</v>
       </c>
@@ -10455,13 +10412,13 @@
         <v>1908</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E313" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F313" s="3">
         <v>-89.760073101900005</v>
@@ -10474,7 +10431,7 @@
       <c r="J313" s="8"/>
       <c r="K313" s="9"/>
     </row>
-    <row r="314" spans="1:11" ht="15.6">
+    <row r="314" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>19</v>
       </c>
@@ -10482,13 +10439,13 @@
         <v>1909</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E314" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F314" s="3">
         <v>-89.278115855699994</v>
@@ -10501,7 +10458,7 @@
       <c r="J314" s="8"/>
       <c r="K314" s="9"/>
     </row>
-    <row r="315" spans="1:11" ht="15.6">
+    <row r="315" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>19</v>
       </c>
@@ -10509,13 +10466,13 @@
         <v>1910</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E315" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F315" s="3">
         <v>-89.697666162100006</v>
@@ -10528,7 +10485,7 @@
       <c r="J315" s="8"/>
       <c r="K315" s="9"/>
     </row>
-    <row r="316" spans="1:11" ht="15.6">
+    <row r="316" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>19</v>
       </c>
@@ -10536,13 +10493,13 @@
         <v>1911</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E316" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F316" s="3">
         <v>-89.603656109400006</v>
@@ -10555,7 +10512,7 @@
       <c r="J316" s="8"/>
       <c r="K316" s="9"/>
     </row>
-    <row r="317" spans="1:11" ht="15.6">
+    <row r="317" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>20</v>
       </c>
@@ -10563,13 +10520,13 @@
         <v>2001</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E317" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F317" s="3">
         <v>-89.579062339999993</v>
@@ -10582,7 +10539,7 @@
       <c r="J317" s="8"/>
       <c r="K317" s="9"/>
     </row>
-    <row r="318" spans="1:11" ht="15.6">
+    <row r="318" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>20</v>
       </c>
@@ -10590,13 +10547,13 @@
         <v>2002</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E318" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F318" s="3">
         <v>-89.608390396900006</v>
@@ -10609,7 +10566,7 @@
       <c r="J318" s="8"/>
       <c r="K318" s="9"/>
     </row>
-    <row r="319" spans="1:11" ht="15.6">
+    <row r="319" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>20</v>
       </c>
@@ -10617,13 +10574,13 @@
         <v>2003</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E319" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F319" s="3">
         <v>-89.426864671199993</v>
@@ -10636,7 +10593,7 @@
       <c r="J319" s="8"/>
       <c r="K319" s="9"/>
     </row>
-    <row r="320" spans="1:11" ht="15.6">
+    <row r="320" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>20</v>
       </c>
@@ -10644,13 +10601,13 @@
         <v>2004</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E320" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F320" s="3">
         <v>-89.358570153599999</v>
@@ -10663,7 +10620,7 @@
       <c r="J320" s="8"/>
       <c r="K320" s="9"/>
     </row>
-    <row r="321" spans="1:11" ht="15.6">
+    <row r="321" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>20</v>
       </c>
@@ -10671,13 +10628,13 @@
         <v>2005</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E321" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F321" s="3">
         <v>-89.2793323585</v>
@@ -10690,7 +10647,7 @@
       <c r="J321" s="8"/>
       <c r="K321" s="9"/>
     </row>
-    <row r="322" spans="1:11" ht="15.6">
+    <row r="322" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>20</v>
       </c>
@@ -10698,13 +10655,13 @@
         <v>2006</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E322" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F322" s="3">
         <v>-89.316418132099997</v>
@@ -10717,7 +10674,7 @@
       <c r="J322" s="8"/>
       <c r="K322" s="9"/>
     </row>
-    <row r="323" spans="1:11" ht="15.6">
+    <row r="323" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>20</v>
       </c>
@@ -10725,13 +10682,13 @@
         <v>2007</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F323" s="3">
         <v>-89.267106080900007</v>
@@ -10744,7 +10701,7 @@
       <c r="J323" s="8"/>
       <c r="K323" s="9"/>
     </row>
-    <row r="324" spans="1:11" ht="15.6">
+    <row r="324" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>20</v>
       </c>
@@ -10752,13 +10709,13 @@
         <v>2008</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E324" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F324" s="3">
         <v>-89.449259596000005</v>
@@ -10771,7 +10728,7 @@
       <c r="J324" s="8"/>
       <c r="K324" s="9"/>
     </row>
-    <row r="325" spans="1:11" ht="15.6">
+    <row r="325" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>20</v>
       </c>
@@ -10779,13 +10736,13 @@
         <v>2009</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E325" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F325" s="3">
         <v>-89.458740632100003</v>
@@ -10798,7 +10755,7 @@
       <c r="J325" s="8"/>
       <c r="K325" s="9"/>
     </row>
-    <row r="326" spans="1:11" ht="15.6">
+    <row r="326" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>20</v>
       </c>
@@ -10806,13 +10763,13 @@
         <v>2010</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E326" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F326" s="3">
         <v>-89.513011996200007</v>
@@ -10825,7 +10782,7 @@
       <c r="J326" s="8"/>
       <c r="K326" s="9"/>
     </row>
-    <row r="327" spans="1:11" ht="15.6">
+    <row r="327" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>20</v>
       </c>
@@ -10833,13 +10790,13 @@
         <v>2011</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E327" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F327" s="3">
         <v>-89.608276851599996</v>
@@ -10852,7 +10809,7 @@
       <c r="J327" s="8"/>
       <c r="K327" s="9"/>
     </row>
-    <row r="328" spans="1:11" ht="15.6">
+    <row r="328" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>21</v>
       </c>
@@ -10860,13 +10817,13 @@
         <v>2101</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E328" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F328" s="3">
         <v>-90.031236814799996</v>
@@ -10879,7 +10836,7 @@
       <c r="J328" s="8"/>
       <c r="K328" s="9"/>
     </row>
-    <row r="329" spans="1:11" ht="15.6">
+    <row r="329" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>21</v>
       </c>
@@ -10887,13 +10844,13 @@
         <v>2102</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E329" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F329" s="3">
         <v>-89.854372746199999</v>
@@ -10906,7 +10863,7 @@
       <c r="J329" s="8"/>
       <c r="K329" s="9"/>
     </row>
-    <row r="330" spans="1:11" ht="15.6">
+    <row r="330" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>21</v>
       </c>
@@ -10914,13 +10871,13 @@
         <v>2103</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E330" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F330" s="3">
         <v>-89.715105513200001</v>
@@ -10933,7 +10890,7 @@
       <c r="J330" s="8"/>
       <c r="K330" s="9"/>
     </row>
-    <row r="331" spans="1:11" ht="15.6">
+    <row r="331" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>21</v>
       </c>
@@ -10941,13 +10898,13 @@
         <v>2104</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E331" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F331" s="3">
         <v>-89.761175214999994</v>
@@ -10960,7 +10917,7 @@
       <c r="J331" s="8"/>
       <c r="K331" s="9"/>
     </row>
-    <row r="332" spans="1:11" ht="15.6">
+    <row r="332" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>21</v>
       </c>
@@ -10968,13 +10925,13 @@
         <v>2105</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E332" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F332" s="3">
         <v>-90.076592566000002</v>
@@ -10987,7 +10944,7 @@
       <c r="J332" s="8"/>
       <c r="K332" s="9"/>
     </row>
-    <row r="333" spans="1:11" ht="15.6">
+    <row r="333" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>21</v>
       </c>
@@ -10995,13 +10952,13 @@
         <v>2106</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E333" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F333" s="3">
         <v>-89.898418915199997</v>
@@ -11014,7 +10971,7 @@
       <c r="J333" s="8"/>
       <c r="K333" s="9"/>
     </row>
-    <row r="334" spans="1:11" ht="15.6">
+    <row r="334" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>21</v>
       </c>
@@ -11022,13 +10979,13 @@
         <v>2107</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E334" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F334" s="3">
         <v>-90.203819796800005</v>
@@ -11041,7 +10998,7 @@
       <c r="J334" s="8"/>
       <c r="K334" s="9"/>
     </row>
-    <row r="335" spans="1:11" ht="15.6">
+    <row r="335" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>22</v>
       </c>
@@ -11049,13 +11006,13 @@
         <v>2201</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E335" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F335" s="3">
         <v>-89.931021080799994</v>
@@ -11068,7 +11025,7 @@
       <c r="J335" s="8"/>
       <c r="K335" s="9"/>
     </row>
-    <row r="336" spans="1:11" ht="15.6">
+    <row r="336" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>22</v>
       </c>
@@ -11076,13 +11033,13 @@
         <v>2202</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E336" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F336" s="3">
         <v>-89.850195852599995</v>
@@ -11095,7 +11052,7 @@
       <c r="J336" s="8"/>
       <c r="K336" s="9"/>
     </row>
-    <row r="337" spans="1:11" ht="15.6">
+    <row r="337" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>22</v>
       </c>
@@ -11103,13 +11060,13 @@
         <v>2203</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E337" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F337" s="3">
         <v>-89.770635131099993</v>
@@ -11122,7 +11079,7 @@
       <c r="J337" s="8"/>
       <c r="K337" s="9"/>
     </row>
-    <row r="338" spans="1:11" ht="15.6">
+    <row r="338" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>22</v>
       </c>
@@ -11130,13 +11087,13 @@
         <v>2204</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E338" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F338" s="3">
         <v>-89.599944656900007</v>
@@ -11149,7 +11106,7 @@
       <c r="J338" s="8"/>
       <c r="K338" s="9"/>
     </row>
-    <row r="339" spans="1:11" ht="15.6">
+    <row r="339" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>22</v>
       </c>
@@ -11157,13 +11114,13 @@
         <v>2205</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E339" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F339" s="3">
         <v>-89.667373733199994</v>
@@ -11176,7 +11133,7 @@
       <c r="J339" s="8"/>
       <c r="K339" s="9"/>
     </row>
-    <row r="340" spans="1:11" ht="15.6">
+    <row r="340" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>22</v>
       </c>
@@ -11184,13 +11141,13 @@
         <v>2206</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E340" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F340" s="3">
         <v>-89.803534499799994</v>
@@ -11203,7 +11160,7 @@
       <c r="J340" s="8"/>
       <c r="K340" s="9"/>
     </row>
-    <row r="341" spans="1:11" ht="15.6">
+    <row r="341" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>22</v>
       </c>
@@ -11211,13 +11168,13 @@
         <v>2207</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E341" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F341" s="3">
         <v>-89.727179436300005</v>
@@ -11230,7 +11187,7 @@
       <c r="J341" s="8"/>
       <c r="K341" s="9"/>
     </row>
-    <row r="342" spans="1:11" ht="15.6">
+    <row r="342" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>22</v>
       </c>
@@ -11238,13 +11195,13 @@
         <v>2208</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E342" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F342" s="3">
         <v>-89.761909762599998</v>
@@ -11257,7 +11214,7 @@
       <c r="J342" s="8"/>
       <c r="K342" s="9"/>
     </row>
-    <row r="343" spans="1:11" ht="15.6">
+    <row r="343" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>22</v>
       </c>
@@ -11265,13 +11222,13 @@
         <v>2209</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E343" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F343" s="3">
         <v>-89.853072771900003</v>
@@ -11284,7 +11241,7 @@
       <c r="J343" s="8"/>
       <c r="K343" s="9"/>
     </row>
-    <row r="344" spans="1:11" ht="15.6">
+    <row r="344" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>22</v>
       </c>
@@ -11292,13 +11249,13 @@
         <v>2210</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E344" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F344" s="3">
         <v>-89.821319345700005</v>
@@ -11311,7 +11268,7 @@
       <c r="J344" s="8"/>
       <c r="K344" s="9"/>
     </row>
-    <row r="345" spans="1:11" ht="15.6">
+    <row r="345" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>22</v>
       </c>
@@ -11319,13 +11276,13 @@
         <v>2211</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E345" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F345" s="3">
         <v>-89.911517754100004</v>
@@ -11338,7 +11295,7 @@
       <c r="J345" s="8"/>
       <c r="K345" s="9"/>
     </row>
-    <row r="346" spans="1:11" ht="15.6">
+    <row r="346" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>22</v>
       </c>
@@ -11346,13 +11303,13 @@
         <v>2212</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E346" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F346" s="3">
         <v>-90.009778031500005</v>
@@ -11365,7 +11322,7 @@
       <c r="J346" s="8"/>
       <c r="K346" s="9"/>
     </row>
-    <row r="347" spans="1:11" ht="15.6">
+    <row r="347" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>22</v>
       </c>
@@ -11373,13 +11330,13 @@
         <v>2213</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E347" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F347" s="3">
         <v>-90.016293872099993</v>
@@ -11392,7 +11349,7 @@
       <c r="J347" s="8"/>
       <c r="K347" s="9"/>
     </row>
-    <row r="348" spans="1:11" ht="15.6">
+    <row r="348" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>22</v>
       </c>
@@ -11400,13 +11357,13 @@
         <v>2214</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E348" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F348" s="3">
         <v>-90.1256230149</v>
@@ -11419,7 +11376,7 @@
       <c r="J348" s="8"/>
       <c r="K348" s="9"/>
     </row>
-    <row r="349" spans="1:11" ht="15.6">
+    <row r="349" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>22</v>
       </c>
@@ -11427,13 +11384,13 @@
         <v>2215</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E349" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F349" s="3">
         <v>-90.263873802700004</v>
@@ -11446,7 +11403,7 @@
       <c r="J349" s="8"/>
       <c r="K349" s="9"/>
     </row>
-    <row r="350" spans="1:11" ht="15.6">
+    <row r="350" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>22</v>
       </c>
@@ -11454,13 +11411,13 @@
         <v>2216</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E350" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F350" s="3">
         <v>-90.145609953900006</v>
@@ -11473,7 +11430,7 @@
       <c r="J350" s="8"/>
       <c r="K350" s="9"/>
     </row>
-    <row r="351" spans="1:11" ht="15.6">
+    <row r="351" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>22</v>
       </c>
@@ -11481,13 +11438,13 @@
         <v>2217</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E351" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F351" s="3">
         <v>-90.059505582</v>
@@ -11531,5 +11488,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0820646-A7BB-4C92-8E61-57C6554FDD80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0820646-A7BB-4C92-8E61-57C6554FDD80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
+++ b/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49CD5E4E-AB5B-4924-B15E-83E72BFE2928}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4B85275-2FF2-4488-98D6-30D7C0533B08}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1173,7 +1173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,7 +1820,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Municipio" xr10:uid="{F15A2A13-CC59-4D51-B357-6A72122A9CAB}" cache="SegmentaciónDeDatos_Municipio" caption="Municipio" columnCount="9" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Departamento" xr10:uid="{C01CE7BB-94C7-48F9-9FE6-EBEB69399071}" cache="SegmentaciónDeDatos_Departamento" caption="Departamento" columnCount="4" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Departamento" xr10:uid="{C01CE7BB-94C7-48F9-9FE6-EBEB69399071}" cache="SegmentaciónDeDatos_Departamento" caption="Departamento" startItem="4" columnCount="4" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Cuarentena (SI)" xr10:uid="{526E11D5-8444-4DC4-AC7A-F132E2698399}" cache="SegmentaciónDeDatos_Cuarentena__SI" caption="Cuarentena (SI)" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Cordón Sanitario (SI)" xr10:uid="{23800F20-AFA8-4F10-B9A5-1114DB3DF283}" cache="SegmentaciónDeDatos_Cordón_Sanitario__SI" caption="Cordón Sanitario (SI)" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
@@ -1828,7 +1828,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{440357D0-DB3D-4363-9078-4A4152144C7C}" name="CUARENTENA" displayName="CUARENTENA" ref="A10:K351" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A10:K351" xr:uid="{7D8986B2-82D7-4C79-8B4E-BA728CF7C5D1}"/>
+  <autoFilter ref="A10:K351" xr:uid="{7D8986B2-82D7-4C79-8B4E-BA728CF7C5D1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Almolonga"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Guatemala"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{A81063DF-699C-46F0-B07C-9502344C1751}" name="Id_Dep" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{CE725D6D-71EF-44A6-BD8F-98C08CDB9356}" name="Id_Mun" dataDxfId="6"/>
@@ -1847,7 +1858,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2146,26 +2157,26 @@
   <dimension ref="A10:K351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I310" sqref="I310"/>
+      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="6" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2200,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.6" hidden="1">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2227,7 +2238,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="50.25" hidden="1" customHeight="1">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.6" hidden="1">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2285,7 +2296,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.6" hidden="1">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2312,7 +2323,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.6" hidden="1">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -2339,7 +2350,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.6" hidden="1">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -2366,7 +2377,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.6" hidden="1">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -2393,7 +2404,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.6" hidden="1">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2420,7 +2431,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.6" hidden="1">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.6" hidden="1">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2474,7 +2485,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.6" hidden="1">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2501,7 +2512,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.6" hidden="1">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2528,7 +2539,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.6" hidden="1">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2555,7 +2566,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.6" hidden="1">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2582,7 +2593,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.6" hidden="1">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2609,7 +2620,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.6" hidden="1">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2636,7 +2647,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.6" hidden="1">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2663,7 +2674,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.6" hidden="1">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2690,7 +2701,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.6" hidden="1">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2717,7 +2728,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="40.9" hidden="1">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2748,7 +2759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.6" hidden="1">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -2775,7 +2786,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.6" hidden="1">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -2802,7 +2813,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.6" hidden="1">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -2829,7 +2840,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.6" hidden="1">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2856,7 +2867,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.6" hidden="1">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -2883,7 +2894,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15.6" hidden="1">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -2910,7 +2921,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15.6" hidden="1">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -2937,7 +2948,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.6" hidden="1">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -2964,7 +2975,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.6" hidden="1">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -2991,7 +3002,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.6" hidden="1">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -3018,7 +3029,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.6" hidden="1">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3045,7 +3056,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15.6" hidden="1">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -3072,7 +3083,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15.6" hidden="1">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -3099,7 +3110,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.6" hidden="1">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -3126,7 +3137,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15.6" hidden="1">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -3153,7 +3164,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.6" hidden="1">
       <c r="A46" s="2">
         <v>3</v>
       </c>
@@ -3180,7 +3191,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.6" hidden="1">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -3207,7 +3218,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15.6" hidden="1">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -3234,7 +3245,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.6" hidden="1">
       <c r="A49" s="2">
         <v>3</v>
       </c>
@@ -3261,7 +3272,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15.6" hidden="1">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3288,7 +3299,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15.6" hidden="1">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -3315,7 +3326,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15.6" hidden="1">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3342,7 +3353,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15.6" hidden="1">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -3369,7 +3380,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15.6" hidden="1">
       <c r="A54" s="2">
         <v>4</v>
       </c>
@@ -3396,7 +3407,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15.6" hidden="1">
       <c r="A55" s="2">
         <v>4</v>
       </c>
@@ -3423,7 +3434,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15.6" hidden="1">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3450,7 +3461,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15.6" hidden="1">
       <c r="A57" s="2">
         <v>4</v>
       </c>
@@ -3477,7 +3488,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="40.9" hidden="1">
       <c r="A58" s="2">
         <v>4</v>
       </c>
@@ -3512,7 +3523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15.6" hidden="1">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -3539,7 +3550,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15.6" hidden="1">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -3566,7 +3577,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15.6" hidden="1">
       <c r="A61" s="2">
         <v>4</v>
       </c>
@@ -3593,7 +3604,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15.6" hidden="1">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -3620,7 +3631,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.6" hidden="1">
       <c r="A63" s="2">
         <v>4</v>
       </c>
@@ -3647,7 +3658,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15.6" hidden="1">
       <c r="A64" s="2">
         <v>4</v>
       </c>
@@ -3674,7 +3685,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15.6" hidden="1">
       <c r="A65" s="2">
         <v>4</v>
       </c>
@@ -3701,7 +3712,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15.6" hidden="1">
       <c r="A66" s="2">
         <v>4</v>
       </c>
@@ -3728,7 +3739,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15.6" hidden="1">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -3755,7 +3766,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15.6" hidden="1">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -3782,7 +3793,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15.6" hidden="1">
       <c r="A69" s="2">
         <v>5</v>
       </c>
@@ -3809,7 +3820,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.6" hidden="1">
       <c r="A70" s="2">
         <v>5</v>
       </c>
@@ -3836,7 +3847,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.6" hidden="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
@@ -3863,7 +3874,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15.6" hidden="1">
       <c r="A72" s="2">
         <v>5</v>
       </c>
@@ -3890,7 +3901,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15.6" hidden="1">
       <c r="A73" s="2">
         <v>5</v>
       </c>
@@ -3917,7 +3928,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15.6" hidden="1">
       <c r="A74" s="2">
         <v>5</v>
       </c>
@@ -3944,7 +3955,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15.6" hidden="1">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -3971,7 +3982,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.6" hidden="1">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -3998,7 +4009,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15.6" hidden="1">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -4025,7 +4036,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15.6" hidden="1">
       <c r="A78" s="2">
         <v>5</v>
       </c>
@@ -4052,7 +4063,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15.6" hidden="1">
       <c r="A79" s="2">
         <v>5</v>
       </c>
@@ -4079,7 +4090,7 @@
       <c r="J79" s="8"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15.6" hidden="1">
       <c r="A80" s="2">
         <v>5</v>
       </c>
@@ -4106,7 +4117,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15.6" hidden="1">
       <c r="A81" s="2">
         <v>5</v>
       </c>
@@ -4133,7 +4144,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15.6" hidden="1">
       <c r="A82" s="2">
         <v>6</v>
       </c>
@@ -4160,7 +4171,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15.6" hidden="1">
       <c r="A83" s="2">
         <v>6</v>
       </c>
@@ -4187,7 +4198,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15.6" hidden="1">
       <c r="A84" s="2">
         <v>6</v>
       </c>
@@ -4214,7 +4225,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15.6" hidden="1">
       <c r="A85" s="2">
         <v>6</v>
       </c>
@@ -4241,7 +4252,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15.6" hidden="1">
       <c r="A86" s="2">
         <v>6</v>
       </c>
@@ -4268,7 +4279,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15.6" hidden="1">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -4295,7 +4306,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.6" hidden="1">
       <c r="A88" s="2">
         <v>6</v>
       </c>
@@ -4322,7 +4333,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15.6" hidden="1">
       <c r="A89" s="2">
         <v>6</v>
       </c>
@@ -4349,7 +4360,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15.6" hidden="1">
       <c r="A90" s="2">
         <v>6</v>
       </c>
@@ -4376,7 +4387,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15.6" hidden="1">
       <c r="A91" s="2">
         <v>6</v>
       </c>
@@ -4403,7 +4414,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15.6" hidden="1">
       <c r="A92" s="2">
         <v>6</v>
       </c>
@@ -4430,7 +4441,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15.6" hidden="1">
       <c r="A93" s="2">
         <v>6</v>
       </c>
@@ -4457,7 +4468,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15.6" hidden="1">
       <c r="A94" s="2">
         <v>6</v>
       </c>
@@ -4484,7 +4495,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15.6" hidden="1">
       <c r="A95" s="2">
         <v>6</v>
       </c>
@@ -4511,7 +4522,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15.6" hidden="1">
       <c r="A96" s="2">
         <v>7</v>
       </c>
@@ -4538,7 +4549,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15.6" hidden="1">
       <c r="A97" s="2">
         <v>7</v>
       </c>
@@ -4565,7 +4576,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15.6" hidden="1">
       <c r="A98" s="2">
         <v>7</v>
       </c>
@@ -4592,7 +4603,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15.6" hidden="1">
       <c r="A99" s="2">
         <v>7</v>
       </c>
@@ -4619,7 +4630,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15.6" hidden="1">
       <c r="A100" s="2">
         <v>7</v>
       </c>
@@ -4646,7 +4657,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15.6" hidden="1">
       <c r="A101" s="2">
         <v>7</v>
       </c>
@@ -4673,7 +4684,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15.6" hidden="1">
       <c r="A102" s="2">
         <v>7</v>
       </c>
@@ -4700,7 +4711,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15.6" hidden="1">
       <c r="A103" s="2">
         <v>7</v>
       </c>
@@ -4727,7 +4738,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15.6" hidden="1">
       <c r="A104" s="2">
         <v>7</v>
       </c>
@@ -4754,7 +4765,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.6" hidden="1">
       <c r="A105" s="2">
         <v>7</v>
       </c>
@@ -4781,7 +4792,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15.6" hidden="1">
       <c r="A106" s="2">
         <v>7</v>
       </c>
@@ -4808,7 +4819,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15.6" hidden="1">
       <c r="A107" s="2">
         <v>7</v>
       </c>
@@ -4835,7 +4846,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15.6" hidden="1">
       <c r="A108" s="2">
         <v>7</v>
       </c>
@@ -4862,7 +4873,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15.6" hidden="1">
       <c r="A109" s="2">
         <v>7</v>
       </c>
@@ -4889,7 +4900,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15.6" hidden="1">
       <c r="A110" s="2">
         <v>7</v>
       </c>
@@ -4916,7 +4927,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15.6" hidden="1">
       <c r="A111" s="2">
         <v>7</v>
       </c>
@@ -4943,7 +4954,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15.6" hidden="1">
       <c r="A112" s="2">
         <v>7</v>
       </c>
@@ -4970,7 +4981,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15.6" hidden="1">
       <c r="A113" s="2">
         <v>7</v>
       </c>
@@ -4997,7 +5008,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.6" hidden="1">
       <c r="A114" s="2">
         <v>7</v>
       </c>
@@ -5024,7 +5035,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15.6" hidden="1">
       <c r="A115" s="2">
         <v>7</v>
       </c>
@@ -5051,7 +5062,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="30.6" hidden="1">
       <c r="A116" s="2">
         <v>8</v>
       </c>
@@ -5086,7 +5097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15.6" hidden="1">
       <c r="A117" s="2">
         <v>8</v>
       </c>
@@ -5113,7 +5124,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.6" hidden="1">
       <c r="A118" s="2">
         <v>8</v>
       </c>
@@ -5140,7 +5151,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15.6" hidden="1">
       <c r="A119" s="2">
         <v>8</v>
       </c>
@@ -5167,7 +5178,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15.6" hidden="1">
       <c r="A120" s="2">
         <v>8</v>
       </c>
@@ -5194,7 +5205,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15.6" hidden="1">
       <c r="A121" s="2">
         <v>8</v>
       </c>
@@ -5221,7 +5232,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15.6" hidden="1">
       <c r="A122" s="2">
         <v>8</v>
       </c>
@@ -5248,7 +5259,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15.6" hidden="1">
       <c r="A123" s="2">
         <v>8</v>
       </c>
@@ -5275,7 +5286,7 @@
       <c r="J123" s="8"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15.6" hidden="1">
       <c r="A124" s="2">
         <v>9</v>
       </c>
@@ -5302,7 +5313,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15.6" hidden="1">
       <c r="A125" s="2">
         <v>9</v>
       </c>
@@ -5329,7 +5340,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="1:11" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="40.9" hidden="1">
       <c r="A126" s="2">
         <v>9</v>
       </c>
@@ -5364,7 +5375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15.6" hidden="1">
       <c r="A127" s="2">
         <v>9</v>
       </c>
@@ -5391,7 +5402,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15.6" hidden="1">
       <c r="A128" s="2">
         <v>9</v>
       </c>
@@ -5418,7 +5429,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" hidden="1">
       <c r="A129" s="2">
         <v>9</v>
       </c>
@@ -5445,7 +5456,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="9"/>
     </row>
-    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" hidden="1">
       <c r="A130" s="2">
         <v>9</v>
       </c>
@@ -5472,7 +5483,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" hidden="1">
       <c r="A131" s="2">
         <v>9</v>
       </c>
@@ -5499,7 +5510,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" hidden="1">
       <c r="A132" s="2">
         <v>9</v>
       </c>
@@ -5526,7 +5537,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="9"/>
     </row>
-    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" hidden="1">
       <c r="A133" s="2">
         <v>9</v>
       </c>
@@ -5553,7 +5564,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" hidden="1">
       <c r="A134" s="2">
         <v>9</v>
       </c>
@@ -5580,7 +5591,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="9"/>
     </row>
-    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" hidden="1">
       <c r="A135" s="2">
         <v>9</v>
       </c>
@@ -5607,7 +5618,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="9"/>
     </row>
-    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" hidden="1">
       <c r="A136" s="2">
         <v>9</v>
       </c>
@@ -5634,7 +5645,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="9"/>
     </row>
-    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" hidden="1">
       <c r="A137" s="2">
         <v>9</v>
       </c>
@@ -5661,7 +5672,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" hidden="1">
       <c r="A138" s="2">
         <v>9</v>
       </c>
@@ -5688,7 +5699,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="9"/>
     </row>
-    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" hidden="1">
       <c r="A139" s="2">
         <v>9</v>
       </c>
@@ -5715,7 +5726,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="9"/>
     </row>
-    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" hidden="1">
       <c r="A140" s="2">
         <v>9</v>
       </c>
@@ -5742,7 +5753,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="9"/>
     </row>
-    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" hidden="1">
       <c r="A141" s="2">
         <v>9</v>
       </c>
@@ -5769,7 +5780,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" hidden="1">
       <c r="A142" s="2">
         <v>9</v>
       </c>
@@ -5794,7 +5805,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
     </row>
-    <row r="143" spans="1:11" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="30.6" hidden="1">
       <c r="A143" s="2">
         <v>9</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" hidden="1">
       <c r="A144" s="2">
         <v>9</v>
       </c>
@@ -5856,7 +5867,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="9"/>
     </row>
-    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" hidden="1">
       <c r="A145" s="2">
         <v>9</v>
       </c>
@@ -5883,7 +5894,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="9"/>
     </row>
-    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" hidden="1">
       <c r="A146" s="2">
         <v>9</v>
       </c>
@@ -5910,7 +5921,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.6" hidden="1">
       <c r="A147" s="2">
         <v>9</v>
       </c>
@@ -5937,7 +5948,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" hidden="1">
       <c r="A148" s="2">
         <v>10</v>
       </c>
@@ -5964,7 +5975,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" hidden="1">
       <c r="A149" s="2">
         <v>10</v>
       </c>
@@ -5991,7 +6002,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="9"/>
     </row>
-    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" hidden="1">
       <c r="A150" s="2">
         <v>10</v>
       </c>
@@ -6018,7 +6029,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="9"/>
     </row>
-    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" hidden="1">
       <c r="A151" s="2">
         <v>10</v>
       </c>
@@ -6045,7 +6056,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" hidden="1">
       <c r="A152" s="2">
         <v>10</v>
       </c>
@@ -6072,7 +6083,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" hidden="1">
       <c r="A153" s="2">
         <v>10</v>
       </c>
@@ -6099,7 +6110,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" hidden="1">
       <c r="A154" s="2">
         <v>10</v>
       </c>
@@ -6126,7 +6137,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="9"/>
     </row>
-    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" hidden="1">
       <c r="A155" s="2">
         <v>10</v>
       </c>
@@ -6153,7 +6164,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="9"/>
     </row>
-    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" hidden="1">
       <c r="A156" s="2">
         <v>10</v>
       </c>
@@ -6180,7 +6191,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.6" hidden="1">
       <c r="A157" s="2">
         <v>10</v>
       </c>
@@ -6207,7 +6218,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="9"/>
     </row>
-    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" hidden="1">
       <c r="A158" s="2">
         <v>10</v>
       </c>
@@ -6234,7 +6245,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="9"/>
     </row>
-    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.6" hidden="1">
       <c r="A159" s="2">
         <v>10</v>
       </c>
@@ -6261,7 +6272,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" hidden="1">
       <c r="A160" s="2">
         <v>10</v>
       </c>
@@ -6288,7 +6299,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="15.6" hidden="1">
       <c r="A161" s="2">
         <v>10</v>
       </c>
@@ -6315,7 +6326,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="9"/>
     </row>
-    <row r="162" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="15.6" hidden="1">
       <c r="A162" s="2">
         <v>10</v>
       </c>
@@ -6342,7 +6353,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="9"/>
     </row>
-    <row r="163" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.6" hidden="1">
       <c r="A163" s="2">
         <v>10</v>
       </c>
@@ -6369,7 +6380,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="9"/>
     </row>
-    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="15.6" hidden="1">
       <c r="A164" s="2">
         <v>10</v>
       </c>
@@ -6396,7 +6407,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="9"/>
     </row>
-    <row r="165" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="15.6" hidden="1">
       <c r="A165" s="2">
         <v>10</v>
       </c>
@@ -6423,7 +6434,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="9"/>
     </row>
-    <row r="166" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="15.6" hidden="1">
       <c r="A166" s="2">
         <v>10</v>
       </c>
@@ -6450,7 +6461,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="15.6" hidden="1">
       <c r="A167" s="2">
         <v>10</v>
       </c>
@@ -6477,7 +6488,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
     </row>
-    <row r="168" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="15.6" hidden="1">
       <c r="A168" s="2">
         <v>10</v>
       </c>
@@ -6504,7 +6515,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="9"/>
     </row>
-    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="15.6" hidden="1">
       <c r="A169" s="2">
         <v>11</v>
       </c>
@@ -6531,7 +6542,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="9"/>
     </row>
-    <row r="170" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="15.6" hidden="1">
       <c r="A170" s="2">
         <v>11</v>
       </c>
@@ -6558,7 +6569,7 @@
       <c r="J170" s="8"/>
       <c r="K170" s="9"/>
     </row>
-    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="15.6" hidden="1">
       <c r="A171" s="2">
         <v>11</v>
       </c>
@@ -6585,7 +6596,7 @@
       <c r="J171" s="8"/>
       <c r="K171" s="9"/>
     </row>
-    <row r="172" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="15.6" hidden="1">
       <c r="A172" s="2">
         <v>11</v>
       </c>
@@ -6612,7 +6623,7 @@
       <c r="J172" s="8"/>
       <c r="K172" s="9"/>
     </row>
-    <row r="173" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="15.6" hidden="1">
       <c r="A173" s="2">
         <v>11</v>
       </c>
@@ -6639,7 +6650,7 @@
       <c r="J173" s="8"/>
       <c r="K173" s="9"/>
     </row>
-    <row r="174" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="15.6" hidden="1">
       <c r="A174" s="2">
         <v>11</v>
       </c>
@@ -6666,7 +6677,7 @@
       <c r="J174" s="8"/>
       <c r="K174" s="9"/>
     </row>
-    <row r="175" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="15.6" hidden="1">
       <c r="A175" s="2">
         <v>11</v>
       </c>
@@ -6693,7 +6704,7 @@
       <c r="J175" s="8"/>
       <c r="K175" s="9"/>
     </row>
-    <row r="176" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="15.6" hidden="1">
       <c r="A176" s="2">
         <v>11</v>
       </c>
@@ -6720,7 +6731,7 @@
       <c r="J176" s="8"/>
       <c r="K176" s="9"/>
     </row>
-    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" hidden="1">
       <c r="A177" s="2">
         <v>11</v>
       </c>
@@ -6747,7 +6758,7 @@
       <c r="J177" s="8"/>
       <c r="K177" s="9"/>
     </row>
-    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" hidden="1">
       <c r="A178" s="2">
         <v>12</v>
       </c>
@@ -6774,7 +6785,7 @@
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
     </row>
-    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" hidden="1">
       <c r="A179" s="2">
         <v>12</v>
       </c>
@@ -6801,7 +6812,7 @@
       <c r="J179" s="8"/>
       <c r="K179" s="9"/>
     </row>
-    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" hidden="1">
       <c r="A180" s="2">
         <v>12</v>
       </c>
@@ -6828,7 +6839,7 @@
       <c r="J180" s="8"/>
       <c r="K180" s="9"/>
     </row>
-    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" hidden="1">
       <c r="A181" s="2">
         <v>12</v>
       </c>
@@ -6855,7 +6866,7 @@
       <c r="J181" s="8"/>
       <c r="K181" s="9"/>
     </row>
-    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" hidden="1">
       <c r="A182" s="2">
         <v>12</v>
       </c>
@@ -6882,7 +6893,7 @@
       <c r="J182" s="8"/>
       <c r="K182" s="9"/>
     </row>
-    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" hidden="1">
       <c r="A183" s="2">
         <v>12</v>
       </c>
@@ -6909,7 +6920,7 @@
       <c r="J183" s="8"/>
       <c r="K183" s="9"/>
     </row>
-    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" hidden="1">
       <c r="A184" s="2">
         <v>12</v>
       </c>
@@ -6936,7 +6947,7 @@
       <c r="J184" s="8"/>
       <c r="K184" s="9"/>
     </row>
-    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" hidden="1">
       <c r="A185" s="2">
         <v>12</v>
       </c>
@@ -6963,7 +6974,7 @@
       <c r="J185" s="8"/>
       <c r="K185" s="9"/>
     </row>
-    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" hidden="1">
       <c r="A186" s="2">
         <v>12</v>
       </c>
@@ -6990,7 +7001,7 @@
       <c r="J186" s="8"/>
       <c r="K186" s="9"/>
     </row>
-    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" hidden="1">
       <c r="A187" s="2">
         <v>12</v>
       </c>
@@ -7017,7 +7028,7 @@
       <c r="J187" s="8"/>
       <c r="K187" s="9"/>
     </row>
-    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" hidden="1">
       <c r="A188" s="2">
         <v>12</v>
       </c>
@@ -7044,7 +7055,7 @@
       <c r="J188" s="8"/>
       <c r="K188" s="9"/>
     </row>
-    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" hidden="1">
       <c r="A189" s="2">
         <v>12</v>
       </c>
@@ -7071,7 +7082,7 @@
       <c r="J189" s="8"/>
       <c r="K189" s="9"/>
     </row>
-    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" hidden="1">
       <c r="A190" s="2">
         <v>12</v>
       </c>
@@ -7098,7 +7109,7 @@
       <c r="J190" s="8"/>
       <c r="K190" s="9"/>
     </row>
-    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" hidden="1">
       <c r="A191" s="2">
         <v>12</v>
       </c>
@@ -7125,7 +7136,7 @@
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
     </row>
-    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" hidden="1">
       <c r="A192" s="2">
         <v>12</v>
       </c>
@@ -7152,7 +7163,7 @@
       <c r="J192" s="8"/>
       <c r="K192" s="9"/>
     </row>
-    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" hidden="1">
       <c r="A193" s="2">
         <v>12</v>
       </c>
@@ -7179,7 +7190,7 @@
       <c r="J193" s="8"/>
       <c r="K193" s="9"/>
     </row>
-    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" hidden="1">
       <c r="A194" s="2">
         <v>12</v>
       </c>
@@ -7206,7 +7217,7 @@
       <c r="J194" s="8"/>
       <c r="K194" s="9"/>
     </row>
-    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" hidden="1">
       <c r="A195" s="2">
         <v>12</v>
       </c>
@@ -7233,7 +7244,7 @@
       <c r="J195" s="8"/>
       <c r="K195" s="9"/>
     </row>
-    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" hidden="1">
       <c r="A196" s="2">
         <v>12</v>
       </c>
@@ -7260,7 +7271,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="9"/>
     </row>
-    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" hidden="1">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7287,7 +7298,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
     </row>
-    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" hidden="1">
       <c r="A198" s="2">
         <v>12</v>
       </c>
@@ -7314,7 +7325,7 @@
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
     </row>
-    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" hidden="1">
       <c r="A199" s="2">
         <v>12</v>
       </c>
@@ -7341,7 +7352,7 @@
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
     </row>
-    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" hidden="1">
       <c r="A200" s="2">
         <v>12</v>
       </c>
@@ -7368,7 +7379,7 @@
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
     </row>
-    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" hidden="1">
       <c r="A201" s="2">
         <v>12</v>
       </c>
@@ -7395,7 +7406,7 @@
       <c r="J201" s="8"/>
       <c r="K201" s="9"/>
     </row>
-    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" hidden="1">
       <c r="A202" s="2">
         <v>12</v>
       </c>
@@ -7422,7 +7433,7 @@
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
     </row>
-    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" hidden="1">
       <c r="A203" s="2">
         <v>12</v>
       </c>
@@ -7449,7 +7460,7 @@
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
     </row>
-    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" hidden="1">
       <c r="A204" s="2">
         <v>12</v>
       </c>
@@ -7476,7 +7487,7 @@
       <c r="J204" s="8"/>
       <c r="K204" s="9"/>
     </row>
-    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" hidden="1">
       <c r="A205" s="2">
         <v>12</v>
       </c>
@@ -7503,7 +7514,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="9"/>
     </row>
-    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" hidden="1">
       <c r="A206" s="2">
         <v>12</v>
       </c>
@@ -7530,7 +7541,7 @@
       <c r="J206" s="8"/>
       <c r="K206" s="9"/>
     </row>
-    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" hidden="1">
       <c r="A207" s="2">
         <v>12</v>
       </c>
@@ -7557,7 +7568,7 @@
       <c r="J207" s="8"/>
       <c r="K207" s="9"/>
     </row>
-    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" hidden="1">
       <c r="A208" s="2">
         <v>13</v>
       </c>
@@ -7584,7 +7595,7 @@
       <c r="J208" s="8"/>
       <c r="K208" s="9"/>
     </row>
-    <row r="209" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="15.6" hidden="1">
       <c r="A209" s="2">
         <v>13</v>
       </c>
@@ -7611,7 +7622,7 @@
       <c r="J209" s="8"/>
       <c r="K209" s="9"/>
     </row>
-    <row r="210" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="15.6" hidden="1">
       <c r="A210" s="2">
         <v>13</v>
       </c>
@@ -7638,7 +7649,7 @@
       <c r="J210" s="8"/>
       <c r="K210" s="9"/>
     </row>
-    <row r="211" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="15.6" hidden="1">
       <c r="A211" s="2">
         <v>13</v>
       </c>
@@ -7665,7 +7676,7 @@
       <c r="J211" s="8"/>
       <c r="K211" s="9"/>
     </row>
-    <row r="212" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="15.6" hidden="1">
       <c r="A212" s="2">
         <v>13</v>
       </c>
@@ -7692,7 +7703,7 @@
       <c r="J212" s="8"/>
       <c r="K212" s="9"/>
     </row>
-    <row r="213" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="15.6" hidden="1">
       <c r="A213" s="2">
         <v>13</v>
       </c>
@@ -7719,7 +7730,7 @@
       <c r="J213" s="8"/>
       <c r="K213" s="9"/>
     </row>
-    <row r="214" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="15.6" hidden="1">
       <c r="A214" s="2">
         <v>13</v>
       </c>
@@ -7746,7 +7757,7 @@
       <c r="J214" s="8"/>
       <c r="K214" s="9"/>
     </row>
-    <row r="215" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="15.6" hidden="1">
       <c r="A215" s="2">
         <v>13</v>
       </c>
@@ -7777,7 +7788,7 @@
       <c r="J215" s="8"/>
       <c r="K215" s="9"/>
     </row>
-    <row r="216" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="15.6" hidden="1">
       <c r="A216" s="2">
         <v>13</v>
       </c>
@@ -7804,7 +7815,7 @@
       <c r="J216" s="8"/>
       <c r="K216" s="9"/>
     </row>
-    <row r="217" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="15.6" hidden="1">
       <c r="A217" s="2">
         <v>13</v>
       </c>
@@ -7831,7 +7842,7 @@
       <c r="J217" s="8"/>
       <c r="K217" s="9"/>
     </row>
-    <row r="218" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="15.6" hidden="1">
       <c r="A218" s="2">
         <v>13</v>
       </c>
@@ -7858,7 +7869,7 @@
       <c r="J218" s="8"/>
       <c r="K218" s="9"/>
     </row>
-    <row r="219" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="15.6" hidden="1">
       <c r="A219" s="2">
         <v>13</v>
       </c>
@@ -7885,7 +7896,7 @@
       <c r="J219" s="8"/>
       <c r="K219" s="9"/>
     </row>
-    <row r="220" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="15.6" hidden="1">
       <c r="A220" s="2">
         <v>13</v>
       </c>
@@ -7912,7 +7923,7 @@
       <c r="J220" s="8"/>
       <c r="K220" s="9"/>
     </row>
-    <row r="221" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="15.6" hidden="1">
       <c r="A221" s="2">
         <v>13</v>
       </c>
@@ -7939,7 +7950,7 @@
       <c r="J221" s="8"/>
       <c r="K221" s="9"/>
     </row>
-    <row r="222" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="15.6" hidden="1">
       <c r="A222" s="2">
         <v>13</v>
       </c>
@@ -7966,7 +7977,7 @@
       <c r="J222" s="8"/>
       <c r="K222" s="9"/>
     </row>
-    <row r="223" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="15.6" hidden="1">
       <c r="A223" s="2">
         <v>13</v>
       </c>
@@ -7993,7 +8004,7 @@
       <c r="J223" s="8"/>
       <c r="K223" s="9"/>
     </row>
-    <row r="224" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="15.6" hidden="1">
       <c r="A224" s="2">
         <v>13</v>
       </c>
@@ -8020,7 +8031,7 @@
       <c r="J224" s="8"/>
       <c r="K224" s="9"/>
     </row>
-    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" hidden="1">
       <c r="A225" s="2">
         <v>13</v>
       </c>
@@ -8047,7 +8058,7 @@
       <c r="J225" s="8"/>
       <c r="K225" s="9"/>
     </row>
-    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" hidden="1">
       <c r="A226" s="2">
         <v>13</v>
       </c>
@@ -8074,7 +8085,7 @@
       <c r="J226" s="8"/>
       <c r="K226" s="9"/>
     </row>
-    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" hidden="1">
       <c r="A227" s="2">
         <v>13</v>
       </c>
@@ -8101,7 +8112,7 @@
       <c r="J227" s="8"/>
       <c r="K227" s="9"/>
     </row>
-    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" hidden="1">
       <c r="A228" s="2">
         <v>13</v>
       </c>
@@ -8128,7 +8139,7 @@
       <c r="J228" s="8"/>
       <c r="K228" s="9"/>
     </row>
-    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" hidden="1">
       <c r="A229" s="2">
         <v>13</v>
       </c>
@@ -8155,7 +8166,7 @@
       <c r="J229" s="8"/>
       <c r="K229" s="9"/>
     </row>
-    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" hidden="1">
       <c r="A230" s="2">
         <v>13</v>
       </c>
@@ -8182,7 +8193,7 @@
       <c r="J230" s="8"/>
       <c r="K230" s="9"/>
     </row>
-    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" hidden="1">
       <c r="A231" s="2">
         <v>13</v>
       </c>
@@ -8209,7 +8220,7 @@
       <c r="J231" s="8"/>
       <c r="K231" s="9"/>
     </row>
-    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" hidden="1">
       <c r="A232" s="2">
         <v>13</v>
       </c>
@@ -8236,7 +8247,7 @@
       <c r="J232" s="8"/>
       <c r="K232" s="9"/>
     </row>
-    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" hidden="1">
       <c r="A233" s="2">
         <v>13</v>
       </c>
@@ -8263,7 +8274,7 @@
       <c r="J233" s="8"/>
       <c r="K233" s="9"/>
     </row>
-    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" hidden="1">
       <c r="A234" s="2">
         <v>13</v>
       </c>
@@ -8290,7 +8301,7 @@
       <c r="J234" s="8"/>
       <c r="K234" s="9"/>
     </row>
-    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" hidden="1">
       <c r="A235" s="2">
         <v>13</v>
       </c>
@@ -8317,7 +8328,7 @@
       <c r="J235" s="8"/>
       <c r="K235" s="9"/>
     </row>
-    <row r="236" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="15.6" hidden="1">
       <c r="A236" s="2">
         <v>13</v>
       </c>
@@ -8344,7 +8355,7 @@
       <c r="J236" s="8"/>
       <c r="K236" s="9"/>
     </row>
-    <row r="237" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="15.6" hidden="1">
       <c r="A237" s="2">
         <v>13</v>
       </c>
@@ -8371,7 +8382,7 @@
       <c r="J237" s="8"/>
       <c r="K237" s="9"/>
     </row>
-    <row r="238" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="15.6" hidden="1">
       <c r="A238" s="2">
         <v>13</v>
       </c>
@@ -8398,7 +8409,7 @@
       <c r="J238" s="8"/>
       <c r="K238" s="9"/>
     </row>
-    <row r="239" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="15.6" hidden="1">
       <c r="A239" s="2">
         <v>13</v>
       </c>
@@ -8425,7 +8436,7 @@
       <c r="J239" s="8"/>
       <c r="K239" s="9"/>
     </row>
-    <row r="240" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="15.6" hidden="1">
       <c r="A240" s="2">
         <v>13</v>
       </c>
@@ -8452,7 +8463,7 @@
       <c r="J240" s="8"/>
       <c r="K240" s="9"/>
     </row>
-    <row r="241" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="15.6" hidden="1">
       <c r="A241" s="2">
         <v>14</v>
       </c>
@@ -8479,7 +8490,7 @@
       <c r="J241" s="8"/>
       <c r="K241" s="9"/>
     </row>
-    <row r="242" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="15.6" hidden="1">
       <c r="A242" s="2">
         <v>14</v>
       </c>
@@ -8506,7 +8517,7 @@
       <c r="J242" s="8"/>
       <c r="K242" s="9"/>
     </row>
-    <row r="243" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="15.6" hidden="1">
       <c r="A243" s="2">
         <v>14</v>
       </c>
@@ -8533,7 +8544,7 @@
       <c r="J243" s="8"/>
       <c r="K243" s="9"/>
     </row>
-    <row r="244" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="15.6" hidden="1">
       <c r="A244" s="2">
         <v>14</v>
       </c>
@@ -8560,7 +8571,7 @@
       <c r="J244" s="8"/>
       <c r="K244" s="9"/>
     </row>
-    <row r="245" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="15.6" hidden="1">
       <c r="A245" s="2">
         <v>14</v>
       </c>
@@ -8587,7 +8598,7 @@
       <c r="J245" s="8"/>
       <c r="K245" s="9"/>
     </row>
-    <row r="246" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="15.6" hidden="1">
       <c r="A246" s="2">
         <v>14</v>
       </c>
@@ -8614,7 +8625,7 @@
       <c r="J246" s="8"/>
       <c r="K246" s="9"/>
     </row>
-    <row r="247" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="15.6" hidden="1">
       <c r="A247" s="2">
         <v>14</v>
       </c>
@@ -8641,7 +8652,7 @@
       <c r="J247" s="8"/>
       <c r="K247" s="9"/>
     </row>
-    <row r="248" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="15.6" hidden="1">
       <c r="A248" s="2">
         <v>14</v>
       </c>
@@ -8668,7 +8679,7 @@
       <c r="J248" s="8"/>
       <c r="K248" s="9"/>
     </row>
-    <row r="249" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="15.6" hidden="1">
       <c r="A249" s="2">
         <v>14</v>
       </c>
@@ -8695,7 +8706,7 @@
       <c r="J249" s="8"/>
       <c r="K249" s="9"/>
     </row>
-    <row r="250" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="15.6" hidden="1">
       <c r="A250" s="2">
         <v>14</v>
       </c>
@@ -8722,7 +8733,7 @@
       <c r="J250" s="8"/>
       <c r="K250" s="9"/>
     </row>
-    <row r="251" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="15.6" hidden="1">
       <c r="A251" s="2">
         <v>14</v>
       </c>
@@ -8749,7 +8760,7 @@
       <c r="J251" s="8"/>
       <c r="K251" s="9"/>
     </row>
-    <row r="252" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="15.6" hidden="1">
       <c r="A252" s="2">
         <v>14</v>
       </c>
@@ -8776,7 +8787,7 @@
       <c r="J252" s="8"/>
       <c r="K252" s="9"/>
     </row>
-    <row r="253" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="15.6" hidden="1">
       <c r="A253" s="2">
         <v>14</v>
       </c>
@@ -8803,7 +8814,7 @@
       <c r="J253" s="8"/>
       <c r="K253" s="9"/>
     </row>
-    <row r="254" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="15.6" hidden="1">
       <c r="A254" s="2">
         <v>14</v>
       </c>
@@ -8830,7 +8841,7 @@
       <c r="J254" s="8"/>
       <c r="K254" s="9"/>
     </row>
-    <row r="255" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="15.6" hidden="1">
       <c r="A255" s="2">
         <v>14</v>
       </c>
@@ -8857,7 +8868,7 @@
       <c r="J255" s="8"/>
       <c r="K255" s="9"/>
     </row>
-    <row r="256" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="15.6" hidden="1">
       <c r="A256" s="2">
         <v>14</v>
       </c>
@@ -8884,7 +8895,7 @@
       <c r="J256" s="8"/>
       <c r="K256" s="9"/>
     </row>
-    <row r="257" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15.6" hidden="1">
       <c r="A257" s="2">
         <v>14</v>
       </c>
@@ -8911,7 +8922,7 @@
       <c r="J257" s="8"/>
       <c r="K257" s="9"/>
     </row>
-    <row r="258" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15.6" hidden="1">
       <c r="A258" s="2">
         <v>14</v>
       </c>
@@ -8938,7 +8949,7 @@
       <c r="J258" s="8"/>
       <c r="K258" s="9"/>
     </row>
-    <row r="259" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="15.6" hidden="1">
       <c r="A259" s="2">
         <v>14</v>
       </c>
@@ -8965,7 +8976,7 @@
       <c r="J259" s="8"/>
       <c r="K259" s="9"/>
     </row>
-    <row r="260" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15.6" hidden="1">
       <c r="A260" s="2">
         <v>14</v>
       </c>
@@ -8992,7 +9003,7 @@
       <c r="J260" s="8"/>
       <c r="K260" s="9"/>
     </row>
-    <row r="261" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="15.6" hidden="1">
       <c r="A261" s="2">
         <v>14</v>
       </c>
@@ -9019,7 +9030,7 @@
       <c r="J261" s="8"/>
       <c r="K261" s="9"/>
     </row>
-    <row r="262" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="15.6" hidden="1">
       <c r="A262" s="2">
         <v>15</v>
       </c>
@@ -9046,7 +9057,7 @@
       <c r="J262" s="8"/>
       <c r="K262" s="9"/>
     </row>
-    <row r="263" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="15.6" hidden="1">
       <c r="A263" s="2">
         <v>15</v>
       </c>
@@ -9073,7 +9084,7 @@
       <c r="J263" s="8"/>
       <c r="K263" s="9"/>
     </row>
-    <row r="264" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="15.6" hidden="1">
       <c r="A264" s="2">
         <v>15</v>
       </c>
@@ -9100,7 +9111,7 @@
       <c r="J264" s="8"/>
       <c r="K264" s="9"/>
     </row>
-    <row r="265" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="15.6" hidden="1">
       <c r="A265" s="2">
         <v>15</v>
       </c>
@@ -9127,7 +9138,7 @@
       <c r="J265" s="8"/>
       <c r="K265" s="9"/>
     </row>
-    <row r="266" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="15.6" hidden="1">
       <c r="A266" s="2">
         <v>15</v>
       </c>
@@ -9154,7 +9165,7 @@
       <c r="J266" s="8"/>
       <c r="K266" s="9"/>
     </row>
-    <row r="267" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="15.6" hidden="1">
       <c r="A267" s="2">
         <v>15</v>
       </c>
@@ -9181,7 +9192,7 @@
       <c r="J267" s="8"/>
       <c r="K267" s="9"/>
     </row>
-    <row r="268" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="15.6" hidden="1">
       <c r="A268" s="2">
         <v>15</v>
       </c>
@@ -9208,7 +9219,7 @@
       <c r="J268" s="8"/>
       <c r="K268" s="9"/>
     </row>
-    <row r="269" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="15.6" hidden="1">
       <c r="A269" s="2">
         <v>15</v>
       </c>
@@ -9235,7 +9246,7 @@
       <c r="J269" s="8"/>
       <c r="K269" s="9"/>
     </row>
-    <row r="270" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="15.6" hidden="1">
       <c r="A270" s="2">
         <v>16</v>
       </c>
@@ -9262,7 +9273,7 @@
       <c r="J270" s="8"/>
       <c r="K270" s="9"/>
     </row>
-    <row r="271" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="15.6" hidden="1">
       <c r="A271" s="2">
         <v>16</v>
       </c>
@@ -9289,7 +9300,7 @@
       <c r="J271" s="8"/>
       <c r="K271" s="9"/>
     </row>
-    <row r="272" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="15.6" hidden="1">
       <c r="A272" s="2">
         <v>16</v>
       </c>
@@ -9316,7 +9327,7 @@
       <c r="J272" s="8"/>
       <c r="K272" s="9"/>
     </row>
-    <row r="273" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="15.6" hidden="1">
       <c r="A273" s="2">
         <v>16</v>
       </c>
@@ -9343,7 +9354,7 @@
       <c r="J273" s="8"/>
       <c r="K273" s="9"/>
     </row>
-    <row r="274" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="15.6" hidden="1">
       <c r="A274" s="2">
         <v>16</v>
       </c>
@@ -9370,7 +9381,7 @@
       <c r="J274" s="8"/>
       <c r="K274" s="9"/>
     </row>
-    <row r="275" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="15.6" hidden="1">
       <c r="A275" s="2">
         <v>16</v>
       </c>
@@ -9397,7 +9408,7 @@
       <c r="J275" s="8"/>
       <c r="K275" s="9"/>
     </row>
-    <row r="276" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="15.6" hidden="1">
       <c r="A276" s="2">
         <v>16</v>
       </c>
@@ -9424,7 +9435,7 @@
       <c r="J276" s="8"/>
       <c r="K276" s="9"/>
     </row>
-    <row r="277" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="15.6" hidden="1">
       <c r="A277" s="2">
         <v>16</v>
       </c>
@@ -9451,7 +9462,7 @@
       <c r="J277" s="8"/>
       <c r="K277" s="9"/>
     </row>
-    <row r="278" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="15.6" hidden="1">
       <c r="A278" s="2">
         <v>16</v>
       </c>
@@ -9478,7 +9489,7 @@
       <c r="J278" s="8"/>
       <c r="K278" s="9"/>
     </row>
-    <row r="279" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="15.6" hidden="1">
       <c r="A279" s="2">
         <v>16</v>
       </c>
@@ -9505,7 +9516,7 @@
       <c r="J279" s="8"/>
       <c r="K279" s="9"/>
     </row>
-    <row r="280" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="15.6" hidden="1">
       <c r="A280" s="2">
         <v>16</v>
       </c>
@@ -9532,7 +9543,7 @@
       <c r="J280" s="8"/>
       <c r="K280" s="9"/>
     </row>
-    <row r="281" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="15.6" hidden="1">
       <c r="A281" s="2">
         <v>16</v>
       </c>
@@ -9559,7 +9570,7 @@
       <c r="J281" s="8"/>
       <c r="K281" s="9"/>
     </row>
-    <row r="282" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="15.6" hidden="1">
       <c r="A282" s="2">
         <v>16</v>
       </c>
@@ -9586,7 +9597,7 @@
       <c r="J282" s="8"/>
       <c r="K282" s="9"/>
     </row>
-    <row r="283" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="15.6" hidden="1">
       <c r="A283" s="2">
         <v>16</v>
       </c>
@@ -9613,7 +9624,7 @@
       <c r="J283" s="8"/>
       <c r="K283" s="9"/>
     </row>
-    <row r="284" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="15.6" hidden="1">
       <c r="A284" s="2">
         <v>16</v>
       </c>
@@ -9640,7 +9651,7 @@
       <c r="J284" s="8"/>
       <c r="K284" s="9"/>
     </row>
-    <row r="285" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="15.6" hidden="1">
       <c r="A285" s="2">
         <v>16</v>
       </c>
@@ -9667,7 +9678,7 @@
       <c r="J285" s="8"/>
       <c r="K285" s="9"/>
     </row>
-    <row r="286" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="15.6" hidden="1">
       <c r="A286" s="2">
         <v>16</v>
       </c>
@@ -9694,7 +9705,7 @@
       <c r="J286" s="8"/>
       <c r="K286" s="9"/>
     </row>
-    <row r="287" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="15.6" hidden="1">
       <c r="A287" s="2">
         <v>17</v>
       </c>
@@ -9721,7 +9732,7 @@
       <c r="J287" s="8"/>
       <c r="K287" s="9"/>
     </row>
-    <row r="288" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="15.6" hidden="1">
       <c r="A288" s="2">
         <v>17</v>
       </c>
@@ -9748,7 +9759,7 @@
       <c r="J288" s="8"/>
       <c r="K288" s="9"/>
     </row>
-    <row r="289" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="15.6" hidden="1">
       <c r="A289" s="2">
         <v>17</v>
       </c>
@@ -9775,7 +9786,7 @@
       <c r="J289" s="8"/>
       <c r="K289" s="9"/>
     </row>
-    <row r="290" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="15.6" hidden="1">
       <c r="A290" s="2">
         <v>17</v>
       </c>
@@ -9802,7 +9813,7 @@
       <c r="J290" s="8"/>
       <c r="K290" s="9"/>
     </row>
-    <row r="291" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="15.6" hidden="1">
       <c r="A291" s="2">
         <v>17</v>
       </c>
@@ -9829,7 +9840,7 @@
       <c r="J291" s="8"/>
       <c r="K291" s="9"/>
     </row>
-    <row r="292" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="15.6" hidden="1">
       <c r="A292" s="2">
         <v>17</v>
       </c>
@@ -9856,7 +9867,7 @@
       <c r="J292" s="8"/>
       <c r="K292" s="9"/>
     </row>
-    <row r="293" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="15.6" hidden="1">
       <c r="A293" s="2">
         <v>17</v>
       </c>
@@ -9883,7 +9894,7 @@
       <c r="J293" s="8"/>
       <c r="K293" s="9"/>
     </row>
-    <row r="294" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="15.6" hidden="1">
       <c r="A294" s="2">
         <v>17</v>
       </c>
@@ -9910,7 +9921,7 @@
       <c r="J294" s="8"/>
       <c r="K294" s="9"/>
     </row>
-    <row r="295" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="15.6" hidden="1">
       <c r="A295" s="2">
         <v>17</v>
       </c>
@@ -9937,7 +9948,7 @@
       <c r="J295" s="8"/>
       <c r="K295" s="9"/>
     </row>
-    <row r="296" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="15.6" hidden="1">
       <c r="A296" s="2">
         <v>17</v>
       </c>
@@ -9964,7 +9975,7 @@
       <c r="J296" s="8"/>
       <c r="K296" s="9"/>
     </row>
-    <row r="297" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="15.6" hidden="1">
       <c r="A297" s="2">
         <v>17</v>
       </c>
@@ -9991,7 +10002,7 @@
       <c r="J297" s="8"/>
       <c r="K297" s="9"/>
     </row>
-    <row r="298" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="15.6" hidden="1">
       <c r="A298" s="2">
         <v>17</v>
       </c>
@@ -10018,7 +10029,7 @@
       <c r="J298" s="8"/>
       <c r="K298" s="9"/>
     </row>
-    <row r="299" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="15.6" hidden="1">
       <c r="A299" s="2">
         <v>17</v>
       </c>
@@ -10045,7 +10056,7 @@
       <c r="J299" s="8"/>
       <c r="K299" s="9"/>
     </row>
-    <row r="300" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="15.6" hidden="1">
       <c r="A300" s="2">
         <v>17</v>
       </c>
@@ -10072,7 +10083,7 @@
       <c r="J300" s="8"/>
       <c r="K300" s="9"/>
     </row>
-    <row r="301" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="15.6" hidden="1">
       <c r="A301" s="2">
         <v>18</v>
       </c>
@@ -10099,7 +10110,7 @@
       <c r="J301" s="8"/>
       <c r="K301" s="9"/>
     </row>
-    <row r="302" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="15.6" hidden="1">
       <c r="A302" s="2">
         <v>18</v>
       </c>
@@ -10126,7 +10137,7 @@
       <c r="J302" s="8"/>
       <c r="K302" s="9"/>
     </row>
-    <row r="303" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="15.6" hidden="1">
       <c r="A303" s="2">
         <v>18</v>
       </c>
@@ -10153,7 +10164,7 @@
       <c r="J303" s="8"/>
       <c r="K303" s="9"/>
     </row>
-    <row r="304" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="15.6" hidden="1">
       <c r="A304" s="2">
         <v>18</v>
       </c>
@@ -10180,7 +10191,7 @@
       <c r="J304" s="8"/>
       <c r="K304" s="9"/>
     </row>
-    <row r="305" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="15.6" hidden="1">
       <c r="A305" s="2">
         <v>18</v>
       </c>
@@ -10207,7 +10218,7 @@
       <c r="J305" s="8"/>
       <c r="K305" s="9"/>
     </row>
-    <row r="306" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="15.6" hidden="1">
       <c r="A306" s="2">
         <v>19</v>
       </c>
@@ -10234,7 +10245,7 @@
       <c r="J306" s="8"/>
       <c r="K306" s="9"/>
     </row>
-    <row r="307" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="15.6" hidden="1">
       <c r="A307" s="2">
         <v>19</v>
       </c>
@@ -10261,7 +10272,7 @@
       <c r="J307" s="8"/>
       <c r="K307" s="9"/>
     </row>
-    <row r="308" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="15.6" hidden="1">
       <c r="A308" s="2">
         <v>19</v>
       </c>
@@ -10288,7 +10299,7 @@
       <c r="J308" s="8"/>
       <c r="K308" s="9"/>
     </row>
-    <row r="309" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="15.6" hidden="1">
       <c r="A309" s="2">
         <v>19</v>
       </c>
@@ -10319,7 +10330,7 @@
       <c r="J309" s="8"/>
       <c r="K309" s="9"/>
     </row>
-    <row r="310" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="15.6" hidden="1">
       <c r="A310" s="2">
         <v>19</v>
       </c>
@@ -10350,7 +10361,7 @@
       <c r="J310" s="8"/>
       <c r="K310" s="9"/>
     </row>
-    <row r="311" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="15.6" hidden="1">
       <c r="A311" s="2">
         <v>19</v>
       </c>
@@ -10377,7 +10388,7 @@
       <c r="J311" s="8"/>
       <c r="K311" s="9"/>
     </row>
-    <row r="312" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="15.6" hidden="1">
       <c r="A312" s="2">
         <v>19</v>
       </c>
@@ -10404,7 +10415,7 @@
       <c r="J312" s="8"/>
       <c r="K312" s="9"/>
     </row>
-    <row r="313" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="15.6" hidden="1">
       <c r="A313" s="2">
         <v>19</v>
       </c>
@@ -10431,7 +10442,7 @@
       <c r="J313" s="8"/>
       <c r="K313" s="9"/>
     </row>
-    <row r="314" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="15.6" hidden="1">
       <c r="A314" s="2">
         <v>19</v>
       </c>
@@ -10458,7 +10469,7 @@
       <c r="J314" s="8"/>
       <c r="K314" s="9"/>
     </row>
-    <row r="315" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="15.6" hidden="1">
       <c r="A315" s="2">
         <v>19</v>
       </c>
@@ -10485,7 +10496,7 @@
       <c r="J315" s="8"/>
       <c r="K315" s="9"/>
     </row>
-    <row r="316" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="15.6" hidden="1">
       <c r="A316" s="2">
         <v>19</v>
       </c>
@@ -10512,7 +10523,7 @@
       <c r="J316" s="8"/>
       <c r="K316" s="9"/>
     </row>
-    <row r="317" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="15.6" hidden="1">
       <c r="A317" s="2">
         <v>20</v>
       </c>
@@ -10539,7 +10550,7 @@
       <c r="J317" s="8"/>
       <c r="K317" s="9"/>
     </row>
-    <row r="318" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="15.6" hidden="1">
       <c r="A318" s="2">
         <v>20</v>
       </c>
@@ -10566,7 +10577,7 @@
       <c r="J318" s="8"/>
       <c r="K318" s="9"/>
     </row>
-    <row r="319" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="15.6" hidden="1">
       <c r="A319" s="2">
         <v>20</v>
       </c>
@@ -10593,7 +10604,7 @@
       <c r="J319" s="8"/>
       <c r="K319" s="9"/>
     </row>
-    <row r="320" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="15.6" hidden="1">
       <c r="A320" s="2">
         <v>20</v>
       </c>
@@ -10620,7 +10631,7 @@
       <c r="J320" s="8"/>
       <c r="K320" s="9"/>
     </row>
-    <row r="321" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="15.6" hidden="1">
       <c r="A321" s="2">
         <v>20</v>
       </c>
@@ -10647,7 +10658,7 @@
       <c r="J321" s="8"/>
       <c r="K321" s="9"/>
     </row>
-    <row r="322" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="15.6" hidden="1">
       <c r="A322" s="2">
         <v>20</v>
       </c>
@@ -10674,7 +10685,7 @@
       <c r="J322" s="8"/>
       <c r="K322" s="9"/>
     </row>
-    <row r="323" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="15.6" hidden="1">
       <c r="A323" s="2">
         <v>20</v>
       </c>
@@ -10701,7 +10712,7 @@
       <c r="J323" s="8"/>
       <c r="K323" s="9"/>
     </row>
-    <row r="324" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="15.6" hidden="1">
       <c r="A324" s="2">
         <v>20</v>
       </c>
@@ -10728,7 +10739,7 @@
       <c r="J324" s="8"/>
       <c r="K324" s="9"/>
     </row>
-    <row r="325" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="15.6" hidden="1">
       <c r="A325" s="2">
         <v>20</v>
       </c>
@@ -10755,7 +10766,7 @@
       <c r="J325" s="8"/>
       <c r="K325" s="9"/>
     </row>
-    <row r="326" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="15.6" hidden="1">
       <c r="A326" s="2">
         <v>20</v>
       </c>
@@ -10782,7 +10793,7 @@
       <c r="J326" s="8"/>
       <c r="K326" s="9"/>
     </row>
-    <row r="327" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="15.6" hidden="1">
       <c r="A327" s="2">
         <v>20</v>
       </c>
@@ -10809,7 +10820,7 @@
       <c r="J327" s="8"/>
       <c r="K327" s="9"/>
     </row>
-    <row r="328" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="15.6" hidden="1">
       <c r="A328" s="2">
         <v>21</v>
       </c>
@@ -10836,7 +10847,7 @@
       <c r="J328" s="8"/>
       <c r="K328" s="9"/>
     </row>
-    <row r="329" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="15.6" hidden="1">
       <c r="A329" s="2">
         <v>21</v>
       </c>
@@ -10863,7 +10874,7 @@
       <c r="J329" s="8"/>
       <c r="K329" s="9"/>
     </row>
-    <row r="330" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="15.6" hidden="1">
       <c r="A330" s="2">
         <v>21</v>
       </c>
@@ -10890,7 +10901,7 @@
       <c r="J330" s="8"/>
       <c r="K330" s="9"/>
     </row>
-    <row r="331" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="15.6" hidden="1">
       <c r="A331" s="2">
         <v>21</v>
       </c>
@@ -10917,7 +10928,7 @@
       <c r="J331" s="8"/>
       <c r="K331" s="9"/>
     </row>
-    <row r="332" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="15.6" hidden="1">
       <c r="A332" s="2">
         <v>21</v>
       </c>
@@ -10944,7 +10955,7 @@
       <c r="J332" s="8"/>
       <c r="K332" s="9"/>
     </row>
-    <row r="333" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="15.6" hidden="1">
       <c r="A333" s="2">
         <v>21</v>
       </c>
@@ -10971,7 +10982,7 @@
       <c r="J333" s="8"/>
       <c r="K333" s="9"/>
     </row>
-    <row r="334" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="15.6" hidden="1">
       <c r="A334" s="2">
         <v>21</v>
       </c>
@@ -10998,7 +11009,7 @@
       <c r="J334" s="8"/>
       <c r="K334" s="9"/>
     </row>
-    <row r="335" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="15.6" hidden="1">
       <c r="A335" s="2">
         <v>22</v>
       </c>
@@ -11025,7 +11036,7 @@
       <c r="J335" s="8"/>
       <c r="K335" s="9"/>
     </row>
-    <row r="336" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="15.6" hidden="1">
       <c r="A336" s="2">
         <v>22</v>
       </c>
@@ -11052,7 +11063,7 @@
       <c r="J336" s="8"/>
       <c r="K336" s="9"/>
     </row>
-    <row r="337" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="15.6" hidden="1">
       <c r="A337" s="2">
         <v>22</v>
       </c>
@@ -11079,7 +11090,7 @@
       <c r="J337" s="8"/>
       <c r="K337" s="9"/>
     </row>
-    <row r="338" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="15.6" hidden="1">
       <c r="A338" s="2">
         <v>22</v>
       </c>
@@ -11106,7 +11117,7 @@
       <c r="J338" s="8"/>
       <c r="K338" s="9"/>
     </row>
-    <row r="339" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="15.6" hidden="1">
       <c r="A339" s="2">
         <v>22</v>
       </c>
@@ -11133,7 +11144,7 @@
       <c r="J339" s="8"/>
       <c r="K339" s="9"/>
     </row>
-    <row r="340" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="15.6" hidden="1">
       <c r="A340" s="2">
         <v>22</v>
       </c>
@@ -11160,7 +11171,7 @@
       <c r="J340" s="8"/>
       <c r="K340" s="9"/>
     </row>
-    <row r="341" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="15.6" hidden="1">
       <c r="A341" s="2">
         <v>22</v>
       </c>
@@ -11187,7 +11198,7 @@
       <c r="J341" s="8"/>
       <c r="K341" s="9"/>
     </row>
-    <row r="342" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="15.6" hidden="1">
       <c r="A342" s="2">
         <v>22</v>
       </c>
@@ -11214,7 +11225,7 @@
       <c r="J342" s="8"/>
       <c r="K342" s="9"/>
     </row>
-    <row r="343" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="15.6" hidden="1">
       <c r="A343" s="2">
         <v>22</v>
       </c>
@@ -11241,7 +11252,7 @@
       <c r="J343" s="8"/>
       <c r="K343" s="9"/>
     </row>
-    <row r="344" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="15.6" hidden="1">
       <c r="A344" s="2">
         <v>22</v>
       </c>
@@ -11268,7 +11279,7 @@
       <c r="J344" s="8"/>
       <c r="K344" s="9"/>
     </row>
-    <row r="345" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="15.6" hidden="1">
       <c r="A345" s="2">
         <v>22</v>
       </c>
@@ -11295,7 +11306,7 @@
       <c r="J345" s="8"/>
       <c r="K345" s="9"/>
     </row>
-    <row r="346" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="15.6" hidden="1">
       <c r="A346" s="2">
         <v>22</v>
       </c>
@@ -11322,7 +11333,7 @@
       <c r="J346" s="8"/>
       <c r="K346" s="9"/>
     </row>
-    <row r="347" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="15.6" hidden="1">
       <c r="A347" s="2">
         <v>22</v>
       </c>
@@ -11349,7 +11360,7 @@
       <c r="J347" s="8"/>
       <c r="K347" s="9"/>
     </row>
-    <row r="348" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="15.6" hidden="1">
       <c r="A348" s="2">
         <v>22</v>
       </c>
@@ -11376,7 +11387,7 @@
       <c r="J348" s="8"/>
       <c r="K348" s="9"/>
     </row>
-    <row r="349" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="15.6" hidden="1">
       <c r="A349" s="2">
         <v>22</v>
       </c>
@@ -11403,7 +11414,7 @@
       <c r="J349" s="8"/>
       <c r="K349" s="9"/>
     </row>
-    <row r="350" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="15.6" hidden="1">
       <c r="A350" s="2">
         <v>22</v>
       </c>
@@ -11430,7 +11441,7 @@
       <c r="J350" s="8"/>
       <c r="K350" s="9"/>
     </row>
-    <row r="351" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="15.6" hidden="1">
       <c r="A351" s="2">
         <v>22</v>
       </c>
@@ -11488,9 +11499,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0820646-A7BB-4C92-8E61-57C6554FDD80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0820646-A7BB-4C92-8E61-57C6554FDD80}"/>
 </file>
--- a/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
+++ b/datacovidgt/00 DATACOVID_GT_CUARENTENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22918"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F4B85275-2FF2-4488-98D6-30D7C0533B08}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{A9F190C0-AECD-4B67-9C8B-6A53EABFC553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A34048A-F894-4BFD-B9EA-713D5C539B4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="373">
   <si>
     <t>Id_Dep</t>
   </si>
@@ -687,6 +687,12 @@
   </si>
   <si>
     <t>Malacatán</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No se permite el ingreso y egreso de personas al municipio por ser foco de contagio en dicho lugar se reportan 33 casos positivos y de ahi se ha extendido a otros municipios del Departamento de San Marcos</t>
   </si>
   <si>
     <t>Catarina</t>
@@ -1831,12 +1837,12 @@
   <autoFilter ref="A10:K351" xr:uid="{7D8986B2-82D7-4C79-8B4E-BA728CF7C5D1}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Almolonga"/>
+        <filter val="Malacatán"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="Guatemala"/>
+        <filter val="San Marcos"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2157,8 +2163,8 @@
   <dimension ref="A10:K351"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:I10"/>
+      <pane ySplit="10" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -7136,7 +7142,7 @@
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
     </row>
-    <row r="192" spans="1:11" ht="15.6" hidden="1">
+    <row r="192" spans="1:11" ht="67.5">
       <c r="A192" s="2">
         <v>12</v>
       </c>
@@ -7158,10 +7164,16 @@
       <c r="G192" s="3">
         <v>14.9344199816</v>
       </c>
-      <c r="H192" s="8"/>
+      <c r="H192" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="I192" s="9"/>
-      <c r="J192" s="8"/>
-      <c r="K192" s="9"/>
+      <c r="J192" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K192" s="9" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="193" spans="1:11" ht="15.6" hidden="1">
       <c r="A193" s="2">
@@ -7171,7 +7183,7 @@
         <v>1216</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>198</v>
@@ -7198,7 +7210,7 @@
         <v>1217</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>198</v>
@@ -7225,7 +7237,7 @@
         <v>1218</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>198</v>
@@ -7252,7 +7264,7 @@
         <v>1219</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>198</v>
@@ -7279,7 +7291,7 @@
         <v>1220</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>198</v>
@@ -7306,7 +7318,7 @@
         <v>1221</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>198</v>
@@ -7333,7 +7345,7 @@
         <v>1222</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>198</v>
@@ -7360,7 +7372,7 @@
         <v>1223</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>198</v>
@@ -7387,7 +7399,7 @@
         <v>1224</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>198</v>
@@ -7414,7 +7426,7 @@
         <v>1225</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>198</v>
@@ -7441,7 +7453,7 @@
         <v>1226</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>198</v>
@@ -7468,7 +7480,7 @@
         <v>1227</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>198</v>
@@ -7495,7 +7507,7 @@
         <v>1228</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>198</v>
@@ -7549,7 +7561,7 @@
         <v>1230</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>198</v>
@@ -7576,10 +7588,10 @@
         <v>1301</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E208" t="s">
         <v>129</v>
@@ -7603,10 +7615,10 @@
         <v>1302</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E209" t="s">
         <v>129</v>
@@ -7630,10 +7642,10 @@
         <v>1303</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E210" t="s">
         <v>129</v>
@@ -7657,10 +7669,10 @@
         <v>1304</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E211" t="s">
         <v>129</v>
@@ -7684,10 +7696,10 @@
         <v>1305</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E212" t="s">
         <v>129</v>
@@ -7711,10 +7723,10 @@
         <v>1306</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E213" t="s">
         <v>129</v>
@@ -7738,10 +7750,10 @@
         <v>1307</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E214" t="s">
         <v>129</v>
@@ -7765,10 +7777,10 @@
         <v>1308</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E215" t="s">
         <v>129</v>
@@ -7796,10 +7808,10 @@
         <v>1309</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E216" t="s">
         <v>129</v>
@@ -7826,7 +7838,7 @@
         <v>182</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E217" t="s">
         <v>129</v>
@@ -7850,10 +7862,10 @@
         <v>1311</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E218" t="s">
         <v>129</v>
@@ -7880,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E219" t="s">
         <v>129</v>
@@ -7904,10 +7916,10 @@
         <v>1313</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E220" t="s">
         <v>129</v>
@@ -7931,10 +7943,10 @@
         <v>1314</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E221" t="s">
         <v>129</v>
@@ -7958,10 +7970,10 @@
         <v>1315</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E222" t="s">
         <v>129</v>
@@ -7985,10 +7997,10 @@
         <v>1316</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E223" t="s">
         <v>129</v>
@@ -8012,10 +8024,10 @@
         <v>1317</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E224" t="s">
         <v>129</v>
@@ -8039,10 +8051,10 @@
         <v>1318</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E225" t="s">
         <v>129</v>
@@ -8066,10 +8078,10 @@
         <v>1319</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E226" t="s">
         <v>129</v>
@@ -8093,10 +8105,10 @@
         <v>1320</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E227" t="s">
         <v>129</v>
@@ -8120,10 +8132,10 @@
         <v>1321</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E228" t="s">
         <v>129</v>
@@ -8147,10 +8159,10 @@
         <v>1322</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E229" t="s">
         <v>129</v>
@@ -8174,10 +8186,10 @@
         <v>1323</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E230" t="s">
         <v>129</v>
@@ -8201,10 +8213,10 @@
         <v>1324</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E231" t="s">
         <v>129</v>
@@ -8228,10 +8240,10 @@
         <v>1325</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E232" t="s">
         <v>129</v>
@@ -8255,10 +8267,10 @@
         <v>1326</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E233" t="s">
         <v>129</v>
@@ -8282,10 +8294,10 @@
         <v>1327</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E234" t="s">
         <v>129</v>
@@ -8309,10 +8321,10 @@
         <v>1328</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E235" t="s">
         <v>129</v>
@@ -8336,10 +8348,10 @@
         <v>1329</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E236" t="s">
         <v>129</v>
@@ -8363,10 +8375,10 @@
         <v>1330</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E237" t="s">
         <v>129</v>
@@ -8390,10 +8402,10 @@
         <v>1331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E238" t="s">
         <v>129</v>
@@ -8417,10 +8429,10 @@
         <v>1332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E239" t="s">
         <v>129</v>
@@ -8444,10 +8456,10 @@
         <v>1333</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E240" t="s">
         <v>129</v>
@@ -8471,10 +8483,10 @@
         <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E241" t="s">
         <v>109</v>
@@ -8498,10 +8510,10 @@
         <v>1402</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E242" t="s">
         <v>109</v>
@@ -8525,10 +8537,10 @@
         <v>1403</v>
       </c>
       <c r="C243" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E243" t="s">
         <v>109</v>
@@ -8552,10 +8564,10 @@
         <v>1404</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E244" t="s">
         <v>109</v>
@@ -8579,10 +8591,10 @@
         <v>1405</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E245" t="s">
         <v>109</v>
@@ -8606,10 +8618,10 @@
         <v>1406</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E246" t="s">
         <v>109</v>
@@ -8633,10 +8645,10 @@
         <v>1407</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E247" t="s">
         <v>109</v>
@@ -8660,10 +8672,10 @@
         <v>1408</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E248" t="s">
         <v>109</v>
@@ -8687,10 +8699,10 @@
         <v>1409</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E249" t="s">
         <v>109</v>
@@ -8714,10 +8726,10 @@
         <v>1410</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E250" t="s">
         <v>109</v>
@@ -8741,10 +8753,10 @@
         <v>1411</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E251" t="s">
         <v>109</v>
@@ -8768,10 +8780,10 @@
         <v>1412</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E252" t="s">
         <v>109</v>
@@ -8795,10 +8807,10 @@
         <v>1413</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E253" t="s">
         <v>109</v>
@@ -8822,10 +8834,10 @@
         <v>1414</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E254" t="s">
         <v>109</v>
@@ -8849,10 +8861,10 @@
         <v>1415</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E255" t="s">
         <v>109</v>
@@ -8876,10 +8888,10 @@
         <v>1416</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E256" t="s">
         <v>109</v>
@@ -8903,10 +8915,10 @@
         <v>1417</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E257" t="s">
         <v>109</v>
@@ -8930,10 +8942,10 @@
         <v>1418</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E258" t="s">
         <v>109</v>
@@ -8957,10 +8969,10 @@
         <v>1419</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E259" t="s">
         <v>109</v>
@@ -8984,10 +8996,10 @@
         <v>1420</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E260" t="s">
         <v>109</v>
@@ -9011,10 +9023,10 @@
         <v>1421</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E261" t="s">
         <v>109</v>
@@ -9038,10 +9050,10 @@
         <v>1501</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E262" t="s">
         <v>109</v>
@@ -9065,10 +9077,10 @@
         <v>1502</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E263" t="s">
         <v>109</v>
@@ -9092,10 +9104,10 @@
         <v>1503</v>
       </c>
       <c r="C264" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="E264" t="s">
         <v>109</v>
@@ -9119,10 +9131,10 @@
         <v>1504</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E265" t="s">
         <v>109</v>
@@ -9146,10 +9158,10 @@
         <v>1505</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E266" t="s">
         <v>109</v>
@@ -9173,10 +9185,10 @@
         <v>1506</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E267" t="s">
         <v>109</v>
@@ -9200,10 +9212,10 @@
         <v>1507</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E268" t="s">
         <v>109</v>
@@ -9227,10 +9239,10 @@
         <v>1508</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E269" t="s">
         <v>109</v>
@@ -9254,10 +9266,10 @@
         <v>1601</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E270" t="s">
         <v>109</v>
@@ -9281,10 +9293,10 @@
         <v>1602</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E271" t="s">
         <v>109</v>
@@ -9308,10 +9320,10 @@
         <v>1603</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E272" t="s">
         <v>109</v>
@@ -9335,10 +9347,10 @@
         <v>1604</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E273" t="s">
         <v>109</v>
@@ -9362,10 +9374,10 @@
         <v>1605</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E274" t="s">
         <v>109</v>
@@ -9389,10 +9401,10 @@
         <v>1606</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E275" t="s">
         <v>109</v>
@@ -9416,10 +9428,10 @@
         <v>1607</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E276" t="s">
         <v>109</v>
@@ -9443,10 +9455,10 @@
         <v>1608</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E277" t="s">
         <v>109</v>
@@ -9470,10 +9482,10 @@
         <v>1609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E278" t="s">
         <v>109</v>
@@ -9497,10 +9509,10 @@
         <v>1610</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E279" t="s">
         <v>109</v>
@@ -9524,10 +9536,10 @@
         <v>1611</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E280" t="s">
         <v>109</v>
@@ -9551,10 +9563,10 @@
         <v>1612</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E281" t="s">
         <v>109</v>
@@ -9578,10 +9590,10 @@
         <v>1613</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E282" t="s">
         <v>109</v>
@@ -9605,10 +9617,10 @@
         <v>1614</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E283" t="s">
         <v>109</v>
@@ -9632,10 +9644,10 @@
         <v>1615</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E284" t="s">
         <v>109</v>
@@ -9659,10 +9671,10 @@
         <v>1616</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E285" t="s">
         <v>109</v>
@@ -9686,10 +9698,10 @@
         <v>1617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E286" t="s">
         <v>109</v>
@@ -9713,10 +9725,10 @@
         <v>1701</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E287" t="s">
         <v>109</v>
@@ -9743,7 +9755,7 @@
         <v>86</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E288" t="s">
         <v>109</v>
@@ -9767,10 +9779,10 @@
         <v>1703</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E289" t="s">
         <v>109</v>
@@ -9794,10 +9806,10 @@
         <v>1704</v>
       </c>
       <c r="C290" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="E290" t="s">
         <v>109</v>
@@ -9821,10 +9833,10 @@
         <v>1705</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E291" t="s">
         <v>109</v>
@@ -9848,10 +9860,10 @@
         <v>1706</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E292" t="s">
         <v>109</v>
@@ -9875,10 +9887,10 @@
         <v>1707</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E293" t="s">
         <v>109</v>
@@ -9902,10 +9914,10 @@
         <v>1708</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E294" t="s">
         <v>109</v>
@@ -9929,10 +9941,10 @@
         <v>1709</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E295" t="s">
         <v>109</v>
@@ -9956,10 +9968,10 @@
         <v>1710</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E296" t="s">
         <v>109</v>
@@ -9983,10 +9995,10 @@
         <v>1711</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E297" t="s">
         <v>109</v>
@@ -10010,10 +10022,10 @@
         <v>1712</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E298" t="s">
         <v>109</v>
@@ -10037,10 +10049,10 @@
         <v>1713</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E299" t="s">
         <v>109</v>
@@ -10064,10 +10076,10 @@
         <v>1714</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E300" t="s">
         <v>109</v>
@@ -10091,10 +10103,10 @@
         <v>1801</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E301" t="s">
         <v>33</v>
@@ -10118,10 +10130,10 @@
         <v>1802</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E302" t="s">
         <v>33</v>
@@ -10145,10 +10157,10 @@
         <v>1803</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E303" t="s">
         <v>33</v>
@@ -10172,10 +10184,10 @@
         <v>1804</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E304" t="s">
         <v>33</v>
@@ -10199,10 +10211,10 @@
         <v>1805</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E305" t="s">
         <v>33</v>
@@ -10226,10 +10238,10 @@
         <v>1901</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E306" t="s">
         <v>33</v>
@@ -10253,10 +10265,10 @@
         <v>1902</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E307" t="s">
         <v>33</v>
@@ -10280,10 +10292,10 @@
         <v>1903</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="E308" t="s">
         <v>33</v>
@@ -10307,10 +10319,10 @@
         <v>1904</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E309" t="s">
         <v>33</v>
@@ -10325,7 +10337,7 @@
         <v>14</v>
       </c>
       <c r="I309" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J309" s="8"/>
       <c r="K309" s="9"/>
@@ -10338,10 +10350,10 @@
         <v>1905</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E310" t="s">
         <v>33</v>
@@ -10356,7 +10368,7 @@
         <v>14</v>
       </c>
       <c r="I310" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J310" s="8"/>
       <c r="K310" s="9"/>
@@ -10369,10 +10381,10 @@
         <v>1906</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E311" t="s">
         <v>33</v>
@@ -10396,10 +10408,10 @@
         <v>1907</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E312" t="s">
         <v>33</v>
@@ -10423,10 +10435,10 @@
         <v>1908</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E313" t="s">
         <v>33</v>
@@ -10450,10 +10462,10 @@
         <v>1909</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E314" t="s">
         <v>33</v>
@@ -10477,10 +10489,10 @@
         <v>1910</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E315" t="s">
         <v>33</v>
@@ -10504,10 +10516,10 @@
         <v>1911</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E316" t="s">
         <v>33</v>
@@ -10531,10 +10543,10 @@
         <v>2001</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E317" t="s">
         <v>33</v>
@@ -10558,10 +10570,10 @@
         <v>2002</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E318" t="s">
         <v>33</v>
@@ -10585,10 +10597,10 @@
         <v>2003</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E319" t="s">
         <v>33</v>
@@ -10612,10 +10624,10 @@
         <v>2004</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E320" t="s">
         <v>33</v>
@@ -10639,10 +10651,10 @@
         <v>2005</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E321" t="s">
         <v>33</v>
@@ -10666,10 +10678,10 @@
         <v>2006</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E322" t="s">
         <v>33</v>
@@ -10693,10 +10705,10 @@
         <v>2007</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E323" t="s">
         <v>33</v>
@@ -10720,10 +10732,10 @@
         <v>2008</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E324" t="s">
         <v>33</v>
@@ -10747,10 +10759,10 @@
         <v>2009</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E325" t="s">
         <v>33</v>
@@ -10774,10 +10786,10 @@
         <v>2010</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E326" t="s">
         <v>33</v>
@@ -10801,10 +10813,10 @@
         <v>2011</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E327" t="s">
         <v>33</v>
@@ -10828,10 +10840,10 @@
         <v>2101</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E328" t="s">
         <v>33</v>
@@ -10855,10 +10867,10 @@
         <v>2102</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E329" t="s">
         <v>33</v>
@@ -10882,10 +10894,10 @@
         <v>2103</v>
       </c>
       <c r="C330" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E330" t="s">
         <v>33</v>
@@ -10909,10 +10921,10 @@
         <v>2104</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E331" t="s">
         <v>33</v>
@@ -10936,10 +10948,10 @@
         <v>2105</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E332" t="s">
         <v>33</v>
@@ -10963,10 +10975,10 @@
         <v>2106</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E333" t="s">
         <v>33</v>
@@ -10990,10 +11002,10 @@
         <v>2107</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E334" t="s">
         <v>33</v>
@@ -11017,10 +11029,10 @@
         <v>2201</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E335" t="s">
         <v>78</v>
@@ -11047,7 +11059,7 @@
         <v>32</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E336" t="s">
         <v>78</v>
@@ -11071,10 +11083,10 @@
         <v>2203</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E337" t="s">
         <v>78</v>
@@ -11098,10 +11110,10 @@
         <v>2204</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E338" t="s">
         <v>78</v>
@@ -11125,10 +11137,10 @@
         <v>2205</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E339" t="s">
         <v>78</v>
@@ -11152,10 +11164,10 @@
         <v>2206</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E340" t="s">
         <v>78</v>
@@ -11179,10 +11191,10 @@
         <v>2207</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E341" t="s">
         <v>78</v>
@@ -11206,10 +11218,10 @@
         <v>2208</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E342" t="s">
         <v>78</v>
@@ -11233,10 +11245,10 @@
         <v>2209</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E343" t="s">
         <v>78</v>
@@ -11260,10 +11272,10 @@
         <v>2210</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E344" t="s">
         <v>78</v>
@@ -11287,10 +11299,10 @@
         <v>2211</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E345" t="s">
         <v>78</v>
@@ -11314,10 +11326,10 @@
         <v>2212</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E346" t="s">
         <v>78</v>
@@ -11341,10 +11353,10 @@
         <v>2213</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E347" t="s">
         <v>78</v>
@@ -11368,10 +11380,10 @@
         <v>2214</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E348" t="s">
         <v>78</v>
@@ -11395,10 +11407,10 @@
         <v>2215</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E349" t="s">
         <v>78</v>
@@ -11422,10 +11434,10 @@
         <v>2216</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E350" t="s">
         <v>78</v>
@@ -11449,10 +11461,10 @@
         <v>2217</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E351" t="s">
         <v>78</v>
